--- a/URUVS/Datasheets/Example_RecordingData.xlsx
+++ b/URUVS/Datasheets/Example_RecordingData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8800E01E-A690-4129-8595-D1CF9CFCAC9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC87B509-9188-4602-A748-D2D4DFBF71FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
+    <sheet name="MetaData" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
   <si>
     <t>DATE</t>
   </si>
@@ -246,6 +247,81 @@
   </si>
   <si>
     <t>T1_UNIDGUPPY</t>
+  </si>
+  <si>
+    <t>Format: dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t>TOMPOTANA OR LANTAMPEO</t>
+  </si>
+  <si>
+    <t>L/D/E</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>Number of deployment of the day</t>
+  </si>
+  <si>
+    <t>From field Notebook</t>
+  </si>
+  <si>
+    <t>From Field Notebook</t>
+  </si>
+  <si>
+    <t>In DD. Only if site has changed</t>
+  </si>
+  <si>
+    <t>Total number of files made with each recording</t>
+  </si>
+  <si>
+    <t>See field methods</t>
+  </si>
+  <si>
+    <t>From Fishing Points</t>
+  </si>
+  <si>
+    <t>Total time of each file</t>
+  </si>
+  <si>
+    <t>Time UNUSED from beginning file</t>
+  </si>
+  <si>
+    <t>Time UNUSED from end file</t>
+  </si>
+  <si>
+    <t>% of screen taken up by vegitation</t>
+  </si>
+  <si>
+    <t>From calib stick</t>
+  </si>
+  <si>
+    <t>Total number fish species found</t>
+  </si>
+  <si>
+    <t>MAXN FOR EACH FISH</t>
+  </si>
+  <si>
+    <t>TIME 1ST. NOTE: must add on time of previous files if t1 was in F2 or F3</t>
+  </si>
+  <si>
+    <t>MAXN_FISHNAME</t>
+  </si>
+  <si>
+    <t>TIME_1STFISHNAME</t>
+  </si>
+  <si>
+    <t>T1_FISHNAME</t>
+  </si>
+  <si>
+    <t>From Field (cm)</t>
+  </si>
+  <si>
+    <t>Estimated from field NB</t>
+  </si>
+  <si>
+    <t>From observation</t>
   </si>
 </sst>
 </file>
@@ -443,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -490,6 +566,60 @@
     <xf numFmtId="21" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="46" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,10 +902,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
   <dimension ref="A1:BT20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="BB1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="BO14" sqref="BO14"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3269,4 +3399,1111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C275047-2B6F-478B-B578-4E8B665EBECB}">
+  <dimension ref="A1:AJ20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI1" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" s="63" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="48"/>
+      <c r="G2" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" s="52"/>
+      <c r="U2" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" s="54">
+        <f>SUM(U2:W2)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" s="54" t="e">
+        <f>X2-Y2-Z2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB2" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF2" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG2" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" s="61" t="e">
+        <f>IF(AG2=0,"NA",AH2-$Y2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AJ2" s="62"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21">
+        <f t="shared" ref="X3:X20" si="0">SUM(U3:W3)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21">
+        <f t="shared" ref="AA3:AA20" si="1">X3-Y3-Z3</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="35" t="str">
+        <f t="shared" ref="AI3:AI20" si="2">IF(AG3=0,"NA",AH3-$Y3)</f>
+        <v>NA</v>
+      </c>
+      <c r="AJ3" s="38"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ4" s="38"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="31"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ5" s="38"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ6" s="38"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ7" s="38"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ8" s="38"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ9" s="38"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ10" s="38"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ11" s="38"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ12" s="38"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ13" s="38"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ14" s="38"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ15" s="38"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ16" s="38"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ17" s="38"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ18" s="38"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ19" s="38"/>
+    </row>
+    <row r="20" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="40"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="43"/>
+      <c r="AI20" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v>NA</v>
+      </c>
+      <c r="AJ20" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/URUVS/Datasheets/Example_RecordingData.xlsx
+++ b/URUVS/Datasheets/Example_RecordingData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC87B509-9188-4602-A748-D2D4DFBF71FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B28F99-76F9-488F-9458-E3C92501A0DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="MetaData" sheetId="3" r:id="rId2"/>
+    <sheet name="HOBO" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
   <si>
     <t>DATE</t>
   </si>
@@ -322,6 +323,18 @@
   </si>
   <si>
     <t>From observation</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>LOGGER_NO</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>NOTES</t>
   </si>
 </sst>
 </file>
@@ -519,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -620,6 +633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3405,7 +3419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C275047-2B6F-478B-B578-4E8B665EBECB}">
   <dimension ref="A1:AJ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -4506,4 +4520,45 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24E6ECB-A4E3-461A-8394-9D0B5FDC18C7}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="64"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D3" s="64"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/URUVS/Datasheets/Example_RecordingData.xlsx
+++ b/URUVS/Datasheets/Example_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B28F99-76F9-488F-9458-E3C92501A0DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CC28BE-A74E-4CFD-B199-E290174A6C1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -916,10 +916,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
   <dimension ref="A1:BT20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="topRight" activeCell="O2" sqref="O2:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1163,7 +1163,10 @@
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
+      <c r="O2" s="7">
+        <f>H2-G2</f>
+        <v>0</v>
+      </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
@@ -1282,7 +1285,10 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
+      <c r="O3" s="7">
+        <f t="shared" ref="O3:O20" si="0">H3-G3</f>
+        <v>0</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
@@ -1292,13 +1298,13 @@
       <c r="V3" s="21"/>
       <c r="W3" s="21"/>
       <c r="X3" s="21">
-        <f t="shared" ref="X3:X20" si="0">SUM(U3:W3)</f>
+        <f t="shared" ref="X3:X20" si="1">SUM(U3:W3)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="21"/>
       <c r="Z3" s="21"/>
       <c r="AA3" s="21">
-        <f t="shared" ref="AA3:AA20" si="1">X3-Y3-Z3</f>
+        <f t="shared" ref="AA3:AA20" si="2">X3-Y3-Z3</f>
         <v>0</v>
       </c>
       <c r="AB3" s="22"/>
@@ -1309,79 +1315,79 @@
       <c r="AG3" s="33"/>
       <c r="AH3" s="36"/>
       <c r="AI3" s="35" t="str">
-        <f t="shared" ref="AI3:AI20" si="2">IF(AG3=0,"NA",AH3-$Y3)</f>
+        <f t="shared" ref="AI3:AI20" si="3">IF(AG3=0,"NA",AH3-$Y3)</f>
         <v>NA</v>
       </c>
       <c r="AJ3" s="33"/>
       <c r="AK3" s="36"/>
       <c r="AL3" s="35" t="str">
-        <f t="shared" ref="AL3:AL20" si="3">IF(AJ3=0,"NA",AK3-$Y3)</f>
+        <f t="shared" ref="AL3:AL20" si="4">IF(AJ3=0,"NA",AK3-$Y3)</f>
         <v>NA</v>
       </c>
       <c r="AM3" s="33"/>
       <c r="AN3" s="36"/>
       <c r="AO3" s="35" t="str">
-        <f t="shared" ref="AO3:AO20" si="4">IF(AM3=0,"NA",AN3-$Y3)</f>
+        <f t="shared" ref="AO3:AO20" si="5">IF(AM3=0,"NA",AN3-$Y3)</f>
         <v>NA</v>
       </c>
       <c r="AP3" s="33"/>
       <c r="AQ3" s="36"/>
       <c r="AR3" s="35" t="str">
-        <f t="shared" ref="AR3:AR20" si="5">IF(AP3=0,"NA",AQ3-$Y3)</f>
+        <f t="shared" ref="AR3:AR20" si="6">IF(AP3=0,"NA",AQ3-$Y3)</f>
         <v>NA</v>
       </c>
       <c r="AS3" s="33"/>
       <c r="AT3" s="36"/>
       <c r="AU3" s="35" t="str">
-        <f t="shared" ref="AU3:AU20" si="6">IF(AS3=0,"NA",AT3-$Y3)</f>
+        <f t="shared" ref="AU3:AU20" si="7">IF(AS3=0,"NA",AT3-$Y3)</f>
         <v>NA</v>
       </c>
       <c r="AV3" s="33"/>
       <c r="AW3" s="36"/>
       <c r="AX3" s="35" t="str">
-        <f t="shared" ref="AX3:AX20" si="7">IF(AV3=0,"NA",AW3-$Y3)</f>
+        <f t="shared" ref="AX3:AX20" si="8">IF(AV3=0,"NA",AW3-$Y3)</f>
         <v>NA</v>
       </c>
       <c r="AY3" s="33"/>
       <c r="AZ3" s="36"/>
       <c r="BA3" s="35" t="str">
-        <f t="shared" ref="BA3:BA20" si="8">IF(AY3=0,"NA",AZ3-$Y3)</f>
+        <f t="shared" ref="BA3:BA20" si="9">IF(AY3=0,"NA",AZ3-$Y3)</f>
         <v>NA</v>
       </c>
       <c r="BB3" s="33"/>
       <c r="BC3" s="34"/>
       <c r="BD3" s="35" t="str">
-        <f t="shared" ref="BD3:BD20" si="9">IF(BB3=0,"NA",BC3-$Y3)</f>
+        <f t="shared" ref="BD3:BD20" si="10">IF(BB3=0,"NA",BC3-$Y3)</f>
         <v>NA</v>
       </c>
       <c r="BE3" s="33"/>
       <c r="BF3" s="34"/>
       <c r="BG3" s="35" t="str">
-        <f t="shared" ref="BG3:BG20" si="10">IF(BE3=0,"NA",BF3-$Y3)</f>
+        <f t="shared" ref="BG3:BG20" si="11">IF(BE3=0,"NA",BF3-$Y3)</f>
         <v>NA</v>
       </c>
       <c r="BH3" s="33"/>
       <c r="BI3" s="34"/>
       <c r="BJ3" s="35" t="str">
-        <f t="shared" ref="BJ3:BJ20" si="11">IF(BH3=0,"NA",BI3-$Y3)</f>
+        <f t="shared" ref="BJ3:BJ20" si="12">IF(BH3=0,"NA",BI3-$Y3)</f>
         <v>NA</v>
       </c>
       <c r="BK3" s="33"/>
       <c r="BL3" s="34"/>
       <c r="BM3" s="35" t="str">
-        <f t="shared" ref="BM3:BM20" si="12">IF(BK3=0,"NA",BL3-$Y3)</f>
+        <f t="shared" ref="BM3:BM20" si="13">IF(BK3=0,"NA",BL3-$Y3)</f>
         <v>NA</v>
       </c>
       <c r="BN3" s="33"/>
       <c r="BO3" s="34"/>
       <c r="BP3" s="35" t="str">
-        <f t="shared" ref="BP3:BP20" si="13">IF(BN3=0,"NA",BO3-$Y3)</f>
+        <f t="shared" ref="BP3:BP20" si="14">IF(BN3=0,"NA",BO3-$Y3)</f>
         <v>NA</v>
       </c>
       <c r="BQ3" s="33"/>
       <c r="BR3" s="36"/>
       <c r="BS3" s="35" t="str">
-        <f t="shared" ref="BS3:BS20" si="14">IF(BQ3=0,"NA",BR3-$Y3)</f>
+        <f t="shared" ref="BS3:BS20" si="15">IF(BQ3=0,"NA",BR3-$Y3)</f>
         <v>NA</v>
       </c>
       <c r="BT3" s="38"/>
@@ -1401,7 +1407,10 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
+      <c r="O4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
@@ -1411,13 +1420,13 @@
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
       <c r="X4" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
       <c r="AA4" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB4" s="22"/>
@@ -1428,79 +1437,79 @@
       <c r="AG4" s="33"/>
       <c r="AH4" s="36"/>
       <c r="AI4" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ4" s="33"/>
       <c r="AK4" s="36"/>
       <c r="AL4" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM4" s="33"/>
       <c r="AN4" s="36"/>
       <c r="AO4" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP4" s="33"/>
       <c r="AQ4" s="36"/>
       <c r="AR4" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS4" s="33"/>
       <c r="AT4" s="34"/>
       <c r="AU4" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV4" s="33"/>
       <c r="AW4" s="34"/>
       <c r="AX4" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY4" s="33"/>
       <c r="AZ4" s="34"/>
       <c r="BA4" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB4" s="33"/>
       <c r="BC4" s="34"/>
       <c r="BD4" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE4" s="33"/>
       <c r="BF4" s="34"/>
       <c r="BG4" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH4" s="33"/>
       <c r="BI4" s="34"/>
       <c r="BJ4" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK4" s="33"/>
       <c r="BL4" s="34"/>
       <c r="BM4" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN4" s="33"/>
       <c r="BO4" s="34"/>
       <c r="BP4" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ4" s="33"/>
       <c r="BR4" s="34"/>
       <c r="BS4" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT4" s="38"/>
@@ -1520,7 +1529,10 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
+      <c r="O5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
@@ -1530,13 +1542,13 @@
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
       <c r="X5" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
       <c r="AA5" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB5" s="22"/>
@@ -1547,79 +1559,79 @@
       <c r="AG5" s="33"/>
       <c r="AH5" s="36"/>
       <c r="AI5" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ5" s="33"/>
       <c r="AK5" s="36"/>
       <c r="AL5" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM5" s="33"/>
       <c r="AN5" s="36"/>
       <c r="AO5" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP5" s="33"/>
       <c r="AQ5" s="36"/>
       <c r="AR5" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS5" s="33"/>
       <c r="AT5" s="36"/>
       <c r="AU5" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV5" s="33"/>
       <c r="AW5" s="36"/>
       <c r="AX5" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY5" s="33"/>
       <c r="AZ5" s="36"/>
       <c r="BA5" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB5" s="33"/>
       <c r="BC5" s="34"/>
       <c r="BD5" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE5" s="33"/>
       <c r="BF5" s="34"/>
       <c r="BG5" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH5" s="33"/>
       <c r="BI5" s="34"/>
       <c r="BJ5" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK5" s="33"/>
       <c r="BL5" s="34"/>
       <c r="BM5" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN5" s="33"/>
       <c r="BO5" s="34"/>
       <c r="BP5" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ5" s="33"/>
       <c r="BR5" s="36"/>
       <c r="BS5" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT5" s="38"/>
@@ -1639,7 +1651,10 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
+      <c r="O6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
@@ -1649,13 +1664,13 @@
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
       <c r="X6" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
       <c r="AA6" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB6" s="22"/>
@@ -1666,37 +1681,37 @@
       <c r="AG6" s="33"/>
       <c r="AH6" s="36"/>
       <c r="AI6" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ6" s="33"/>
       <c r="AK6" s="36"/>
       <c r="AL6" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM6" s="33"/>
       <c r="AN6" s="36"/>
       <c r="AO6" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP6" s="33"/>
       <c r="AQ6" s="36"/>
       <c r="AR6" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS6" s="33"/>
       <c r="AT6" s="36"/>
       <c r="AU6" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV6" s="33"/>
       <c r="AW6" s="36"/>
       <c r="AX6" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY6" s="33"/>
@@ -1758,7 +1773,10 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
+      <c r="O7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -1768,13 +1786,13 @@
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
       <c r="X7" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
       <c r="AA7" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB7" s="22"/>
@@ -1785,79 +1803,79 @@
       <c r="AG7" s="33"/>
       <c r="AH7" s="36"/>
       <c r="AI7" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ7" s="33"/>
       <c r="AK7" s="36"/>
       <c r="AL7" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM7" s="33"/>
       <c r="AN7" s="36"/>
       <c r="AO7" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP7" s="33"/>
       <c r="AQ7" s="36"/>
       <c r="AR7" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS7" s="33"/>
       <c r="AT7" s="36"/>
       <c r="AU7" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV7" s="33"/>
       <c r="AW7" s="36"/>
       <c r="AX7" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY7" s="33"/>
       <c r="AZ7" s="36"/>
       <c r="BA7" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB7" s="33"/>
       <c r="BC7" s="34"/>
       <c r="BD7" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE7" s="33"/>
       <c r="BF7" s="34"/>
       <c r="BG7" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH7" s="33"/>
       <c r="BI7" s="34"/>
       <c r="BJ7" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK7" s="33"/>
       <c r="BL7" s="34"/>
       <c r="BM7" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN7" s="33"/>
       <c r="BO7" s="34"/>
       <c r="BP7" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ7" s="33"/>
       <c r="BR7" s="36"/>
       <c r="BS7" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT7" s="38"/>
@@ -1877,7 +1895,10 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
+      <c r="O8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
@@ -1887,13 +1908,13 @@
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
       <c r="X8" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y8" s="21"/>
       <c r="Z8" s="21"/>
       <c r="AA8" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB8" s="22"/>
@@ -1904,79 +1925,79 @@
       <c r="AG8" s="33"/>
       <c r="AH8" s="36"/>
       <c r="AI8" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ8" s="33"/>
       <c r="AK8" s="36"/>
       <c r="AL8" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM8" s="33"/>
       <c r="AN8" s="36"/>
       <c r="AO8" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP8" s="33"/>
       <c r="AQ8" s="36"/>
       <c r="AR8" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS8" s="33"/>
       <c r="AT8" s="36"/>
       <c r="AU8" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV8" s="33"/>
       <c r="AW8" s="36"/>
       <c r="AX8" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY8" s="33"/>
       <c r="AZ8" s="36"/>
       <c r="BA8" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB8" s="33"/>
       <c r="BC8" s="34"/>
       <c r="BD8" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE8" s="33"/>
       <c r="BF8" s="34"/>
       <c r="BG8" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH8" s="33"/>
       <c r="BI8" s="34"/>
       <c r="BJ8" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK8" s="33"/>
       <c r="BL8" s="34"/>
       <c r="BM8" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN8" s="33"/>
       <c r="BO8" s="34"/>
       <c r="BP8" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ8" s="33"/>
       <c r="BR8" s="36"/>
       <c r="BS8" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT8" s="38"/>
@@ -1996,7 +2017,10 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
@@ -2006,13 +2030,13 @@
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
       <c r="X9" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
       <c r="AA9" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB9" s="22"/>
@@ -2023,79 +2047,79 @@
       <c r="AG9" s="33"/>
       <c r="AH9" s="36"/>
       <c r="AI9" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ9" s="33"/>
       <c r="AK9" s="36"/>
       <c r="AL9" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM9" s="33"/>
       <c r="AN9" s="34"/>
       <c r="AO9" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP9" s="33"/>
       <c r="AQ9" s="34"/>
       <c r="AR9" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS9" s="33"/>
       <c r="AT9" s="34"/>
       <c r="AU9" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV9" s="33"/>
       <c r="AW9" s="34"/>
       <c r="AX9" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY9" s="33"/>
       <c r="AZ9" s="36"/>
       <c r="BA9" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB9" s="33"/>
       <c r="BC9" s="34"/>
       <c r="BD9" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE9" s="33"/>
       <c r="BF9" s="34"/>
       <c r="BG9" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH9" s="33"/>
       <c r="BI9" s="34"/>
       <c r="BJ9" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK9" s="33"/>
       <c r="BL9" s="34"/>
       <c r="BM9" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN9" s="33"/>
       <c r="BO9" s="34"/>
       <c r="BP9" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ9" s="33"/>
       <c r="BR9" s="34"/>
       <c r="BS9" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT9" s="38"/>
@@ -2115,7 +2139,10 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
+      <c r="O10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
@@ -2125,13 +2152,13 @@
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
       <c r="X10" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
       <c r="AA10" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB10" s="22"/>
@@ -2142,79 +2169,79 @@
       <c r="AG10" s="33"/>
       <c r="AH10" s="36"/>
       <c r="AI10" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ10" s="33"/>
       <c r="AK10" s="36"/>
       <c r="AL10" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM10" s="33"/>
       <c r="AN10" s="36"/>
       <c r="AO10" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP10" s="33"/>
       <c r="AQ10" s="36"/>
       <c r="AR10" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS10" s="33"/>
       <c r="AT10" s="36"/>
       <c r="AU10" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV10" s="33"/>
       <c r="AW10" s="36"/>
       <c r="AX10" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY10" s="33"/>
       <c r="AZ10" s="36"/>
       <c r="BA10" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB10" s="33"/>
       <c r="BC10" s="34"/>
       <c r="BD10" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE10" s="33"/>
       <c r="BF10" s="34"/>
       <c r="BG10" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH10" s="33"/>
       <c r="BI10" s="34"/>
       <c r="BJ10" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK10" s="33"/>
       <c r="BL10" s="34"/>
       <c r="BM10" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN10" s="33"/>
       <c r="BO10" s="34"/>
       <c r="BP10" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ10" s="33"/>
       <c r="BR10" s="36"/>
       <c r="BS10" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT10" s="38"/>
@@ -2234,7 +2261,10 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -2244,13 +2274,13 @@
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
       <c r="X11" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
       <c r="AA11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB11" s="22"/>
@@ -2261,79 +2291,79 @@
       <c r="AG11" s="33"/>
       <c r="AH11" s="36"/>
       <c r="AI11" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ11" s="33"/>
       <c r="AK11" s="36"/>
       <c r="AL11" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM11" s="33"/>
       <c r="AN11" s="36"/>
       <c r="AO11" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP11" s="33"/>
       <c r="AQ11" s="36"/>
       <c r="AR11" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS11" s="33"/>
       <c r="AT11" s="36"/>
       <c r="AU11" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV11" s="33"/>
       <c r="AW11" s="36"/>
       <c r="AX11" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY11" s="33"/>
       <c r="AZ11" s="36"/>
       <c r="BA11" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB11" s="33"/>
       <c r="BC11" s="36"/>
       <c r="BD11" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE11" s="33"/>
       <c r="BF11" s="34"/>
       <c r="BG11" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH11" s="33"/>
       <c r="BI11" s="34"/>
       <c r="BJ11" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK11" s="33"/>
       <c r="BL11" s="34"/>
       <c r="BM11" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN11" s="33"/>
       <c r="BO11" s="34"/>
       <c r="BP11" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ11" s="33"/>
       <c r="BR11" s="36"/>
       <c r="BS11" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT11" s="38"/>
@@ -2353,7 +2383,10 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
+      <c r="O12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
@@ -2363,13 +2396,13 @@
       <c r="V12" s="21"/>
       <c r="W12" s="21"/>
       <c r="X12" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
       <c r="AA12" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB12" s="22"/>
@@ -2380,79 +2413,79 @@
       <c r="AG12" s="33"/>
       <c r="AH12" s="36"/>
       <c r="AI12" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ12" s="33"/>
       <c r="AK12" s="36"/>
       <c r="AL12" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM12" s="33"/>
       <c r="AN12" s="36"/>
       <c r="AO12" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP12" s="33"/>
       <c r="AQ12" s="36"/>
       <c r="AR12" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS12" s="33"/>
       <c r="AT12" s="36"/>
       <c r="AU12" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV12" s="33"/>
       <c r="AW12" s="36"/>
       <c r="AX12" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY12" s="33"/>
       <c r="AZ12" s="36"/>
       <c r="BA12" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB12" s="33"/>
       <c r="BC12" s="36"/>
       <c r="BD12" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE12" s="33"/>
       <c r="BF12" s="34"/>
       <c r="BG12" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH12" s="33"/>
       <c r="BI12" s="34"/>
       <c r="BJ12" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK12" s="33"/>
       <c r="BL12" s="34"/>
       <c r="BM12" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN12" s="33"/>
       <c r="BO12" s="34"/>
       <c r="BP12" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ12" s="33"/>
       <c r="BR12" s="36"/>
       <c r="BS12" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT12" s="38"/>
@@ -2472,7 +2505,10 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
+      <c r="O13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
@@ -2482,13 +2518,13 @@
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
       <c r="X13" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y13" s="21"/>
       <c r="Z13" s="21"/>
       <c r="AA13" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB13" s="22"/>
@@ -2499,79 +2535,79 @@
       <c r="AG13" s="33"/>
       <c r="AH13" s="36"/>
       <c r="AI13" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ13" s="33"/>
       <c r="AK13" s="36"/>
       <c r="AL13" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM13" s="33"/>
       <c r="AN13" s="36"/>
       <c r="AO13" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP13" s="33"/>
       <c r="AQ13" s="36"/>
       <c r="AR13" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS13" s="33"/>
       <c r="AT13" s="36"/>
       <c r="AU13" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV13" s="33"/>
       <c r="AW13" s="36"/>
       <c r="AX13" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY13" s="33"/>
       <c r="AZ13" s="36"/>
       <c r="BA13" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB13" s="33"/>
       <c r="BC13" s="36"/>
       <c r="BD13" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE13" s="33"/>
       <c r="BF13" s="34"/>
       <c r="BG13" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH13" s="33"/>
       <c r="BI13" s="34"/>
       <c r="BJ13" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK13" s="33"/>
       <c r="BL13" s="34"/>
       <c r="BM13" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN13" s="33"/>
       <c r="BO13" s="34"/>
       <c r="BP13" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ13" s="33"/>
       <c r="BR13" s="36"/>
       <c r="BS13" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT13" s="38"/>
@@ -2591,7 +2627,10 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
@@ -2601,13 +2640,13 @@
       <c r="V14" s="21"/>
       <c r="W14" s="21"/>
       <c r="X14" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y14" s="21"/>
       <c r="Z14" s="21"/>
       <c r="AA14" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB14" s="22"/>
@@ -2618,79 +2657,79 @@
       <c r="AG14" s="33"/>
       <c r="AH14" s="34"/>
       <c r="AI14" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ14" s="33"/>
       <c r="AK14" s="34"/>
       <c r="AL14" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM14" s="33"/>
       <c r="AN14" s="34"/>
       <c r="AO14" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP14" s="33"/>
       <c r="AQ14" s="34"/>
       <c r="AR14" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS14" s="33"/>
       <c r="AT14" s="36"/>
       <c r="AU14" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV14" s="33"/>
       <c r="AW14" s="34"/>
       <c r="AX14" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY14" s="33"/>
       <c r="AZ14" s="36"/>
       <c r="BA14" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB14" s="33"/>
       <c r="BC14" s="34"/>
       <c r="BD14" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE14" s="33"/>
       <c r="BF14" s="34"/>
       <c r="BG14" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH14" s="33"/>
       <c r="BI14" s="34"/>
       <c r="BJ14" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK14" s="33"/>
       <c r="BL14" s="34"/>
       <c r="BM14" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN14" s="33"/>
       <c r="BO14" s="34"/>
       <c r="BP14" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ14" s="33"/>
       <c r="BR14" s="34"/>
       <c r="BS14" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT14" s="38"/>
@@ -2710,7 +2749,10 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="7"/>
+      <c r="O15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
@@ -2720,13 +2762,13 @@
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
       <c r="X15" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y15" s="21"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB15" s="22"/>
@@ -2737,79 +2779,79 @@
       <c r="AG15" s="33"/>
       <c r="AH15" s="34"/>
       <c r="AI15" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ15" s="33"/>
       <c r="AK15" s="34"/>
       <c r="AL15" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM15" s="33"/>
       <c r="AN15" s="34"/>
       <c r="AO15" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP15" s="33"/>
       <c r="AQ15" s="34"/>
       <c r="AR15" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS15" s="33"/>
       <c r="AT15" s="34"/>
       <c r="AU15" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV15" s="33"/>
       <c r="AW15" s="34"/>
       <c r="AX15" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY15" s="33"/>
       <c r="AZ15" s="36"/>
       <c r="BA15" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB15" s="33"/>
       <c r="BC15" s="34"/>
       <c r="BD15" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE15" s="33"/>
       <c r="BF15" s="34"/>
       <c r="BG15" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH15" s="33"/>
       <c r="BI15" s="34"/>
       <c r="BJ15" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK15" s="33"/>
       <c r="BL15" s="34"/>
       <c r="BM15" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN15" s="33"/>
       <c r="BO15" s="34"/>
       <c r="BP15" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ15" s="33"/>
       <c r="BR15" s="34"/>
       <c r="BS15" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT15" s="38"/>
@@ -2829,7 +2871,10 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
+      <c r="O16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
@@ -2839,13 +2884,13 @@
       <c r="V16" s="21"/>
       <c r="W16" s="21"/>
       <c r="X16" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y16" s="21"/>
       <c r="Z16" s="21"/>
       <c r="AA16" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB16" s="22"/>
@@ -2856,79 +2901,79 @@
       <c r="AG16" s="33"/>
       <c r="AH16" s="36"/>
       <c r="AI16" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ16" s="33"/>
       <c r="AK16" s="36"/>
       <c r="AL16" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM16" s="33"/>
       <c r="AN16" s="36"/>
       <c r="AO16" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP16" s="33"/>
       <c r="AQ16" s="36"/>
       <c r="AR16" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS16" s="33"/>
       <c r="AT16" s="36"/>
       <c r="AU16" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV16" s="33"/>
       <c r="AW16" s="36"/>
       <c r="AX16" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY16" s="33"/>
       <c r="AZ16" s="36"/>
       <c r="BA16" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB16" s="33"/>
       <c r="BC16" s="36"/>
       <c r="BD16" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE16" s="33"/>
       <c r="BF16" s="34"/>
       <c r="BG16" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH16" s="33"/>
       <c r="BI16" s="34"/>
       <c r="BJ16" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK16" s="33"/>
       <c r="BL16" s="34"/>
       <c r="BM16" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN16" s="33"/>
       <c r="BO16" s="34"/>
       <c r="BP16" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ16" s="33"/>
       <c r="BR16" s="36"/>
       <c r="BS16" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT16" s="38"/>
@@ -2948,7 +2993,10 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
@@ -2958,13 +3006,13 @@
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
       <c r="X17" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y17" s="21"/>
       <c r="Z17" s="21"/>
       <c r="AA17" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB17" s="22"/>
@@ -2975,79 +3023,79 @@
       <c r="AG17" s="33"/>
       <c r="AH17" s="36"/>
       <c r="AI17" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ17" s="33"/>
       <c r="AK17" s="36"/>
       <c r="AL17" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM17" s="33"/>
       <c r="AN17" s="36"/>
       <c r="AO17" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP17" s="33"/>
       <c r="AQ17" s="36"/>
       <c r="AR17" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS17" s="33"/>
       <c r="AT17" s="36"/>
       <c r="AU17" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV17" s="33"/>
       <c r="AW17" s="36"/>
       <c r="AX17" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY17" s="33"/>
       <c r="AZ17" s="36"/>
       <c r="BA17" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB17" s="44"/>
       <c r="BC17" s="36"/>
       <c r="BD17" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE17" s="44"/>
       <c r="BF17" s="36"/>
       <c r="BG17" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH17" s="44"/>
       <c r="BI17" s="36"/>
       <c r="BJ17" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK17" s="44"/>
       <c r="BL17" s="36"/>
       <c r="BM17" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN17" s="33"/>
       <c r="BO17" s="34"/>
       <c r="BP17" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ17" s="33"/>
       <c r="BR17" s="36"/>
       <c r="BS17" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT17" s="38"/>
@@ -3067,7 +3115,10 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="7"/>
+      <c r="O18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
@@ -3077,13 +3128,13 @@
       <c r="V18" s="21"/>
       <c r="W18" s="21"/>
       <c r="X18" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y18" s="21"/>
       <c r="Z18" s="21"/>
       <c r="AA18" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB18" s="22"/>
@@ -3094,79 +3145,79 @@
       <c r="AG18" s="33"/>
       <c r="AH18" s="36"/>
       <c r="AI18" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ18" s="33"/>
       <c r="AK18" s="36"/>
       <c r="AL18" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM18" s="33"/>
       <c r="AN18" s="36"/>
       <c r="AO18" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP18" s="33"/>
       <c r="AQ18" s="36"/>
       <c r="AR18" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS18" s="33"/>
       <c r="AT18" s="36"/>
       <c r="AU18" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV18" s="33"/>
       <c r="AW18" s="36"/>
       <c r="AX18" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY18" s="33"/>
       <c r="AZ18" s="36"/>
       <c r="BA18" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB18" s="33"/>
       <c r="BC18" s="36"/>
       <c r="BD18" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE18" s="33"/>
       <c r="BF18" s="36"/>
       <c r="BG18" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH18" s="33"/>
       <c r="BI18" s="36"/>
       <c r="BJ18" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK18" s="33"/>
       <c r="BL18" s="36"/>
       <c r="BM18" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN18" s="33"/>
       <c r="BO18" s="34"/>
       <c r="BP18" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ18" s="33"/>
       <c r="BR18" s="36"/>
       <c r="BS18" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT18" s="38"/>
@@ -3186,7 +3237,10 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="7"/>
+      <c r="O19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
@@ -3196,13 +3250,13 @@
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
       <c r="X19" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y19" s="21"/>
       <c r="Z19" s="21"/>
       <c r="AA19" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB19" s="22"/>
@@ -3213,79 +3267,79 @@
       <c r="AG19" s="33"/>
       <c r="AH19" s="36"/>
       <c r="AI19" s="35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ19" s="33"/>
       <c r="AK19" s="36"/>
       <c r="AL19" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM19" s="33"/>
       <c r="AN19" s="36"/>
       <c r="AO19" s="35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP19" s="33"/>
       <c r="AQ19" s="36"/>
       <c r="AR19" s="35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS19" s="33"/>
       <c r="AT19" s="36"/>
       <c r="AU19" s="35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV19" s="33"/>
       <c r="AW19" s="36"/>
       <c r="AX19" s="35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY19" s="33"/>
       <c r="AZ19" s="36"/>
       <c r="BA19" s="35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB19" s="33"/>
       <c r="BC19" s="36"/>
       <c r="BD19" s="35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE19" s="33"/>
       <c r="BF19" s="36"/>
       <c r="BG19" s="35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH19" s="33"/>
       <c r="BI19" s="36"/>
       <c r="BJ19" s="35" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK19" s="33"/>
       <c r="BL19" s="36"/>
       <c r="BM19" s="35" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN19" s="33"/>
       <c r="BO19" s="34"/>
       <c r="BP19" s="35" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ19" s="33"/>
       <c r="BR19" s="36"/>
       <c r="BS19" s="35" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT19" s="38"/>
@@ -3305,7 +3359,10 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
+      <c r="O20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
@@ -3315,13 +3372,13 @@
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
       <c r="X20" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y20" s="25"/>
       <c r="Z20" s="25"/>
       <c r="AA20" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB20" s="26"/>
@@ -3332,79 +3389,79 @@
       <c r="AG20" s="41"/>
       <c r="AH20" s="43"/>
       <c r="AI20" s="45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NA</v>
       </c>
       <c r="AJ20" s="41"/>
       <c r="AK20" s="43"/>
       <c r="AL20" s="45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>NA</v>
       </c>
       <c r="AM20" s="41"/>
       <c r="AN20" s="43"/>
       <c r="AO20" s="45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>NA</v>
       </c>
       <c r="AP20" s="41"/>
       <c r="AQ20" s="43"/>
       <c r="AR20" s="45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="AS20" s="41"/>
       <c r="AT20" s="43"/>
       <c r="AU20" s="45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="AV20" s="41"/>
       <c r="AW20" s="43"/>
       <c r="AX20" s="45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>NA</v>
       </c>
       <c r="AY20" s="41"/>
       <c r="AZ20" s="43"/>
       <c r="BA20" s="45" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>NA</v>
       </c>
       <c r="BB20" s="41"/>
       <c r="BC20" s="43"/>
       <c r="BD20" s="45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>NA</v>
       </c>
       <c r="BE20" s="41"/>
       <c r="BF20" s="43"/>
       <c r="BG20" s="45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>NA</v>
       </c>
       <c r="BH20" s="41"/>
       <c r="BI20" s="43"/>
       <c r="BJ20" s="45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>NA</v>
       </c>
       <c r="BK20" s="41"/>
       <c r="BL20" s="43"/>
       <c r="BM20" s="45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>NA</v>
       </c>
       <c r="BN20" s="41"/>
       <c r="BO20" s="43"/>
       <c r="BP20" s="45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>NA</v>
       </c>
       <c r="BQ20" s="41"/>
       <c r="BR20" s="43"/>
       <c r="BS20" s="45" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>NA</v>
       </c>
       <c r="BT20" s="42"/>
@@ -4526,7 +4583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24E6ECB-A4E3-461A-8394-9D0B5FDC18C7}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/URUVS/Datasheets/Example_RecordingData.xlsx
+++ b/URUVS/Datasheets/Example_RecordingData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CC28BE-A74E-4CFD-B199-E290174A6C1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4801A528-6270-415F-BF38-53A43B600944}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="MetaData" sheetId="3" r:id="rId2"/>
-    <sheet name="HOBO" sheetId="4" r:id="rId3"/>
+    <sheet name="LATLON" sheetId="5" r:id="rId2"/>
+    <sheet name="MetaData" sheetId="3" r:id="rId3"/>
+    <sheet name="HOBO" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="121">
   <si>
     <t>DATE</t>
   </si>
@@ -335,6 +336,66 @@
   </si>
   <si>
     <t>NOTES</t>
+  </si>
+  <si>
+    <t>SITENAME_COMBINE</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>L6</t>
   </si>
 </sst>
 </file>
@@ -353,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +436,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -634,6 +701,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,23 +993,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:BT20"/>
+  <dimension ref="A1:BU20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="O2" sqref="O2:O20"/>
+      <selection pane="topRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="20" width="8.7265625" customWidth="1"/>
-    <col min="21" max="24" width="8.7265625" style="1" customWidth="1"/>
-    <col min="25" max="32" width="8.7265625" customWidth="1"/>
-    <col min="72" max="72" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="21" width="8.7265625" customWidth="1"/>
+    <col min="22" max="25" width="8.7265625" style="1" customWidth="1"/>
+    <col min="26" max="33" width="8.7265625" customWidth="1"/>
+    <col min="73" max="73" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -943,2528 +1022,2721 @@
       <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AB1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AC1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AD1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AG1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="29" t="s">
+      <c r="AI1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AJ1" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AK1" s="29" t="s">
+      <c r="AL1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AM1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AN1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="29" t="s">
+      <c r="AO1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AP1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="28" t="s">
+      <c r="AQ1" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="AQ1" s="29" t="s">
+      <c r="AR1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AR1" s="30" t="s">
+      <c r="AS1" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="AS1" s="28" t="s">
+      <c r="AT1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AT1" s="29" t="s">
+      <c r="AU1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AU1" s="30" t="s">
+      <c r="AV1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AV1" s="28" t="s">
+      <c r="AW1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" s="29" t="s">
+      <c r="AX1" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" s="30" t="s">
+      <c r="AY1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" s="28" t="s">
+      <c r="AZ1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AZ1" s="29" t="s">
+      <c r="BA1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="BA1" s="30" t="s">
+      <c r="BB1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BB1" s="28" t="s">
+      <c r="BC1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" s="29" t="s">
+      <c r="BD1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" s="30" t="s">
+      <c r="BE1" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="BE1" s="28" t="s">
+      <c r="BF1" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="BF1" s="29" t="s">
+      <c r="BG1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BG1" s="30" t="s">
+      <c r="BH1" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="BH1" s="28" t="s">
+      <c r="BI1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="BI1" s="29" t="s">
+      <c r="BJ1" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="BJ1" s="30" t="s">
+      <c r="BK1" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="BK1" s="28" t="s">
+      <c r="BL1" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="BL1" s="29" t="s">
+      <c r="BM1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BM1" s="30" t="s">
+      <c r="BN1" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="BN1" s="28" t="s">
+      <c r="BO1" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="BO1" s="29" t="s">
+      <c r="BP1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BP1" s="30" t="s">
+      <c r="BQ1" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="BQ1" s="28" t="s">
+      <c r="BR1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="BR1" s="29" t="s">
+      <c r="BS1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="BS1" s="30" t="s">
+      <c r="BT1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="BT1" s="37" t="s">
+      <c r="BU1" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="10"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="66" t="str">
+        <f>C2&amp;""&amp;D2</f>
+        <v/>
+      </c>
       <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="8" t="e">
+        <f>VLOOKUP(E2,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K2" s="8" t="e">
+        <f>VLOOKUP(E2,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="7">
-        <f>H2-G2</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="7">
+        <f>I2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="21"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="20"/>
       <c r="W2" s="21"/>
-      <c r="X2" s="21">
-        <f>SUM(U2:W2)</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21">
+        <f>SUM(V2:X2)</f>
+        <v>0</v>
+      </c>
       <c r="Z2" s="21"/>
-      <c r="AA2" s="21">
-        <f>X2-Y2-Z2</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="22"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21">
+        <f>Y2-Z2-AA2</f>
+        <v>0</v>
+      </c>
       <c r="AC2" s="22"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35" t="str">
-        <f>IF(AG2=0,"NA",AH2-$Y2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="35" t="str">
-        <f>IF(AJ2=0,"NA",AK2-$Y2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="35" t="str">
-        <f>IF(AM2=0,"NA",AN2-$Y2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="35" t="str">
-        <f>IF(AP2=0,"NA",AQ2-$Y2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="35" t="str">
-        <f>IF(AS2=0,"NA",AT2-$Y2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="35" t="str">
-        <f>IF(AV2=0,"NA",AW2-$Y2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="35" t="str">
-        <f>IF(AY2=0,"NA",AZ2-$Y2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="35" t="str">
-        <f>IF(BB2=0,"NA",BC2-$Y2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BE2" s="33"/>
-      <c r="BF2" s="34"/>
-      <c r="BG2" s="35" t="str">
-        <f>IF(BE2=0,"NA",BF2-$Y2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BH2" s="33"/>
-      <c r="BI2" s="34"/>
-      <c r="BJ2" s="35" t="str">
-        <f>IF(BH2=0,"NA",BI2-$Y2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BK2" s="33"/>
-      <c r="BL2" s="34"/>
-      <c r="BM2" s="35" t="str">
-        <f>IF(BK2=0,"NA",BL2-$Y2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BN2" s="33"/>
-      <c r="BO2" s="34"/>
-      <c r="BP2" s="35" t="str">
-        <f>IF(BN2=0,"NA",BO2-$Y2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BQ2" s="33"/>
-      <c r="BR2" s="34"/>
-      <c r="BS2" s="35" t="str">
-        <f>IF(BQ2=0,"NA",BR2-$Y2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BT2" s="38"/>
-    </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="35" t="str">
+        <f>IF(AH2=0,"NA",AI2-$Z2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="35" t="str">
+        <f>IF(AK2=0,"NA",AL2-$Z2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="35" t="str">
+        <f>IF(AN2=0,"NA",AO2-$Z2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="34"/>
+      <c r="AS2" s="35" t="str">
+        <f>IF(AQ2=0,"NA",AR2-$Z2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="35" t="str">
+        <f>IF(AT2=0,"NA",AU2-$Z2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="34"/>
+      <c r="AY2" s="35" t="str">
+        <f>IF(AW2=0,"NA",AX2-$Z2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="34"/>
+      <c r="BB2" s="35" t="str">
+        <f>IF(AZ2=0,"NA",BA2-$Z2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BC2" s="33"/>
+      <c r="BD2" s="34"/>
+      <c r="BE2" s="35" t="str">
+        <f>IF(BC2=0,"NA",BD2-$Z2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BF2" s="33"/>
+      <c r="BG2" s="34"/>
+      <c r="BH2" s="35" t="str">
+        <f>IF(BF2=0,"NA",BG2-$Z2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="34"/>
+      <c r="BK2" s="35" t="str">
+        <f>IF(BI2=0,"NA",BJ2-$Z2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BL2" s="33"/>
+      <c r="BM2" s="34"/>
+      <c r="BN2" s="35" t="str">
+        <f>IF(BL2=0,"NA",BM2-$Z2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BO2" s="33"/>
+      <c r="BP2" s="34"/>
+      <c r="BQ2" s="35" t="str">
+        <f>IF(BO2=0,"NA",BP2-$Z2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BR2" s="33"/>
+      <c r="BS2" s="34"/>
+      <c r="BT2" s="35" t="str">
+        <f>IF(BR2=0,"NA",BS2-$Z2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BU2" s="38"/>
+    </row>
+    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="66" t="str">
+        <f t="shared" ref="E3:E20" si="0">C3&amp;""&amp;D3</f>
+        <v/>
+      </c>
       <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="8" t="e">
+        <f>VLOOKUP(E3,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K3" s="8" t="e">
+        <f>VLOOKUP(E3,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="7">
-        <f t="shared" ref="O3:O20" si="0">H3-G3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="7">
+        <f t="shared" ref="P3:P20" si="1">I3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="21"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="20"/>
       <c r="W3" s="21"/>
-      <c r="X3" s="21">
-        <f t="shared" ref="X3:X20" si="1">SUM(U3:W3)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21">
+        <f t="shared" ref="Y3:Y20" si="2">SUM(V3:X3)</f>
+        <v>0</v>
+      </c>
       <c r="Z3" s="21"/>
-      <c r="AA3" s="21">
-        <f t="shared" ref="AA3:AA20" si="2">X3-Y3-Z3</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="22"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21">
+        <f t="shared" ref="AB3:AB20" si="3">Y3-Z3-AA3</f>
+        <v>0</v>
+      </c>
       <c r="AC3" s="22"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="35" t="str">
-        <f t="shared" ref="AI3:AI20" si="3">IF(AG3=0,"NA",AH3-$Y3)</f>
-        <v>NA</v>
-      </c>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="35" t="str">
-        <f t="shared" ref="AL3:AL20" si="4">IF(AJ3=0,"NA",AK3-$Y3)</f>
-        <v>NA</v>
-      </c>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="35" t="str">
-        <f t="shared" ref="AO3:AO20" si="5">IF(AM3=0,"NA",AN3-$Y3)</f>
-        <v>NA</v>
-      </c>
-      <c r="AP3" s="33"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="35" t="str">
-        <f t="shared" ref="AR3:AR20" si="6">IF(AP3=0,"NA",AQ3-$Y3)</f>
-        <v>NA</v>
-      </c>
-      <c r="AS3" s="33"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="35" t="str">
-        <f t="shared" ref="AU3:AU20" si="7">IF(AS3=0,"NA",AT3-$Y3)</f>
-        <v>NA</v>
-      </c>
-      <c r="AV3" s="33"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="35" t="str">
-        <f t="shared" ref="AX3:AX20" si="8">IF(AV3=0,"NA",AW3-$Y3)</f>
-        <v>NA</v>
-      </c>
-      <c r="AY3" s="33"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="35" t="str">
-        <f t="shared" ref="BA3:BA20" si="9">IF(AY3=0,"NA",AZ3-$Y3)</f>
-        <v>NA</v>
-      </c>
-      <c r="BB3" s="33"/>
-      <c r="BC3" s="34"/>
-      <c r="BD3" s="35" t="str">
-        <f t="shared" ref="BD3:BD20" si="10">IF(BB3=0,"NA",BC3-$Y3)</f>
-        <v>NA</v>
-      </c>
-      <c r="BE3" s="33"/>
-      <c r="BF3" s="34"/>
-      <c r="BG3" s="35" t="str">
-        <f t="shared" ref="BG3:BG20" si="11">IF(BE3=0,"NA",BF3-$Y3)</f>
-        <v>NA</v>
-      </c>
-      <c r="BH3" s="33"/>
-      <c r="BI3" s="34"/>
-      <c r="BJ3" s="35" t="str">
-        <f t="shared" ref="BJ3:BJ20" si="12">IF(BH3=0,"NA",BI3-$Y3)</f>
-        <v>NA</v>
-      </c>
-      <c r="BK3" s="33"/>
-      <c r="BL3" s="34"/>
-      <c r="BM3" s="35" t="str">
-        <f t="shared" ref="BM3:BM20" si="13">IF(BK3=0,"NA",BL3-$Y3)</f>
-        <v>NA</v>
-      </c>
-      <c r="BN3" s="33"/>
-      <c r="BO3" s="34"/>
-      <c r="BP3" s="35" t="str">
-        <f t="shared" ref="BP3:BP20" si="14">IF(BN3=0,"NA",BO3-$Y3)</f>
-        <v>NA</v>
-      </c>
-      <c r="BQ3" s="33"/>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="35" t="str">
-        <f t="shared" ref="BS3:BS20" si="15">IF(BQ3=0,"NA",BR3-$Y3)</f>
-        <v>NA</v>
-      </c>
-      <c r="BT3" s="38"/>
-    </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="35" t="str">
+        <f t="shared" ref="AJ3:AJ20" si="4">IF(AH3=0,"NA",AI3-$Z3)</f>
+        <v>NA</v>
+      </c>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="35" t="str">
+        <f t="shared" ref="AM3:AM20" si="5">IF(AK3=0,"NA",AL3-$Z3)</f>
+        <v>NA</v>
+      </c>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="35" t="str">
+        <f t="shared" ref="AP3:AP20" si="6">IF(AN3=0,"NA",AO3-$Z3)</f>
+        <v>NA</v>
+      </c>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="35" t="str">
+        <f t="shared" ref="AS3:AS20" si="7">IF(AQ3=0,"NA",AR3-$Z3)</f>
+        <v>NA</v>
+      </c>
+      <c r="AT3" s="33"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="35" t="str">
+        <f t="shared" ref="AV3:AV20" si="8">IF(AT3=0,"NA",AU3-$Z3)</f>
+        <v>NA</v>
+      </c>
+      <c r="AW3" s="33"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="35" t="str">
+        <f t="shared" ref="AY3:AY20" si="9">IF(AW3=0,"NA",AX3-$Z3)</f>
+        <v>NA</v>
+      </c>
+      <c r="AZ3" s="33"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="35" t="str">
+        <f t="shared" ref="BB3:BB20" si="10">IF(AZ3=0,"NA",BA3-$Z3)</f>
+        <v>NA</v>
+      </c>
+      <c r="BC3" s="33"/>
+      <c r="BD3" s="34"/>
+      <c r="BE3" s="35" t="str">
+        <f t="shared" ref="BE3:BE20" si="11">IF(BC3=0,"NA",BD3-$Z3)</f>
+        <v>NA</v>
+      </c>
+      <c r="BF3" s="33"/>
+      <c r="BG3" s="34"/>
+      <c r="BH3" s="35" t="str">
+        <f t="shared" ref="BH3:BH20" si="12">IF(BF3=0,"NA",BG3-$Z3)</f>
+        <v>NA</v>
+      </c>
+      <c r="BI3" s="33"/>
+      <c r="BJ3" s="34"/>
+      <c r="BK3" s="35" t="str">
+        <f t="shared" ref="BK3:BK20" si="13">IF(BI3=0,"NA",BJ3-$Z3)</f>
+        <v>NA</v>
+      </c>
+      <c r="BL3" s="33"/>
+      <c r="BM3" s="34"/>
+      <c r="BN3" s="35" t="str">
+        <f t="shared" ref="BN3:BN20" si="14">IF(BL3=0,"NA",BM3-$Z3)</f>
+        <v>NA</v>
+      </c>
+      <c r="BO3" s="33"/>
+      <c r="BP3" s="34"/>
+      <c r="BQ3" s="35" t="str">
+        <f t="shared" ref="BQ3:BQ20" si="15">IF(BO3=0,"NA",BP3-$Z3)</f>
+        <v>NA</v>
+      </c>
+      <c r="BR3" s="33"/>
+      <c r="BS3" s="36"/>
+      <c r="BT3" s="35" t="str">
+        <f t="shared" ref="BT3:BT20" si="16">IF(BR3=0,"NA",BS3-$Z3)</f>
+        <v>NA</v>
+      </c>
+      <c r="BU3" s="38"/>
+    </row>
+    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="e">
+        <f>VLOOKUP(E4,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K4" s="8" t="e">
+        <f>VLOOKUP(E4,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
-      <c r="O4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="21"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="20"/>
       <c r="W4" s="21"/>
-      <c r="X4" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z4" s="21"/>
-      <c r="AA4" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="22"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC4" s="22"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="35" t="str">
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="35" t="str">
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="35" t="str">
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS4" s="33"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="35" t="str">
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV4" s="33"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="35" t="str">
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY4" s="33"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="35" t="str">
+      <c r="AW4" s="33"/>
+      <c r="AX4" s="34"/>
+      <c r="AY4" s="35" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB4" s="33"/>
-      <c r="BC4" s="34"/>
-      <c r="BD4" s="35" t="str">
+      <c r="AZ4" s="33"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="35" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE4" s="33"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="35" t="str">
+      <c r="BC4" s="33"/>
+      <c r="BD4" s="34"/>
+      <c r="BE4" s="35" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH4" s="33"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="35" t="str">
+      <c r="BF4" s="33"/>
+      <c r="BG4" s="34"/>
+      <c r="BH4" s="35" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK4" s="33"/>
-      <c r="BL4" s="34"/>
-      <c r="BM4" s="35" t="str">
+      <c r="BI4" s="33"/>
+      <c r="BJ4" s="34"/>
+      <c r="BK4" s="35" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN4" s="33"/>
-      <c r="BO4" s="34"/>
-      <c r="BP4" s="35" t="str">
+      <c r="BL4" s="33"/>
+      <c r="BM4" s="34"/>
+      <c r="BN4" s="35" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ4" s="33"/>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="35" t="str">
+      <c r="BO4" s="33"/>
+      <c r="BP4" s="34"/>
+      <c r="BQ4" s="35" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT4" s="38"/>
-    </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BR4" s="33"/>
+      <c r="BS4" s="34"/>
+      <c r="BT4" s="35" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU4" s="38"/>
+    </row>
+    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
+      <c r="G5" s="6"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8" t="e">
+        <f>VLOOKUP(E5,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K5" s="8" t="e">
+        <f>VLOOKUP(E5,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="21"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="20"/>
       <c r="W5" s="21"/>
-      <c r="X5" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z5" s="21"/>
-      <c r="AA5" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB5" s="22"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC5" s="22"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="36"/>
-      <c r="AL5" s="35" t="str">
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="31"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="35" t="str">
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="36"/>
-      <c r="AR5" s="35" t="str">
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="36"/>
-      <c r="AU5" s="35" t="str">
+      <c r="AQ5" s="33"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="35" t="str">
+      <c r="AT5" s="33"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="35" t="str">
+      <c r="AW5" s="33"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="35" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="34"/>
-      <c r="BD5" s="35" t="str">
+      <c r="AZ5" s="33"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="35" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="35" t="str">
+      <c r="BC5" s="33"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="35" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="34"/>
-      <c r="BJ5" s="35" t="str">
+      <c r="BF5" s="33"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="35" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="34"/>
-      <c r="BM5" s="35" t="str">
+      <c r="BI5" s="33"/>
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="35" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN5" s="33"/>
-      <c r="BO5" s="34"/>
-      <c r="BP5" s="35" t="str">
+      <c r="BL5" s="33"/>
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="35" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="36"/>
-      <c r="BS5" s="35" t="str">
+      <c r="BO5" s="33"/>
+      <c r="BP5" s="34"/>
+      <c r="BQ5" s="35" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT5" s="38"/>
-    </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BR5" s="33"/>
+      <c r="BS5" s="36"/>
+      <c r="BT5" s="35" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU5" s="38"/>
+    </row>
+    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="6"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8" t="e">
+        <f>VLOOKUP(E6,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K6" s="8" t="e">
+        <f>VLOOKUP(E6,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="21"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="20"/>
       <c r="W6" s="21"/>
-      <c r="X6" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z6" s="21"/>
-      <c r="AA6" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="22"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC6" s="22"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="35" t="str">
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="31"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="35" t="str">
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP6" s="33"/>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="35" t="str">
+      <c r="AN6" s="33"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS6" s="33"/>
-      <c r="AT6" s="36"/>
-      <c r="AU6" s="35" t="str">
+      <c r="AQ6" s="33"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV6" s="33"/>
-      <c r="AW6" s="36"/>
-      <c r="AX6" s="35" t="str">
+      <c r="AT6" s="33"/>
+      <c r="AU6" s="36"/>
+      <c r="AV6" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY6" s="33"/>
-      <c r="AZ6" s="36"/>
-      <c r="BA6" s="35" t="str">
-        <f>IF(AY6=0,"NA",AZ6-$Y6)</f>
-        <v>NA</v>
-      </c>
-      <c r="BB6" s="33"/>
-      <c r="BC6" s="34"/>
-      <c r="BD6" s="35" t="str">
-        <f>IF(BB6=0,"NA",BC6-$Y6)</f>
-        <v>NA</v>
-      </c>
-      <c r="BE6" s="33"/>
-      <c r="BF6" s="34"/>
-      <c r="BG6" s="35" t="str">
-        <f>IF(BE6=0,"NA",BF6-$Y6)</f>
-        <v>NA</v>
-      </c>
-      <c r="BH6" s="33"/>
-      <c r="BI6" s="34"/>
-      <c r="BJ6" s="35" t="str">
-        <f>IF(BH6=0,"NA",BI6-$Y6)</f>
-        <v>NA</v>
-      </c>
-      <c r="BK6" s="33"/>
-      <c r="BL6" s="34"/>
-      <c r="BM6" s="35" t="str">
-        <f>IF(BK6=0,"NA",BL6-$Y6)</f>
-        <v>NA</v>
-      </c>
-      <c r="BN6" s="33"/>
-      <c r="BO6" s="34"/>
-      <c r="BP6" s="35" t="str">
-        <f>IF(BN6=0,"NA",BO6-$Y6)</f>
-        <v>NA</v>
-      </c>
-      <c r="BQ6" s="33"/>
-      <c r="BR6" s="36"/>
-      <c r="BS6" s="35" t="str">
-        <f>IF(BQ6=0,"NA",BR6-$Y6)</f>
-        <v>NA</v>
-      </c>
-      <c r="BT6" s="38"/>
-    </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="AW6" s="33"/>
+      <c r="AX6" s="36"/>
+      <c r="AY6" s="35" t="str">
+        <f t="shared" si="9"/>
+        <v>NA</v>
+      </c>
+      <c r="AZ6" s="33"/>
+      <c r="BA6" s="36"/>
+      <c r="BB6" s="35" t="str">
+        <f>IF(AZ6=0,"NA",BA6-$Z6)</f>
+        <v>NA</v>
+      </c>
+      <c r="BC6" s="33"/>
+      <c r="BD6" s="34"/>
+      <c r="BE6" s="35" t="str">
+        <f>IF(BC6=0,"NA",BD6-$Z6)</f>
+        <v>NA</v>
+      </c>
+      <c r="BF6" s="33"/>
+      <c r="BG6" s="34"/>
+      <c r="BH6" s="35" t="str">
+        <f>IF(BF6=0,"NA",BG6-$Z6)</f>
+        <v>NA</v>
+      </c>
+      <c r="BI6" s="33"/>
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="35" t="str">
+        <f>IF(BI6=0,"NA",BJ6-$Z6)</f>
+        <v>NA</v>
+      </c>
+      <c r="BL6" s="33"/>
+      <c r="BM6" s="34"/>
+      <c r="BN6" s="35" t="str">
+        <f>IF(BL6=0,"NA",BM6-$Z6)</f>
+        <v>NA</v>
+      </c>
+      <c r="BO6" s="33"/>
+      <c r="BP6" s="34"/>
+      <c r="BQ6" s="35" t="str">
+        <f>IF(BO6=0,"NA",BP6-$Z6)</f>
+        <v>NA</v>
+      </c>
+      <c r="BR6" s="33"/>
+      <c r="BS6" s="36"/>
+      <c r="BT6" s="35" t="str">
+        <f>IF(BR6=0,"NA",BS6-$Z6)</f>
+        <v>NA</v>
+      </c>
+      <c r="BU6" s="38"/>
+    </row>
+    <row r="7" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8" t="e">
+        <f>VLOOKUP(E7,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K7" s="8" t="e">
+        <f>VLOOKUP(E7,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="21"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="20"/>
       <c r="W7" s="21"/>
-      <c r="X7" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z7" s="21"/>
-      <c r="AA7" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="22"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC7" s="22"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="35" t="str">
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="35" t="str">
+      <c r="AK7" s="33"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP7" s="33"/>
-      <c r="AQ7" s="36"/>
-      <c r="AR7" s="35" t="str">
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS7" s="33"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="35" t="str">
+      <c r="AQ7" s="33"/>
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV7" s="33"/>
-      <c r="AW7" s="36"/>
-      <c r="AX7" s="35" t="str">
+      <c r="AT7" s="33"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY7" s="33"/>
-      <c r="AZ7" s="36"/>
-      <c r="BA7" s="35" t="str">
+      <c r="AW7" s="33"/>
+      <c r="AX7" s="36"/>
+      <c r="AY7" s="35" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB7" s="33"/>
-      <c r="BC7" s="34"/>
-      <c r="BD7" s="35" t="str">
+      <c r="AZ7" s="33"/>
+      <c r="BA7" s="36"/>
+      <c r="BB7" s="35" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE7" s="33"/>
-      <c r="BF7" s="34"/>
-      <c r="BG7" s="35" t="str">
+      <c r="BC7" s="33"/>
+      <c r="BD7" s="34"/>
+      <c r="BE7" s="35" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH7" s="33"/>
-      <c r="BI7" s="34"/>
-      <c r="BJ7" s="35" t="str">
+      <c r="BF7" s="33"/>
+      <c r="BG7" s="34"/>
+      <c r="BH7" s="35" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK7" s="33"/>
-      <c r="BL7" s="34"/>
-      <c r="BM7" s="35" t="str">
+      <c r="BI7" s="33"/>
+      <c r="BJ7" s="34"/>
+      <c r="BK7" s="35" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN7" s="33"/>
-      <c r="BO7" s="34"/>
-      <c r="BP7" s="35" t="str">
+      <c r="BL7" s="33"/>
+      <c r="BM7" s="34"/>
+      <c r="BN7" s="35" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ7" s="33"/>
-      <c r="BR7" s="36"/>
-      <c r="BS7" s="35" t="str">
+      <c r="BO7" s="33"/>
+      <c r="BP7" s="34"/>
+      <c r="BQ7" s="35" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT7" s="38"/>
-    </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BR7" s="33"/>
+      <c r="BS7" s="36"/>
+      <c r="BT7" s="35" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU7" s="38"/>
+    </row>
+    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8" t="e">
+        <f>VLOOKUP(E8,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K8" s="8" t="e">
+        <f>VLOOKUP(E8,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="21"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="20"/>
       <c r="W8" s="21"/>
-      <c r="X8" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z8" s="21"/>
-      <c r="AA8" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="22"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC8" s="22"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="36"/>
-      <c r="AL8" s="35" t="str">
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="36"/>
+      <c r="AJ8" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="36"/>
-      <c r="AO8" s="35" t="str">
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="36"/>
+      <c r="AM8" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP8" s="33"/>
-      <c r="AQ8" s="36"/>
-      <c r="AR8" s="35" t="str">
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="36"/>
+      <c r="AP8" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS8" s="33"/>
-      <c r="AT8" s="36"/>
-      <c r="AU8" s="35" t="str">
+      <c r="AQ8" s="33"/>
+      <c r="AR8" s="36"/>
+      <c r="AS8" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV8" s="33"/>
-      <c r="AW8" s="36"/>
-      <c r="AX8" s="35" t="str">
+      <c r="AT8" s="33"/>
+      <c r="AU8" s="36"/>
+      <c r="AV8" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY8" s="33"/>
-      <c r="AZ8" s="36"/>
-      <c r="BA8" s="35" t="str">
+      <c r="AW8" s="33"/>
+      <c r="AX8" s="36"/>
+      <c r="AY8" s="35" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB8" s="33"/>
-      <c r="BC8" s="34"/>
-      <c r="BD8" s="35" t="str">
+      <c r="AZ8" s="33"/>
+      <c r="BA8" s="36"/>
+      <c r="BB8" s="35" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE8" s="33"/>
-      <c r="BF8" s="34"/>
-      <c r="BG8" s="35" t="str">
+      <c r="BC8" s="33"/>
+      <c r="BD8" s="34"/>
+      <c r="BE8" s="35" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH8" s="33"/>
-      <c r="BI8" s="34"/>
-      <c r="BJ8" s="35" t="str">
+      <c r="BF8" s="33"/>
+      <c r="BG8" s="34"/>
+      <c r="BH8" s="35" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK8" s="33"/>
-      <c r="BL8" s="34"/>
-      <c r="BM8" s="35" t="str">
+      <c r="BI8" s="33"/>
+      <c r="BJ8" s="34"/>
+      <c r="BK8" s="35" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN8" s="33"/>
-      <c r="BO8" s="34"/>
-      <c r="BP8" s="35" t="str">
+      <c r="BL8" s="33"/>
+      <c r="BM8" s="34"/>
+      <c r="BN8" s="35" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ8" s="33"/>
-      <c r="BR8" s="36"/>
-      <c r="BS8" s="35" t="str">
+      <c r="BO8" s="33"/>
+      <c r="BP8" s="34"/>
+      <c r="BQ8" s="35" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT8" s="38"/>
-    </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BR8" s="33"/>
+      <c r="BS8" s="36"/>
+      <c r="BT8" s="35" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU8" s="38"/>
+    </row>
+    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="E9" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8" t="e">
+        <f>VLOOKUP(E9,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K9" s="8" t="e">
+        <f>VLOOKUP(E9,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="21"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="20"/>
       <c r="W9" s="21"/>
-      <c r="X9" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z9" s="21"/>
-      <c r="AA9" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="22"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC9" s="22"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="35" t="str">
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="34"/>
-      <c r="AO9" s="35" t="str">
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP9" s="33"/>
-      <c r="AQ9" s="34"/>
-      <c r="AR9" s="35" t="str">
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="34"/>
-      <c r="AU9" s="35" t="str">
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="34"/>
-      <c r="AX9" s="35" t="str">
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="35" t="str">
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="34"/>
+      <c r="AY9" s="35" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB9" s="33"/>
-      <c r="BC9" s="34"/>
-      <c r="BD9" s="35" t="str">
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="36"/>
+      <c r="BB9" s="35" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="34"/>
-      <c r="BG9" s="35" t="str">
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="35" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="34"/>
-      <c r="BJ9" s="35" t="str">
+      <c r="BF9" s="33"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="35" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="34"/>
-      <c r="BM9" s="35" t="str">
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="34"/>
+      <c r="BK9" s="35" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN9" s="33"/>
-      <c r="BO9" s="34"/>
-      <c r="BP9" s="35" t="str">
+      <c r="BL9" s="33"/>
+      <c r="BM9" s="34"/>
+      <c r="BN9" s="35" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="34"/>
-      <c r="BS9" s="35" t="str">
+      <c r="BO9" s="33"/>
+      <c r="BP9" s="34"/>
+      <c r="BQ9" s="35" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT9" s="38"/>
-    </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BR9" s="33"/>
+      <c r="BS9" s="34"/>
+      <c r="BT9" s="35" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU9" s="38"/>
+    </row>
+    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8" t="e">
+        <f>VLOOKUP(E10,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K10" s="8" t="e">
+        <f>VLOOKUP(E10,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="21"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="20"/>
       <c r="W10" s="21"/>
-      <c r="X10" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z10" s="21"/>
-      <c r="AA10" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="22"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC10" s="22"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="35" t="str">
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="35" t="str">
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP10" s="33"/>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" s="35" t="str">
+      <c r="AN10" s="33"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS10" s="33"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="35" t="str">
+      <c r="AQ10" s="33"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV10" s="33"/>
-      <c r="AW10" s="36"/>
-      <c r="AX10" s="35" t="str">
+      <c r="AT10" s="33"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY10" s="33"/>
-      <c r="AZ10" s="36"/>
-      <c r="BA10" s="35" t="str">
+      <c r="AW10" s="33"/>
+      <c r="AX10" s="36"/>
+      <c r="AY10" s="35" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB10" s="33"/>
-      <c r="BC10" s="34"/>
-      <c r="BD10" s="35" t="str">
+      <c r="AZ10" s="33"/>
+      <c r="BA10" s="36"/>
+      <c r="BB10" s="35" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE10" s="33"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="35" t="str">
+      <c r="BC10" s="33"/>
+      <c r="BD10" s="34"/>
+      <c r="BE10" s="35" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH10" s="33"/>
-      <c r="BI10" s="34"/>
-      <c r="BJ10" s="35" t="str">
+      <c r="BF10" s="33"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="35" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK10" s="33"/>
-      <c r="BL10" s="34"/>
-      <c r="BM10" s="35" t="str">
+      <c r="BI10" s="33"/>
+      <c r="BJ10" s="34"/>
+      <c r="BK10" s="35" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN10" s="33"/>
-      <c r="BO10" s="34"/>
-      <c r="BP10" s="35" t="str">
+      <c r="BL10" s="33"/>
+      <c r="BM10" s="34"/>
+      <c r="BN10" s="35" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ10" s="33"/>
-      <c r="BR10" s="36"/>
-      <c r="BS10" s="35" t="str">
+      <c r="BO10" s="33"/>
+      <c r="BP10" s="34"/>
+      <c r="BQ10" s="35" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT10" s="38"/>
-    </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BR10" s="33"/>
+      <c r="BS10" s="36"/>
+      <c r="BT10" s="35" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU10" s="38"/>
+    </row>
+    <row r="11" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="E11" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8" t="e">
+        <f>VLOOKUP(E11,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K11" s="8" t="e">
+        <f>VLOOKUP(E11,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="21"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="20"/>
       <c r="W11" s="21"/>
-      <c r="X11" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z11" s="21"/>
-      <c r="AA11" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="22"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC11" s="22"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="35" t="str">
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="31"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="35" t="str">
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="35" t="str">
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS11" s="33"/>
-      <c r="AT11" s="36"/>
-      <c r="AU11" s="35" t="str">
+      <c r="AQ11" s="33"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV11" s="33"/>
-      <c r="AW11" s="36"/>
-      <c r="AX11" s="35" t="str">
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY11" s="33"/>
-      <c r="AZ11" s="36"/>
-      <c r="BA11" s="35" t="str">
+      <c r="AW11" s="33"/>
+      <c r="AX11" s="36"/>
+      <c r="AY11" s="35" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB11" s="33"/>
-      <c r="BC11" s="36"/>
-      <c r="BD11" s="35" t="str">
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="36"/>
+      <c r="BB11" s="35" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE11" s="33"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="35" t="str">
+      <c r="BC11" s="33"/>
+      <c r="BD11" s="36"/>
+      <c r="BE11" s="35" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH11" s="33"/>
-      <c r="BI11" s="34"/>
-      <c r="BJ11" s="35" t="str">
+      <c r="BF11" s="33"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="35" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK11" s="33"/>
-      <c r="BL11" s="34"/>
-      <c r="BM11" s="35" t="str">
+      <c r="BI11" s="33"/>
+      <c r="BJ11" s="34"/>
+      <c r="BK11" s="35" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN11" s="33"/>
-      <c r="BO11" s="34"/>
-      <c r="BP11" s="35" t="str">
+      <c r="BL11" s="33"/>
+      <c r="BM11" s="34"/>
+      <c r="BN11" s="35" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ11" s="33"/>
-      <c r="BR11" s="36"/>
-      <c r="BS11" s="35" t="str">
+      <c r="BO11" s="33"/>
+      <c r="BP11" s="34"/>
+      <c r="BQ11" s="35" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT11" s="38"/>
-    </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BR11" s="33"/>
+      <c r="BS11" s="36"/>
+      <c r="BT11" s="35" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU11" s="38"/>
+    </row>
+    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8" t="e">
+        <f>VLOOKUP(E12,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K12" s="8" t="e">
+        <f>VLOOKUP(E12,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="21"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="20"/>
       <c r="W12" s="21"/>
-      <c r="X12" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z12" s="21"/>
-      <c r="AA12" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="22"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC12" s="22"/>
-      <c r="AD12" s="23"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="35" t="str">
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="35" t="str">
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="36"/>
-      <c r="AR12" s="35" t="str">
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="36"/>
-      <c r="AU12" s="35" t="str">
+      <c r="AQ12" s="33"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="36"/>
-      <c r="AX12" s="35" t="str">
+      <c r="AT12" s="33"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="36"/>
-      <c r="BA12" s="35" t="str">
+      <c r="AW12" s="33"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="35" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB12" s="33"/>
-      <c r="BC12" s="36"/>
-      <c r="BD12" s="35" t="str">
+      <c r="AZ12" s="33"/>
+      <c r="BA12" s="36"/>
+      <c r="BB12" s="35" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE12" s="33"/>
-      <c r="BF12" s="34"/>
-      <c r="BG12" s="35" t="str">
+      <c r="BC12" s="33"/>
+      <c r="BD12" s="36"/>
+      <c r="BE12" s="35" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH12" s="33"/>
-      <c r="BI12" s="34"/>
-      <c r="BJ12" s="35" t="str">
+      <c r="BF12" s="33"/>
+      <c r="BG12" s="34"/>
+      <c r="BH12" s="35" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK12" s="33"/>
-      <c r="BL12" s="34"/>
-      <c r="BM12" s="35" t="str">
+      <c r="BI12" s="33"/>
+      <c r="BJ12" s="34"/>
+      <c r="BK12" s="35" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN12" s="33"/>
-      <c r="BO12" s="34"/>
-      <c r="BP12" s="35" t="str">
+      <c r="BL12" s="33"/>
+      <c r="BM12" s="34"/>
+      <c r="BN12" s="35" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ12" s="33"/>
-      <c r="BR12" s="36"/>
-      <c r="BS12" s="35" t="str">
+      <c r="BO12" s="33"/>
+      <c r="BP12" s="34"/>
+      <c r="BQ12" s="35" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT12" s="38"/>
-    </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BR12" s="33"/>
+      <c r="BS12" s="36"/>
+      <c r="BT12" s="35" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU12" s="38"/>
+    </row>
+    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="E13" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8" t="e">
+        <f>VLOOKUP(E13,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K13" s="8" t="e">
+        <f>VLOOKUP(E13,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="21"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="20"/>
       <c r="W13" s="21"/>
-      <c r="X13" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z13" s="21"/>
-      <c r="AA13" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="22"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC13" s="22"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="35" t="str">
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="35" t="str">
+      <c r="AK13" s="33"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="36"/>
-      <c r="AR13" s="35" t="str">
+      <c r="AN13" s="33"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS13" s="33"/>
-      <c r="AT13" s="36"/>
-      <c r="AU13" s="35" t="str">
+      <c r="AQ13" s="33"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="36"/>
-      <c r="AX13" s="35" t="str">
+      <c r="AT13" s="33"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY13" s="33"/>
-      <c r="AZ13" s="36"/>
-      <c r="BA13" s="35" t="str">
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="35" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB13" s="33"/>
-      <c r="BC13" s="36"/>
-      <c r="BD13" s="35" t="str">
+      <c r="AZ13" s="33"/>
+      <c r="BA13" s="36"/>
+      <c r="BB13" s="35" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE13" s="33"/>
-      <c r="BF13" s="34"/>
-      <c r="BG13" s="35" t="str">
+      <c r="BC13" s="33"/>
+      <c r="BD13" s="36"/>
+      <c r="BE13" s="35" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH13" s="33"/>
-      <c r="BI13" s="34"/>
-      <c r="BJ13" s="35" t="str">
+      <c r="BF13" s="33"/>
+      <c r="BG13" s="34"/>
+      <c r="BH13" s="35" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK13" s="33"/>
-      <c r="BL13" s="34"/>
-      <c r="BM13" s="35" t="str">
+      <c r="BI13" s="33"/>
+      <c r="BJ13" s="34"/>
+      <c r="BK13" s="35" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN13" s="33"/>
-      <c r="BO13" s="34"/>
-      <c r="BP13" s="35" t="str">
+      <c r="BL13" s="33"/>
+      <c r="BM13" s="34"/>
+      <c r="BN13" s="35" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ13" s="33"/>
-      <c r="BR13" s="36"/>
-      <c r="BS13" s="35" t="str">
+      <c r="BO13" s="33"/>
+      <c r="BP13" s="34"/>
+      <c r="BQ13" s="35" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT13" s="38"/>
-    </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BR13" s="33"/>
+      <c r="BS13" s="36"/>
+      <c r="BT13" s="35" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU13" s="38"/>
+    </row>
+    <row r="14" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8" t="e">
+        <f>VLOOKUP(E14,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K14" s="8" t="e">
+        <f>VLOOKUP(E14,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="21"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="20"/>
       <c r="W14" s="21"/>
-      <c r="X14" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z14" s="21"/>
-      <c r="AA14" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="22"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC14" s="22"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="34"/>
-      <c r="AL14" s="35" t="str">
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="33"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="35" t="str">
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="34"/>
-      <c r="AR14" s="35" t="str">
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="35" t="str">
+      <c r="AQ14" s="33"/>
+      <c r="AR14" s="34"/>
+      <c r="AS14" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="34"/>
-      <c r="AX14" s="35" t="str">
+      <c r="AT14" s="33"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY14" s="33"/>
-      <c r="AZ14" s="36"/>
-      <c r="BA14" s="35" t="str">
+      <c r="AW14" s="33"/>
+      <c r="AX14" s="34"/>
+      <c r="AY14" s="35" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB14" s="33"/>
-      <c r="BC14" s="34"/>
-      <c r="BD14" s="35" t="str">
+      <c r="AZ14" s="33"/>
+      <c r="BA14" s="36"/>
+      <c r="BB14" s="35" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE14" s="33"/>
-      <c r="BF14" s="34"/>
-      <c r="BG14" s="35" t="str">
+      <c r="BC14" s="33"/>
+      <c r="BD14" s="34"/>
+      <c r="BE14" s="35" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH14" s="33"/>
-      <c r="BI14" s="34"/>
-      <c r="BJ14" s="35" t="str">
+      <c r="BF14" s="33"/>
+      <c r="BG14" s="34"/>
+      <c r="BH14" s="35" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK14" s="33"/>
-      <c r="BL14" s="34"/>
-      <c r="BM14" s="35" t="str">
+      <c r="BI14" s="33"/>
+      <c r="BJ14" s="34"/>
+      <c r="BK14" s="35" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN14" s="33"/>
-      <c r="BO14" s="34"/>
-      <c r="BP14" s="35" t="str">
+      <c r="BL14" s="33"/>
+      <c r="BM14" s="34"/>
+      <c r="BN14" s="35" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ14" s="33"/>
-      <c r="BR14" s="34"/>
-      <c r="BS14" s="35" t="str">
+      <c r="BO14" s="33"/>
+      <c r="BP14" s="34"/>
+      <c r="BQ14" s="35" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT14" s="38"/>
-    </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BR14" s="33"/>
+      <c r="BS14" s="34"/>
+      <c r="BT14" s="35" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU14" s="38"/>
+    </row>
+    <row r="15" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8" t="e">
+        <f>VLOOKUP(E15,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K15" s="8" t="e">
+        <f>VLOOKUP(E15,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="21"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="20"/>
       <c r="W15" s="21"/>
-      <c r="X15" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z15" s="21"/>
-      <c r="AA15" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="22"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC15" s="22"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="34"/>
-      <c r="AL15" s="35" t="str">
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="34"/>
-      <c r="AO15" s="35" t="str">
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="34"/>
-      <c r="AR15" s="35" t="str">
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="34"/>
+      <c r="AP15" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS15" s="33"/>
-      <c r="AT15" s="34"/>
-      <c r="AU15" s="35" t="str">
+      <c r="AQ15" s="33"/>
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="34"/>
-      <c r="AX15" s="35" t="str">
+      <c r="AT15" s="33"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY15" s="33"/>
-      <c r="AZ15" s="36"/>
-      <c r="BA15" s="35" t="str">
+      <c r="AW15" s="33"/>
+      <c r="AX15" s="34"/>
+      <c r="AY15" s="35" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB15" s="33"/>
-      <c r="BC15" s="34"/>
-      <c r="BD15" s="35" t="str">
+      <c r="AZ15" s="33"/>
+      <c r="BA15" s="36"/>
+      <c r="BB15" s="35" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE15" s="33"/>
-      <c r="BF15" s="34"/>
-      <c r="BG15" s="35" t="str">
+      <c r="BC15" s="33"/>
+      <c r="BD15" s="34"/>
+      <c r="BE15" s="35" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH15" s="33"/>
-      <c r="BI15" s="34"/>
-      <c r="BJ15" s="35" t="str">
+      <c r="BF15" s="33"/>
+      <c r="BG15" s="34"/>
+      <c r="BH15" s="35" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK15" s="33"/>
-      <c r="BL15" s="34"/>
-      <c r="BM15" s="35" t="str">
+      <c r="BI15" s="33"/>
+      <c r="BJ15" s="34"/>
+      <c r="BK15" s="35" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN15" s="33"/>
-      <c r="BO15" s="34"/>
-      <c r="BP15" s="35" t="str">
+      <c r="BL15" s="33"/>
+      <c r="BM15" s="34"/>
+      <c r="BN15" s="35" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ15" s="33"/>
-      <c r="BR15" s="34"/>
-      <c r="BS15" s="35" t="str">
+      <c r="BO15" s="33"/>
+      <c r="BP15" s="34"/>
+      <c r="BQ15" s="35" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT15" s="38"/>
-    </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BR15" s="33"/>
+      <c r="BS15" s="34"/>
+      <c r="BT15" s="35" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU15" s="38"/>
+    </row>
+    <row r="16" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8" t="e">
+        <f>VLOOKUP(E16,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K16" s="8" t="e">
+        <f>VLOOKUP(E16,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="21"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="20"/>
       <c r="W16" s="21"/>
-      <c r="X16" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z16" s="21"/>
-      <c r="AA16" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="22"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC16" s="22"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="36"/>
-      <c r="AI16" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="36"/>
-      <c r="AL16" s="35" t="str">
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="33"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="36"/>
-      <c r="AO16" s="35" t="str">
+      <c r="AK16" s="33"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="36"/>
-      <c r="AR16" s="35" t="str">
+      <c r="AN16" s="33"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="36"/>
-      <c r="AU16" s="35" t="str">
+      <c r="AQ16" s="33"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="36"/>
-      <c r="AX16" s="35" t="str">
+      <c r="AT16" s="33"/>
+      <c r="AU16" s="36"/>
+      <c r="AV16" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY16" s="33"/>
-      <c r="AZ16" s="36"/>
-      <c r="BA16" s="35" t="str">
+      <c r="AW16" s="33"/>
+      <c r="AX16" s="36"/>
+      <c r="AY16" s="35" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB16" s="33"/>
-      <c r="BC16" s="36"/>
-      <c r="BD16" s="35" t="str">
+      <c r="AZ16" s="33"/>
+      <c r="BA16" s="36"/>
+      <c r="BB16" s="35" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE16" s="33"/>
-      <c r="BF16" s="34"/>
-      <c r="BG16" s="35" t="str">
+      <c r="BC16" s="33"/>
+      <c r="BD16" s="36"/>
+      <c r="BE16" s="35" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH16" s="33"/>
-      <c r="BI16" s="34"/>
-      <c r="BJ16" s="35" t="str">
+      <c r="BF16" s="33"/>
+      <c r="BG16" s="34"/>
+      <c r="BH16" s="35" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK16" s="33"/>
-      <c r="BL16" s="34"/>
-      <c r="BM16" s="35" t="str">
+      <c r="BI16" s="33"/>
+      <c r="BJ16" s="34"/>
+      <c r="BK16" s="35" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN16" s="33"/>
-      <c r="BO16" s="34"/>
-      <c r="BP16" s="35" t="str">
+      <c r="BL16" s="33"/>
+      <c r="BM16" s="34"/>
+      <c r="BN16" s="35" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ16" s="33"/>
-      <c r="BR16" s="36"/>
-      <c r="BS16" s="35" t="str">
+      <c r="BO16" s="33"/>
+      <c r="BP16" s="34"/>
+      <c r="BQ16" s="35" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT16" s="38"/>
-    </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BR16" s="33"/>
+      <c r="BS16" s="36"/>
+      <c r="BT16" s="35" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU16" s="38"/>
+    </row>
+    <row r="17" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="8" t="e">
+        <f>VLOOKUP(E17,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K17" s="8" t="e">
+        <f>VLOOKUP(E17,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="21"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="20"/>
       <c r="W17" s="21"/>
-      <c r="X17" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z17" s="21"/>
-      <c r="AA17" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="22"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC17" s="22"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="35" t="str">
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="35" t="str">
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP17" s="33"/>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="35" t="str">
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS17" s="33"/>
-      <c r="AT17" s="36"/>
-      <c r="AU17" s="35" t="str">
+      <c r="AQ17" s="33"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV17" s="33"/>
-      <c r="AW17" s="36"/>
-      <c r="AX17" s="35" t="str">
+      <c r="AT17" s="33"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY17" s="33"/>
-      <c r="AZ17" s="36"/>
-      <c r="BA17" s="35" t="str">
+      <c r="AW17" s="33"/>
+      <c r="AX17" s="36"/>
+      <c r="AY17" s="35" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB17" s="44"/>
-      <c r="BC17" s="36"/>
-      <c r="BD17" s="35" t="str">
+      <c r="AZ17" s="33"/>
+      <c r="BA17" s="36"/>
+      <c r="BB17" s="35" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE17" s="44"/>
-      <c r="BF17" s="36"/>
-      <c r="BG17" s="35" t="str">
+      <c r="BC17" s="44"/>
+      <c r="BD17" s="36"/>
+      <c r="BE17" s="35" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH17" s="44"/>
-      <c r="BI17" s="36"/>
-      <c r="BJ17" s="35" t="str">
+      <c r="BF17" s="44"/>
+      <c r="BG17" s="36"/>
+      <c r="BH17" s="35" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK17" s="44"/>
-      <c r="BL17" s="36"/>
-      <c r="BM17" s="35" t="str">
+      <c r="BI17" s="44"/>
+      <c r="BJ17" s="36"/>
+      <c r="BK17" s="35" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN17" s="33"/>
-      <c r="BO17" s="34"/>
-      <c r="BP17" s="35" t="str">
+      <c r="BL17" s="44"/>
+      <c r="BM17" s="36"/>
+      <c r="BN17" s="35" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ17" s="33"/>
-      <c r="BR17" s="36"/>
-      <c r="BS17" s="35" t="str">
+      <c r="BO17" s="33"/>
+      <c r="BP17" s="34"/>
+      <c r="BQ17" s="35" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT17" s="38"/>
-    </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BR17" s="33"/>
+      <c r="BS17" s="36"/>
+      <c r="BT17" s="35" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU17" s="38"/>
+    </row>
+    <row r="18" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="E18" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8" t="e">
+        <f>VLOOKUP(E18,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K18" s="8" t="e">
+        <f>VLOOKUP(E18,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="21"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="20"/>
       <c r="W18" s="21"/>
-      <c r="X18" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z18" s="21"/>
-      <c r="AA18" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="22"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC18" s="22"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="35" t="str">
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="35" t="str">
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP18" s="33"/>
-      <c r="AQ18" s="36"/>
-      <c r="AR18" s="35" t="str">
+      <c r="AN18" s="33"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="36"/>
-      <c r="AU18" s="35" t="str">
+      <c r="AQ18" s="33"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV18" s="33"/>
-      <c r="AW18" s="36"/>
-      <c r="AX18" s="35" t="str">
+      <c r="AT18" s="33"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY18" s="33"/>
-      <c r="AZ18" s="36"/>
-      <c r="BA18" s="35" t="str">
+      <c r="AW18" s="33"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="35" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB18" s="33"/>
-      <c r="BC18" s="36"/>
-      <c r="BD18" s="35" t="str">
+      <c r="AZ18" s="33"/>
+      <c r="BA18" s="36"/>
+      <c r="BB18" s="35" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE18" s="33"/>
-      <c r="BF18" s="36"/>
-      <c r="BG18" s="35" t="str">
+      <c r="BC18" s="33"/>
+      <c r="BD18" s="36"/>
+      <c r="BE18" s="35" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH18" s="33"/>
-      <c r="BI18" s="36"/>
-      <c r="BJ18" s="35" t="str">
+      <c r="BF18" s="33"/>
+      <c r="BG18" s="36"/>
+      <c r="BH18" s="35" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK18" s="33"/>
-      <c r="BL18" s="36"/>
-      <c r="BM18" s="35" t="str">
+      <c r="BI18" s="33"/>
+      <c r="BJ18" s="36"/>
+      <c r="BK18" s="35" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN18" s="33"/>
-      <c r="BO18" s="34"/>
-      <c r="BP18" s="35" t="str">
+      <c r="BL18" s="33"/>
+      <c r="BM18" s="36"/>
+      <c r="BN18" s="35" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ18" s="33"/>
-      <c r="BR18" s="36"/>
-      <c r="BS18" s="35" t="str">
+      <c r="BO18" s="33"/>
+      <c r="BP18" s="34"/>
+      <c r="BQ18" s="35" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT18" s="38"/>
-    </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.35">
+      <c r="BR18" s="33"/>
+      <c r="BS18" s="36"/>
+      <c r="BT18" s="35" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU18" s="38"/>
+    </row>
+    <row r="19" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8" t="e">
+        <f>VLOOKUP(E19,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K19" s="8" t="e">
+        <f>VLOOKUP(E19,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="21"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="20"/>
       <c r="W19" s="21"/>
-      <c r="X19" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z19" s="21"/>
-      <c r="AA19" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="22"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC19" s="22"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="35" t="str">
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="33"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="35" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="35" t="str">
+      <c r="AK19" s="33"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="35" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP19" s="33"/>
-      <c r="AQ19" s="36"/>
-      <c r="AR19" s="35" t="str">
+      <c r="AN19" s="33"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="35" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS19" s="33"/>
-      <c r="AT19" s="36"/>
-      <c r="AU19" s="35" t="str">
+      <c r="AQ19" s="33"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="35" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV19" s="33"/>
-      <c r="AW19" s="36"/>
-      <c r="AX19" s="35" t="str">
+      <c r="AT19" s="33"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="35" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY19" s="33"/>
-      <c r="AZ19" s="36"/>
-      <c r="BA19" s="35" t="str">
+      <c r="AW19" s="33"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="35" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB19" s="33"/>
-      <c r="BC19" s="36"/>
-      <c r="BD19" s="35" t="str">
+      <c r="AZ19" s="33"/>
+      <c r="BA19" s="36"/>
+      <c r="BB19" s="35" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE19" s="33"/>
-      <c r="BF19" s="36"/>
-      <c r="BG19" s="35" t="str">
+      <c r="BC19" s="33"/>
+      <c r="BD19" s="36"/>
+      <c r="BE19" s="35" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH19" s="33"/>
-      <c r="BI19" s="36"/>
-      <c r="BJ19" s="35" t="str">
+      <c r="BF19" s="33"/>
+      <c r="BG19" s="36"/>
+      <c r="BH19" s="35" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK19" s="33"/>
-      <c r="BL19" s="36"/>
-      <c r="BM19" s="35" t="str">
+      <c r="BI19" s="33"/>
+      <c r="BJ19" s="36"/>
+      <c r="BK19" s="35" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN19" s="33"/>
-      <c r="BO19" s="34"/>
-      <c r="BP19" s="35" t="str">
+      <c r="BL19" s="33"/>
+      <c r="BM19" s="36"/>
+      <c r="BN19" s="35" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ19" s="33"/>
-      <c r="BR19" s="36"/>
-      <c r="BS19" s="35" t="str">
+      <c r="BO19" s="33"/>
+      <c r="BP19" s="34"/>
+      <c r="BQ19" s="35" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT19" s="38"/>
-    </row>
-    <row r="20" spans="1:72" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="BR19" s="33"/>
+      <c r="BS19" s="36"/>
+      <c r="BT19" s="35" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU19" s="38"/>
+    </row>
+    <row r="20" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="67" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="8" t="e">
+        <f>VLOOKUP(E20,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K20" s="8" t="e">
+        <f>VLOOKUP(E20,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-      <c r="O20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="13"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="25"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="24"/>
       <c r="W20" s="25"/>
-      <c r="X20" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Z20" s="25"/>
-      <c r="AA20" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="26"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="AC20" s="26"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="43"/>
-      <c r="AI20" s="45" t="str">
-        <f t="shared" si="3"/>
-        <v>NA</v>
-      </c>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="43"/>
-      <c r="AL20" s="45" t="str">
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="43"/>
+      <c r="AJ20" s="45" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AM20" s="41"/>
-      <c r="AN20" s="43"/>
-      <c r="AO20" s="45" t="str">
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="43"/>
+      <c r="AM20" s="45" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AP20" s="41"/>
-      <c r="AQ20" s="43"/>
-      <c r="AR20" s="45" t="str">
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="43"/>
+      <c r="AP20" s="45" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="AS20" s="41"/>
-      <c r="AT20" s="43"/>
-      <c r="AU20" s="45" t="str">
+      <c r="AQ20" s="41"/>
+      <c r="AR20" s="43"/>
+      <c r="AS20" s="45" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="AV20" s="41"/>
-      <c r="AW20" s="43"/>
-      <c r="AX20" s="45" t="str">
+      <c r="AT20" s="41"/>
+      <c r="AU20" s="43"/>
+      <c r="AV20" s="45" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="AY20" s="41"/>
-      <c r="AZ20" s="43"/>
-      <c r="BA20" s="45" t="str">
+      <c r="AW20" s="41"/>
+      <c r="AX20" s="43"/>
+      <c r="AY20" s="45" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BB20" s="41"/>
-      <c r="BC20" s="43"/>
-      <c r="BD20" s="45" t="str">
+      <c r="AZ20" s="41"/>
+      <c r="BA20" s="43"/>
+      <c r="BB20" s="45" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BE20" s="41"/>
-      <c r="BF20" s="43"/>
-      <c r="BG20" s="45" t="str">
+      <c r="BC20" s="41"/>
+      <c r="BD20" s="43"/>
+      <c r="BE20" s="45" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BH20" s="41"/>
-      <c r="BI20" s="43"/>
-      <c r="BJ20" s="45" t="str">
+      <c r="BF20" s="41"/>
+      <c r="BG20" s="43"/>
+      <c r="BH20" s="45" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BK20" s="41"/>
-      <c r="BL20" s="43"/>
-      <c r="BM20" s="45" t="str">
+      <c r="BI20" s="41"/>
+      <c r="BJ20" s="43"/>
+      <c r="BK20" s="45" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BN20" s="41"/>
-      <c r="BO20" s="43"/>
-      <c r="BP20" s="45" t="str">
+      <c r="BL20" s="41"/>
+      <c r="BM20" s="43"/>
+      <c r="BN20" s="45" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="BQ20" s="41"/>
-      <c r="BR20" s="43"/>
-      <c r="BS20" s="45" t="str">
+      <c r="BO20" s="41"/>
+      <c r="BP20" s="43"/>
+      <c r="BQ20" s="45" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="BT20" s="42"/>
+      <c r="BR20" s="41"/>
+      <c r="BS20" s="43"/>
+      <c r="BT20" s="45" t="str">
+        <f t="shared" si="16"/>
+        <v>NA</v>
+      </c>
+      <c r="BU20" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3473,6 +3745,253 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B475CA-ACA9-4ABD-B960-55CFCF6EC60B}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="72">
+        <v>-5.4793240000000001</v>
+      </c>
+      <c r="C2" s="72">
+        <v>119.31157399999999</v>
+      </c>
+      <c r="D2" s="73"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="72">
+        <v>-5.4880659999999999</v>
+      </c>
+      <c r="C3" s="72">
+        <v>119.31312699999999</v>
+      </c>
+      <c r="D3" s="73"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="72">
+        <v>-5.4889159999999997</v>
+      </c>
+      <c r="C4" s="72">
+        <v>119.309448</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="72">
+        <v>-5.468826</v>
+      </c>
+      <c r="C5" s="72">
+        <v>119.300459</v>
+      </c>
+      <c r="D5" s="73"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="72">
+        <v>-5.4682649999999997</v>
+      </c>
+      <c r="C6" s="72">
+        <v>119.30207900000001</v>
+      </c>
+      <c r="D6" s="73"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="72">
+        <v>-5.4671349999999999</v>
+      </c>
+      <c r="C7" s="72">
+        <v>119.302812</v>
+      </c>
+      <c r="D7" s="73"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="72">
+        <v>-5.4901910000000003</v>
+      </c>
+      <c r="C8" s="72">
+        <v>119.311859</v>
+      </c>
+      <c r="D8" s="73"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="72">
+        <v>-5.491987</v>
+      </c>
+      <c r="C9" s="72">
+        <v>119.312573</v>
+      </c>
+      <c r="D9" s="73"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="72">
+        <v>-5.49282</v>
+      </c>
+      <c r="C10" s="72">
+        <v>119.31198000000001</v>
+      </c>
+      <c r="D10" s="73"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="72">
+        <v>-5.4639509999999998</v>
+      </c>
+      <c r="C11" s="72">
+        <v>119.287291</v>
+      </c>
+      <c r="D11" s="73"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="72">
+        <v>-5.4620889999999997</v>
+      </c>
+      <c r="C12" s="72">
+        <v>119.286874</v>
+      </c>
+      <c r="D12" s="73"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="72">
+        <v>-5.463902</v>
+      </c>
+      <c r="C13" s="72">
+        <v>119.28802</v>
+      </c>
+      <c r="D13" s="73"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="72">
+        <v>-5.4810160000000003</v>
+      </c>
+      <c r="C14" s="72">
+        <v>119.31128099999999</v>
+      </c>
+      <c r="D14" s="73"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="72">
+        <v>-5.4811319999999997</v>
+      </c>
+      <c r="C15" s="72">
+        <v>119.31211</v>
+      </c>
+      <c r="D15" s="73"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="72">
+        <v>-5.4793599999999998</v>
+      </c>
+      <c r="C16" s="72">
+        <v>119.312033</v>
+      </c>
+      <c r="D16" s="73"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="72">
+        <v>-5.4663769999999996</v>
+      </c>
+      <c r="C17" s="72">
+        <v>119.30229</v>
+      </c>
+      <c r="D17" s="73"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="72">
+        <v>-5.4682510000000004</v>
+      </c>
+      <c r="C18" s="72">
+        <v>119.301957</v>
+      </c>
+      <c r="D18" s="73"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="75">
+        <v>-5.4686510000000004</v>
+      </c>
+      <c r="C19" s="75">
+        <v>119.300428</v>
+      </c>
+      <c r="D19" s="76"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C275047-2B6F-478B-B578-4E8B665EBECB}">
   <dimension ref="A1:AJ20"/>
   <sheetViews>
@@ -4579,7 +5098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24E6ECB-A4E3-461A-8394-9D0B5FDC18C7}">
   <dimension ref="A1:E4"/>
   <sheetViews>

--- a/URUVS/Datasheets/Example_RecordingData.xlsx
+++ b/URUVS/Datasheets/Example_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAA1268E-547E-4FF0-BE43-2320953C8010}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C56AC4-2C4F-4C9D-9055-E8700D7CC19D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -5301,8 +5301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E619138-F039-4841-928C-9D919C758651}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D4" s="56"/>
     </row>
@@ -5708,7 +5708,7 @@
       <c r="AK3" s="31"/>
       <c r="AL3" s="34"/>
       <c r="AM3" s="57" t="str">
-        <f t="shared" ref="AM2:AM22" si="4">IF(AK3=0,"NA",AL3-$AC3)</f>
+        <f t="shared" ref="AM3:AM22" si="4">IF(AK3=0,"NA",AL3-$AC3)</f>
         <v>NA</v>
       </c>
       <c r="AP3" s="90"/>
@@ -7473,7 +7473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D78EE8-FEEB-4FC3-8928-D92F54DD652C}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/URUVS/Datasheets/Example_RecordingData.xlsx
+++ b/URUVS/Datasheets/Example_RecordingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophi\Documents\GitHub\TanakekeProject\URUVS\Datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C56AC4-2C4F-4C9D-9055-E8700D7CC19D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A540B3-1510-43CD-B3CC-3F7C3F22E224}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
   <si>
     <t>DATE</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>From field nb</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>Month data represents</t>
   </si>
 </sst>
 </file>
@@ -1114,4181 +1120,4206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF2D75B-3330-44BB-BF8B-27BF0F133624}">
-  <dimension ref="A1:CV22"/>
+  <dimension ref="A1:CW22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI15" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="8.7265625" customWidth="1"/>
-    <col min="22" max="28" width="8.7265625" style="1" customWidth="1"/>
-    <col min="29" max="35" width="8.7265625" customWidth="1"/>
-    <col min="36" max="36" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="8.7265625" style="73"/>
-    <col min="78" max="78" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="3" max="22" width="8.7265625" customWidth="1"/>
+    <col min="23" max="29" width="8.7265625" style="1" customWidth="1"/>
+    <col min="30" max="36" width="8.7265625" customWidth="1"/>
+    <col min="37" max="37" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="8.7265625" style="73"/>
+    <col min="79" max="79" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="F1" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AH1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="26" t="s">
+      <c r="AJ1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="60" t="s">
+      <c r="AK1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="AK1" s="83" t="s">
+      <c r="AL1" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AM1" s="60" t="s">
+      <c r="AN1" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="AN1" s="83" t="s">
+      <c r="AO1" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="27" t="s">
+      <c r="AP1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AP1" s="60" t="s">
+      <c r="AQ1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AQ1" s="83" t="s">
+      <c r="AR1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="27" t="s">
+      <c r="AS1" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" s="60" t="s">
+      <c r="AT1" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" s="83" t="s">
+      <c r="AU1" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="AU1" s="27" t="s">
+      <c r="AV1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AV1" s="60" t="s">
+      <c r="AW1" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="83" t="s">
+      <c r="AX1" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="AX1" s="27" t="s">
+      <c r="AY1" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="AY1" s="60" t="s">
+      <c r="AZ1" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="AZ1" s="83" t="s">
+      <c r="BA1" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="BA1" s="27" t="s">
+      <c r="BB1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="BB1" s="60" t="s">
+      <c r="BC1" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="BC1" s="83" t="s">
+      <c r="BD1" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="BD1" s="27" t="s">
+      <c r="BE1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="BE1" s="60" t="s">
+      <c r="BF1" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="BF1" s="83" t="s">
+      <c r="BG1" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="BG1" s="27" t="s">
+      <c r="BH1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="BH1" s="60" t="s">
+      <c r="BI1" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="BI1" s="83" t="s">
+      <c r="BJ1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="BJ1" s="27" t="s">
+      <c r="BK1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="BK1" s="60" t="s">
+      <c r="BL1" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" s="83" t="s">
+      <c r="BM1" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="BM1" s="27" t="s">
+      <c r="BN1" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="BN1" s="60" t="s">
+      <c r="BO1" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" s="83" t="s">
+      <c r="BP1" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="BP1" s="27" t="s">
+      <c r="BQ1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="BQ1" s="60" t="s">
+      <c r="BR1" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="BR1" s="83" t="s">
+      <c r="BS1" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="BS1" s="27" t="s">
+      <c r="BT1" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="BT1" s="60" t="s">
+      <c r="BU1" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="BU1" s="83" t="s">
+      <c r="BV1" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="BV1" s="27" t="s">
+      <c r="BW1" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="BW1" s="60" t="s">
+      <c r="BX1" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="BX1" s="84" t="s">
+      <c r="BY1" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="BY1" s="27" t="s">
+      <c r="BZ1" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="BZ1" s="60" t="s">
+      <c r="CA1" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="CA1" s="83" t="s">
+      <c r="CB1" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="CB1" s="27" t="s">
+      <c r="CC1" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="CC1" s="60" t="s">
+      <c r="CD1" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="CD1" s="83" t="s">
+      <c r="CE1" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="CE1" s="27" t="s">
+      <c r="CF1" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="CF1" s="60" t="s">
+      <c r="CG1" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="CG1" s="83" t="s">
+      <c r="CH1" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="CH1" s="27" t="s">
+      <c r="CI1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="CI1" s="60" t="s">
+      <c r="CJ1" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="CJ1" s="83" t="s">
+      <c r="CK1" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="CK1" s="27" t="s">
+      <c r="CL1" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="CL1" s="60" t="s">
+      <c r="CM1" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="CM1" s="83" t="s">
+      <c r="CN1" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="CN1" s="27" t="s">
+      <c r="CO1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="CO1" s="60" t="s">
+      <c r="CP1" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="CP1" s="83" t="s">
+      <c r="CQ1" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="CQ1" s="27" t="s">
+      <c r="CR1" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="CR1" s="60" t="s">
+      <c r="CS1" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="CS1" s="83" t="s">
+      <c r="CT1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="CT1" s="27" t="s">
+      <c r="CU1" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="CU1" s="60" t="s">
+      <c r="CV1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="CV1" s="28" t="s">
+      <c r="CW1" s="28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="76" t="str">
-        <f>C2&amp;""&amp;D2</f>
+      <c r="E2" s="5"/>
+      <c r="F2" s="76" t="str">
+        <f>D2&amp;""&amp;E2</f>
         <v/>
       </c>
-      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="7" t="e">
-        <f>VLOOKUP(E2,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="7" t="e">
-        <f>VLOOKUP(E2,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L2" s="5"/>
+        <f>VLOOKUP(F2,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L2" s="7" t="e">
+        <f>VLOOKUP(F2,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
-      <c r="P2" s="6">
-        <f>I2-H2</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6">
+        <f>J2-I2</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="6"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="19"/>
       <c r="X2" s="20"/>
       <c r="Y2" s="20"/>
       <c r="Z2" s="20"/>
       <c r="AA2" s="20"/>
-      <c r="AB2" s="20">
-        <f>SUM(V2:AA2)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20">
+        <f>SUM(W2:AB2)</f>
+        <v>0</v>
+      </c>
       <c r="AD2" s="20"/>
-      <c r="AE2" s="20">
-        <f t="shared" ref="AE2:AE13" si="0">AB2-AC2-AD2</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="21"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20">
+        <f t="shared" ref="AF2:AF13" si="0">AC2-AD2-AE2</f>
+        <v>0</v>
+      </c>
       <c r="AG2" s="21"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="33" t="str">
-        <f t="shared" ref="AM2:AM13" si="1">IF(AK2=0,"NA",AL2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="57"/>
-      <c r="AP2" s="33" t="str">
-        <f t="shared" ref="AP2:AP13" si="2">IF(AN2=0,"NA",AO2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AQ2" s="59"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="33" t="str">
-        <f t="shared" ref="AS2:AS13" si="3">IF(AQ2=0,"NA",AR2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AT2" s="59"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="33" t="str">
-        <f t="shared" ref="AV2:AV13" si="4">IF(AT2=0,"NA",AU2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AW2" s="59"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="33" t="str">
-        <f t="shared" ref="AY2:AY22" si="5">IF(AW2=0,"NA",AX2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="AZ2" s="59"/>
-      <c r="BA2" s="58"/>
-      <c r="BB2" s="33" t="str">
-        <f t="shared" ref="BB2:BB13" si="6">IF(AZ2=0,"NA",BA2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BC2" s="59"/>
-      <c r="BD2" s="58"/>
-      <c r="BE2" s="33" t="str">
-        <f t="shared" ref="BE2:BE13" si="7">IF(BC2=0,"NA",BD2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BF2" s="59"/>
-      <c r="BG2" s="58"/>
-      <c r="BH2" s="33" t="str">
-        <f t="shared" ref="BH2:BH13" si="8">IF(BF2=0,"NA",BG2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BI2" s="59"/>
-      <c r="BJ2" s="58"/>
-      <c r="BK2" s="33" t="str">
-        <f t="shared" ref="BK2:BK13" si="9">IF(BI2=0,"NA",BJ2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BL2" s="59"/>
-      <c r="BM2" s="58"/>
-      <c r="BN2" s="33" t="str">
-        <f t="shared" ref="BN2:BN13" si="10">IF(BL2=0,"NA",BM2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BO2" s="59"/>
-      <c r="BP2" s="58"/>
-      <c r="BQ2" s="33" t="str">
-        <f t="shared" ref="BQ2:BQ13" si="11">IF(BO2=0,"NA",BP2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BR2" s="59"/>
-      <c r="BS2" s="74"/>
-      <c r="BT2" s="33" t="str">
-        <f t="shared" ref="BT2:BT13" si="12">IF(BR2=0,"NA",BS2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BU2" s="59"/>
-      <c r="BV2" s="58"/>
-      <c r="BW2" s="33" t="str">
-        <f t="shared" ref="BW2:BW22" si="13">IF(BU2=0,"NA",BV2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="BX2" s="41"/>
-      <c r="BY2" s="57"/>
-      <c r="BZ2" s="33" t="str">
-        <f t="shared" ref="BZ2:BZ22" si="14">IF(BX2=0,"NA",BY2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CA2" s="59"/>
-      <c r="CB2" s="72"/>
-      <c r="CC2" s="33" t="str">
-        <f t="shared" ref="CC2:CC22" si="15">IF(CA2=0,"NA",CB2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CD2" s="59"/>
-      <c r="CE2" s="72"/>
-      <c r="CF2" s="33" t="str">
-        <f t="shared" ref="CF2:CF22" si="16">IF(CD2=0,"NA",CE2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CG2" s="59"/>
-      <c r="CH2" s="72"/>
-      <c r="CI2" s="33" t="str">
-        <f t="shared" ref="CI2:CI22" si="17">IF(CG2=0,"NA",CH2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CJ2" s="59"/>
-      <c r="CK2" s="72"/>
-      <c r="CL2" s="33" t="str">
-        <f t="shared" ref="CL2:CL22" si="18">IF(CJ2=0,"NA",CK2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CM2" s="59"/>
-      <c r="CN2" s="72"/>
-      <c r="CO2" s="33" t="str">
-        <f t="shared" ref="CO2:CO22" si="19">IF(CM2=0,"NA",CN2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CP2" s="59"/>
-      <c r="CQ2" s="72"/>
-      <c r="CR2" s="33" t="str">
-        <f t="shared" ref="CR2:CR22" si="20">IF(CP2=0,"NA",CQ2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CS2" s="59"/>
-      <c r="CT2" s="72"/>
-      <c r="CU2" s="33" t="str">
-        <f t="shared" ref="CU2:CU13" si="21">IF(CS2=0,"NA",CT2-$AC2)</f>
-        <v>NA</v>
-      </c>
-      <c r="CV2" s="35"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="33" t="str">
+        <f t="shared" ref="AN2:AN13" si="1">IF(AL2=0,"NA",AM2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="33" t="str">
+        <f t="shared" ref="AQ2:AQ13" si="2">IF(AO2=0,"NA",AP2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="33" t="str">
+        <f t="shared" ref="AT2:AT13" si="3">IF(AR2=0,"NA",AS2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="33" t="str">
+        <f t="shared" ref="AW2:AW13" si="4">IF(AU2=0,"NA",AV2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="33" t="str">
+        <f t="shared" ref="AZ2:AZ22" si="5">IF(AX2=0,"NA",AY2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BA2" s="59"/>
+      <c r="BB2" s="58"/>
+      <c r="BC2" s="33" t="str">
+        <f t="shared" ref="BC2:BC13" si="6">IF(BA2=0,"NA",BB2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BD2" s="59"/>
+      <c r="BE2" s="58"/>
+      <c r="BF2" s="33" t="str">
+        <f t="shared" ref="BF2:BF13" si="7">IF(BD2=0,"NA",BE2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BG2" s="59"/>
+      <c r="BH2" s="58"/>
+      <c r="BI2" s="33" t="str">
+        <f t="shared" ref="BI2:BI13" si="8">IF(BG2=0,"NA",BH2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BJ2" s="59"/>
+      <c r="BK2" s="58"/>
+      <c r="BL2" s="33" t="str">
+        <f t="shared" ref="BL2:BL13" si="9">IF(BJ2=0,"NA",BK2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BM2" s="59"/>
+      <c r="BN2" s="58"/>
+      <c r="BO2" s="33" t="str">
+        <f t="shared" ref="BO2:BO13" si="10">IF(BM2=0,"NA",BN2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BP2" s="59"/>
+      <c r="BQ2" s="58"/>
+      <c r="BR2" s="33" t="str">
+        <f t="shared" ref="BR2:BR13" si="11">IF(BP2=0,"NA",BQ2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BS2" s="59"/>
+      <c r="BT2" s="74"/>
+      <c r="BU2" s="33" t="str">
+        <f t="shared" ref="BU2:BU13" si="12">IF(BS2=0,"NA",BT2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BV2" s="59"/>
+      <c r="BW2" s="58"/>
+      <c r="BX2" s="33" t="str">
+        <f t="shared" ref="BX2:BX22" si="13">IF(BV2=0,"NA",BW2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="BY2" s="41"/>
+      <c r="BZ2" s="57"/>
+      <c r="CA2" s="33" t="str">
+        <f t="shared" ref="CA2:CA22" si="14">IF(BY2=0,"NA",BZ2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CB2" s="59"/>
+      <c r="CC2" s="72"/>
+      <c r="CD2" s="33" t="str">
+        <f t="shared" ref="CD2:CD22" si="15">IF(CB2=0,"NA",CC2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CE2" s="59"/>
+      <c r="CF2" s="72"/>
+      <c r="CG2" s="33" t="str">
+        <f t="shared" ref="CG2:CG22" si="16">IF(CE2=0,"NA",CF2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CH2" s="59"/>
+      <c r="CI2" s="72"/>
+      <c r="CJ2" s="33" t="str">
+        <f t="shared" ref="CJ2:CJ22" si="17">IF(CH2=0,"NA",CI2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CK2" s="59"/>
+      <c r="CL2" s="72"/>
+      <c r="CM2" s="33" t="str">
+        <f t="shared" ref="CM2:CM22" si="18">IF(CK2=0,"NA",CL2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CN2" s="59"/>
+      <c r="CO2" s="72"/>
+      <c r="CP2" s="33" t="str">
+        <f t="shared" ref="CP2:CP22" si="19">IF(CN2=0,"NA",CO2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CQ2" s="59"/>
+      <c r="CR2" s="72"/>
+      <c r="CS2" s="33" t="str">
+        <f t="shared" ref="CS2:CS22" si="20">IF(CQ2=0,"NA",CR2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CT2" s="59"/>
+      <c r="CU2" s="72"/>
+      <c r="CV2" s="33" t="str">
+        <f t="shared" ref="CV2:CV13" si="21">IF(CT2=0,"NA",CU2-$AD2)</f>
+        <v>NA</v>
+      </c>
+      <c r="CW2" s="35"/>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="76" t="str">
-        <f t="shared" ref="E3:E22" si="22">C3&amp;""&amp;D3</f>
+      <c r="E3" s="5"/>
+      <c r="F3" s="76" t="str">
+        <f t="shared" ref="F3:F22" si="22">D3&amp;""&amp;E3</f>
         <v/>
       </c>
-      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="7" t="e">
-        <f>VLOOKUP(E3,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J3" s="6"/>
       <c r="K3" s="7" t="e">
-        <f>VLOOKUP(E3,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L3" s="5"/>
+        <f>VLOOKUP(F3,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L3" s="7" t="e">
+        <f>VLOOKUP(F3,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="6">
-        <f t="shared" ref="P3:P22" si="23">I3-H3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:Q22" si="23">J3-I3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="6"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="19"/>
       <c r="X3" s="20"/>
       <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
-      <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB22" si="24">SUM(V3:AA3)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20">
+        <f t="shared" ref="AC3:AC22" si="24">SUM(W3:AB3)</f>
+        <v>0</v>
+      </c>
       <c r="AD3" s="20"/>
-      <c r="AE3" s="20">
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF3" s="21"/>
       <c r="AG3" s="21"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="33" t="str">
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="33" t="str">
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="33" t="str">
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="33" t="str">
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="33" t="str">
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="33" t="str">
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="32"/>
-      <c r="BE3" s="33" t="str">
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="32"/>
-      <c r="BH3" s="33" t="str">
+      <c r="BG3" s="31"/>
+      <c r="BH3" s="32"/>
+      <c r="BI3" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI3" s="31"/>
-      <c r="BJ3" s="32"/>
-      <c r="BK3" s="33" t="str">
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="32"/>
-      <c r="BN3" s="33" t="str">
+      <c r="BM3" s="31"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO3" s="31"/>
-      <c r="BP3" s="32"/>
-      <c r="BQ3" s="33" t="str">
+      <c r="BP3" s="31"/>
+      <c r="BQ3" s="32"/>
+      <c r="BR3" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR3" s="31"/>
-      <c r="BS3" s="32"/>
-      <c r="BT3" s="33" t="str">
+      <c r="BS3" s="31"/>
+      <c r="BT3" s="32"/>
+      <c r="BU3" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU3" s="31"/>
-      <c r="BV3" s="32"/>
-      <c r="BW3" s="33" t="str">
+      <c r="BV3" s="31"/>
+      <c r="BW3" s="32"/>
+      <c r="BX3" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX3" s="41"/>
-      <c r="BY3" s="57"/>
-      <c r="BZ3" s="33" t="str">
+      <c r="BY3" s="41"/>
+      <c r="BZ3" s="57"/>
+      <c r="CA3" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA3" s="31"/>
-      <c r="CB3" s="32"/>
-      <c r="CC3" s="33" t="str">
+      <c r="CB3" s="31"/>
+      <c r="CC3" s="32"/>
+      <c r="CD3" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD3" s="31"/>
-      <c r="CE3" s="32"/>
-      <c r="CF3" s="33" t="str">
+      <c r="CE3" s="31"/>
+      <c r="CF3" s="32"/>
+      <c r="CG3" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG3" s="31"/>
-      <c r="CH3" s="32"/>
-      <c r="CI3" s="33" t="str">
+      <c r="CH3" s="31"/>
+      <c r="CI3" s="32"/>
+      <c r="CJ3" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ3" s="31"/>
-      <c r="CK3" s="32"/>
-      <c r="CL3" s="33" t="str">
+      <c r="CK3" s="31"/>
+      <c r="CL3" s="32"/>
+      <c r="CM3" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM3" s="31"/>
-      <c r="CN3" s="32"/>
-      <c r="CO3" s="33" t="str">
+      <c r="CN3" s="31"/>
+      <c r="CO3" s="32"/>
+      <c r="CP3" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP3" s="31"/>
-      <c r="CQ3" s="32"/>
-      <c r="CR3" s="33" t="str">
+      <c r="CQ3" s="31"/>
+      <c r="CR3" s="32"/>
+      <c r="CS3" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS3" s="31"/>
-      <c r="CT3" s="32"/>
-      <c r="CU3" s="33" t="str">
+      <c r="CT3" s="31"/>
+      <c r="CU3" s="32"/>
+      <c r="CV3" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV3" s="35"/>
+      <c r="CW3" s="35"/>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="76" t="str">
+      <c r="E4" s="5"/>
+      <c r="F4" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="7" t="e">
-        <f>VLOOKUP(E4,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J4" s="6"/>
       <c r="K4" s="7" t="e">
-        <f>VLOOKUP(E4,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L4" s="5"/>
+        <f>VLOOKUP(F4,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L4" s="7" t="e">
+        <f>VLOOKUP(F4,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="6">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="5"/>
+      <c r="R4" s="6"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="19"/>
       <c r="X4" s="20"/>
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
-      <c r="AB4" s="20">
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="20"/>
       <c r="AD4" s="20"/>
-      <c r="AE4" s="20">
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="21"/>
       <c r="AG4" s="21"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="33" t="str">
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="33" t="str">
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="33" t="str">
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="33" t="str">
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW4" s="31"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="33" t="str">
+      <c r="AX4" s="31"/>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ4" s="31"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="33" t="str">
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="33" t="str">
+      <c r="BD4" s="31"/>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF4" s="31"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="33" t="str">
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="33" t="str">
+      <c r="BJ4" s="31"/>
+      <c r="BK4" s="34"/>
+      <c r="BL4" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL4" s="31"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="33" t="str">
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="32"/>
+      <c r="BO4" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="33" t="str">
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="32"/>
-      <c r="BT4" s="33" t="str">
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="32"/>
+      <c r="BU4" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="32"/>
-      <c r="BW4" s="33" t="str">
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="32"/>
+      <c r="BX4" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX4" s="41"/>
-      <c r="BY4" s="57"/>
-      <c r="BZ4" s="33" t="str">
+      <c r="BY4" s="41"/>
+      <c r="BZ4" s="57"/>
+      <c r="CA4" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="34"/>
-      <c r="CC4" s="33" t="str">
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="34"/>
+      <c r="CD4" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="34"/>
-      <c r="CF4" s="33" t="str">
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="34"/>
+      <c r="CG4" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="34"/>
-      <c r="CI4" s="33" t="str">
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="34"/>
+      <c r="CJ4" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ4" s="31"/>
-      <c r="CK4" s="34"/>
-      <c r="CL4" s="33" t="str">
+      <c r="CK4" s="31"/>
+      <c r="CL4" s="34"/>
+      <c r="CM4" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM4" s="31"/>
-      <c r="CN4" s="34"/>
-      <c r="CO4" s="33" t="str">
+      <c r="CN4" s="31"/>
+      <c r="CO4" s="34"/>
+      <c r="CP4" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP4" s="31"/>
-      <c r="CQ4" s="34"/>
-      <c r="CR4" s="33" t="str">
+      <c r="CQ4" s="31"/>
+      <c r="CR4" s="34"/>
+      <c r="CS4" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS4" s="31"/>
-      <c r="CT4" s="34"/>
-      <c r="CU4" s="33" t="str">
+      <c r="CT4" s="31"/>
+      <c r="CU4" s="34"/>
+      <c r="CV4" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV4" s="35"/>
+      <c r="CW4" s="35"/>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="76" t="str">
+      <c r="E5" s="5"/>
+      <c r="F5" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="7" t="e">
-        <f>VLOOKUP(E5,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J5" s="6"/>
       <c r="K5" s="7" t="e">
-        <f>VLOOKUP(E5,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L5" s="5"/>
+        <f>VLOOKUP(F5,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="7" t="e">
+        <f>VLOOKUP(F5,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="6">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="5"/>
+      <c r="R5" s="6"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="20"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="19"/>
       <c r="X5" s="20"/>
       <c r="Y5" s="20"/>
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
-      <c r="AB5" s="20">
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="20"/>
       <c r="AD5" s="20"/>
-      <c r="AE5" s="20">
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="21"/>
       <c r="AG5" s="21"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="33" t="str">
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="32"/>
-      <c r="AP5" s="33" t="str">
+      <c r="AO5" s="31"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="33" t="str">
+      <c r="AR5" s="31"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="33" t="str">
+      <c r="AU5" s="31"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="32"/>
-      <c r="AY5" s="33" t="str">
+      <c r="AX5" s="31"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="32"/>
-      <c r="BB5" s="33" t="str">
+      <c r="BA5" s="31"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC5" s="31"/>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="33" t="str">
+      <c r="BD5" s="31"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF5" s="31"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="33" t="str">
+      <c r="BG5" s="31"/>
+      <c r="BH5" s="32"/>
+      <c r="BI5" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI5" s="31"/>
-      <c r="BJ5" s="32"/>
-      <c r="BK5" s="33" t="str">
+      <c r="BJ5" s="31"/>
+      <c r="BK5" s="32"/>
+      <c r="BL5" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL5" s="31"/>
-      <c r="BM5" s="32"/>
-      <c r="BN5" s="33" t="str">
+      <c r="BM5" s="31"/>
+      <c r="BN5" s="32"/>
+      <c r="BO5" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO5" s="31"/>
-      <c r="BP5" s="32"/>
-      <c r="BQ5" s="33" t="str">
+      <c r="BP5" s="31"/>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR5" s="31"/>
-      <c r="BS5" s="32"/>
-      <c r="BT5" s="33" t="str">
+      <c r="BS5" s="31"/>
+      <c r="BT5" s="32"/>
+      <c r="BU5" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU5" s="31"/>
-      <c r="BV5" s="32"/>
-      <c r="BW5" s="33" t="str">
+      <c r="BV5" s="31"/>
+      <c r="BW5" s="32"/>
+      <c r="BX5" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX5" s="41"/>
-      <c r="BY5" s="57"/>
-      <c r="BZ5" s="33" t="str">
+      <c r="BY5" s="41"/>
+      <c r="BZ5" s="57"/>
+      <c r="CA5" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA5" s="31"/>
-      <c r="CB5" s="32"/>
-      <c r="CC5" s="33" t="str">
+      <c r="CB5" s="31"/>
+      <c r="CC5" s="32"/>
+      <c r="CD5" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD5" s="31"/>
-      <c r="CE5" s="32"/>
-      <c r="CF5" s="33" t="str">
+      <c r="CE5" s="31"/>
+      <c r="CF5" s="32"/>
+      <c r="CG5" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG5" s="31"/>
-      <c r="CH5" s="32"/>
-      <c r="CI5" s="33" t="str">
+      <c r="CH5" s="31"/>
+      <c r="CI5" s="32"/>
+      <c r="CJ5" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ5" s="31"/>
-      <c r="CK5" s="32"/>
-      <c r="CL5" s="33" t="str">
+      <c r="CK5" s="31"/>
+      <c r="CL5" s="32"/>
+      <c r="CM5" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM5" s="31"/>
-      <c r="CN5" s="32"/>
-      <c r="CO5" s="33" t="str">
+      <c r="CN5" s="31"/>
+      <c r="CO5" s="32"/>
+      <c r="CP5" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP5" s="31"/>
-      <c r="CQ5" s="32"/>
-      <c r="CR5" s="33" t="str">
+      <c r="CQ5" s="31"/>
+      <c r="CR5" s="32"/>
+      <c r="CS5" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS5" s="31"/>
-      <c r="CT5" s="32"/>
-      <c r="CU5" s="33" t="str">
+      <c r="CT5" s="31"/>
+      <c r="CU5" s="32"/>
+      <c r="CV5" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV5" s="35"/>
+      <c r="CW5" s="35"/>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="76" t="str">
+      <c r="E6" s="5"/>
+      <c r="F6" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="7" t="e">
-        <f>VLOOKUP(E6,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J6" s="6"/>
       <c r="K6" s="7" t="e">
-        <f>VLOOKUP(E6,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L6" s="5"/>
+        <f>VLOOKUP(F6,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L6" s="7" t="e">
+        <f>VLOOKUP(F6,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="6">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="5"/>
+      <c r="R6" s="6"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="20"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="19"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
-      <c r="AB6" s="20">
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="20"/>
       <c r="AD6" s="20"/>
-      <c r="AE6" s="20">
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="21"/>
       <c r="AG6" s="21"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="33" t="str">
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="32"/>
-      <c r="AP6" s="33" t="str">
+      <c r="AO6" s="31"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="32"/>
-      <c r="AS6" s="33" t="str">
+      <c r="AR6" s="31"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT6" s="31"/>
-      <c r="AU6" s="32"/>
-      <c r="AV6" s="33" t="str">
+      <c r="AU6" s="31"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW6" s="31"/>
-      <c r="AX6" s="32"/>
-      <c r="AY6" s="33" t="str">
+      <c r="AX6" s="31"/>
+      <c r="AY6" s="32"/>
+      <c r="AZ6" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ6" s="31"/>
-      <c r="BA6" s="32"/>
-      <c r="BB6" s="33" t="str">
+      <c r="BA6" s="31"/>
+      <c r="BB6" s="32"/>
+      <c r="BC6" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC6" s="31"/>
-      <c r="BD6" s="32"/>
-      <c r="BE6" s="33" t="str">
+      <c r="BD6" s="31"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF6" s="31"/>
-      <c r="BG6" s="32"/>
-      <c r="BH6" s="33" t="str">
+      <c r="BG6" s="31"/>
+      <c r="BH6" s="32"/>
+      <c r="BI6" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI6" s="31"/>
-      <c r="BJ6" s="32"/>
-      <c r="BK6" s="33" t="str">
+      <c r="BJ6" s="31"/>
+      <c r="BK6" s="32"/>
+      <c r="BL6" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL6" s="31"/>
-      <c r="BM6" s="32"/>
-      <c r="BN6" s="33" t="str">
+      <c r="BM6" s="31"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO6" s="31"/>
-      <c r="BP6" s="32"/>
-      <c r="BQ6" s="33" t="str">
+      <c r="BP6" s="31"/>
+      <c r="BQ6" s="32"/>
+      <c r="BR6" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR6" s="31"/>
-      <c r="BS6" s="32"/>
-      <c r="BT6" s="33" t="str">
+      <c r="BS6" s="31"/>
+      <c r="BT6" s="32"/>
+      <c r="BU6" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU6" s="31"/>
-      <c r="BV6" s="32"/>
-      <c r="BW6" s="33" t="str">
+      <c r="BV6" s="31"/>
+      <c r="BW6" s="32"/>
+      <c r="BX6" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX6" s="41"/>
-      <c r="BY6" s="57"/>
-      <c r="BZ6" s="33" t="str">
+      <c r="BY6" s="41"/>
+      <c r="BZ6" s="57"/>
+      <c r="CA6" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA6" s="31"/>
-      <c r="CB6" s="32"/>
-      <c r="CC6" s="33" t="str">
+      <c r="CB6" s="31"/>
+      <c r="CC6" s="32"/>
+      <c r="CD6" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD6" s="31"/>
-      <c r="CE6" s="32"/>
-      <c r="CF6" s="33" t="str">
+      <c r="CE6" s="31"/>
+      <c r="CF6" s="32"/>
+      <c r="CG6" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG6" s="31"/>
-      <c r="CH6" s="32"/>
-      <c r="CI6" s="33" t="str">
+      <c r="CH6" s="31"/>
+      <c r="CI6" s="32"/>
+      <c r="CJ6" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ6" s="31"/>
-      <c r="CK6" s="32"/>
-      <c r="CL6" s="33" t="str">
+      <c r="CK6" s="31"/>
+      <c r="CL6" s="32"/>
+      <c r="CM6" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM6" s="31"/>
-      <c r="CN6" s="32"/>
-      <c r="CO6" s="33" t="str">
+      <c r="CN6" s="31"/>
+      <c r="CO6" s="32"/>
+      <c r="CP6" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP6" s="31"/>
-      <c r="CQ6" s="32"/>
-      <c r="CR6" s="33" t="str">
+      <c r="CQ6" s="31"/>
+      <c r="CR6" s="32"/>
+      <c r="CS6" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS6" s="31"/>
-      <c r="CT6" s="32"/>
-      <c r="CU6" s="33" t="str">
+      <c r="CT6" s="31"/>
+      <c r="CU6" s="32"/>
+      <c r="CV6" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV6" s="35"/>
+      <c r="CW6" s="35"/>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="76" t="str">
+      <c r="E7" s="5"/>
+      <c r="F7" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="7" t="e">
-        <f>VLOOKUP(E7,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J7" s="6"/>
       <c r="K7" s="7" t="e">
-        <f>VLOOKUP(E7,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L7" s="5"/>
+        <f>VLOOKUP(F7,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="7" t="e">
+        <f>VLOOKUP(F7,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="6">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="5"/>
+      <c r="R7" s="6"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="20"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
-      <c r="AB7" s="20">
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="20"/>
       <c r="AD7" s="20"/>
-      <c r="AE7" s="20">
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="21"/>
       <c r="AG7" s="21"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="33" t="str">
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="33" t="str">
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="33" t="str">
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="32"/>
-      <c r="AV7" s="33" t="str">
+      <c r="AU7" s="31"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW7" s="31"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="33" t="str">
+      <c r="AX7" s="31"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ7" s="31"/>
-      <c r="BA7" s="32"/>
-      <c r="BB7" s="33" t="str">
+      <c r="BA7" s="31"/>
+      <c r="BB7" s="32"/>
+      <c r="BC7" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC7" s="31"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="33" t="str">
+      <c r="BD7" s="31"/>
+      <c r="BE7" s="32"/>
+      <c r="BF7" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF7" s="31"/>
-      <c r="BG7" s="32"/>
-      <c r="BH7" s="33" t="str">
+      <c r="BG7" s="31"/>
+      <c r="BH7" s="32"/>
+      <c r="BI7" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI7" s="31"/>
-      <c r="BJ7" s="32"/>
-      <c r="BK7" s="33" t="str">
+      <c r="BJ7" s="31"/>
+      <c r="BK7" s="32"/>
+      <c r="BL7" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL7" s="31"/>
-      <c r="BM7" s="32"/>
-      <c r="BN7" s="33" t="str">
+      <c r="BM7" s="31"/>
+      <c r="BN7" s="32"/>
+      <c r="BO7" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO7" s="31"/>
-      <c r="BP7" s="32"/>
-      <c r="BQ7" s="33" t="str">
+      <c r="BP7" s="31"/>
+      <c r="BQ7" s="32"/>
+      <c r="BR7" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR7" s="31"/>
-      <c r="BS7" s="32"/>
-      <c r="BT7" s="33" t="str">
+      <c r="BS7" s="31"/>
+      <c r="BT7" s="32"/>
+      <c r="BU7" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU7" s="31"/>
-      <c r="BV7" s="32"/>
-      <c r="BW7" s="33" t="str">
+      <c r="BV7" s="31"/>
+      <c r="BW7" s="32"/>
+      <c r="BX7" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX7" s="41"/>
-      <c r="BY7" s="57"/>
-      <c r="BZ7" s="33" t="str">
+      <c r="BY7" s="41"/>
+      <c r="BZ7" s="57"/>
+      <c r="CA7" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA7" s="31"/>
-      <c r="CB7" s="32"/>
-      <c r="CC7" s="33" t="str">
+      <c r="CB7" s="31"/>
+      <c r="CC7" s="32"/>
+      <c r="CD7" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD7" s="31"/>
-      <c r="CE7" s="32"/>
-      <c r="CF7" s="33" t="str">
+      <c r="CE7" s="31"/>
+      <c r="CF7" s="32"/>
+      <c r="CG7" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG7" s="31"/>
-      <c r="CH7" s="32"/>
-      <c r="CI7" s="33" t="str">
+      <c r="CH7" s="31"/>
+      <c r="CI7" s="32"/>
+      <c r="CJ7" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ7" s="31"/>
-      <c r="CK7" s="32"/>
-      <c r="CL7" s="33" t="str">
+      <c r="CK7" s="31"/>
+      <c r="CL7" s="32"/>
+      <c r="CM7" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM7" s="31"/>
-      <c r="CN7" s="32"/>
-      <c r="CO7" s="33" t="str">
+      <c r="CN7" s="31"/>
+      <c r="CO7" s="32"/>
+      <c r="CP7" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP7" s="31"/>
-      <c r="CQ7" s="32"/>
-      <c r="CR7" s="33" t="str">
+      <c r="CQ7" s="31"/>
+      <c r="CR7" s="32"/>
+      <c r="CS7" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS7" s="31"/>
-      <c r="CT7" s="32"/>
-      <c r="CU7" s="33" t="str">
+      <c r="CT7" s="31"/>
+      <c r="CU7" s="32"/>
+      <c r="CV7" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV7" s="35"/>
+      <c r="CW7" s="35"/>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="76" t="str">
+      <c r="E8" s="5"/>
+      <c r="F8" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="7" t="e">
-        <f>VLOOKUP(E8,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J8" s="6"/>
       <c r="K8" s="7" t="e">
-        <f>VLOOKUP(E8,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L8" s="5"/>
+        <f>VLOOKUP(F8,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L8" s="7" t="e">
+        <f>VLOOKUP(F8,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="6">
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="5"/>
+      <c r="R8" s="6"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
-      <c r="AB8" s="20">
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="20"/>
       <c r="AD8" s="20"/>
-      <c r="AE8" s="20">
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="21"/>
       <c r="AG8" s="21"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="33" t="str">
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="33" t="str">
+      <c r="AO8" s="31"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="32"/>
-      <c r="AS8" s="33" t="str">
+      <c r="AR8" s="31"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT8" s="31"/>
-      <c r="AU8" s="32"/>
-      <c r="AV8" s="33" t="str">
+      <c r="AU8" s="31"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW8" s="31"/>
-      <c r="AX8" s="32"/>
-      <c r="AY8" s="33" t="str">
+      <c r="AX8" s="31"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ8" s="31"/>
-      <c r="BA8" s="32"/>
-      <c r="BB8" s="33" t="str">
+      <c r="BA8" s="31"/>
+      <c r="BB8" s="32"/>
+      <c r="BC8" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC8" s="31"/>
-      <c r="BD8" s="32"/>
-      <c r="BE8" s="33" t="str">
+      <c r="BD8" s="31"/>
+      <c r="BE8" s="32"/>
+      <c r="BF8" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF8" s="31"/>
-      <c r="BG8" s="32"/>
-      <c r="BH8" s="33" t="str">
+      <c r="BG8" s="31"/>
+      <c r="BH8" s="32"/>
+      <c r="BI8" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI8" s="31"/>
-      <c r="BJ8" s="32"/>
-      <c r="BK8" s="33" t="str">
+      <c r="BJ8" s="31"/>
+      <c r="BK8" s="32"/>
+      <c r="BL8" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL8" s="31"/>
-      <c r="BM8" s="32"/>
-      <c r="BN8" s="33" t="str">
+      <c r="BM8" s="31"/>
+      <c r="BN8" s="32"/>
+      <c r="BO8" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO8" s="31"/>
-      <c r="BP8" s="32"/>
-      <c r="BQ8" s="33" t="str">
+      <c r="BP8" s="31"/>
+      <c r="BQ8" s="32"/>
+      <c r="BR8" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR8" s="31"/>
-      <c r="BS8" s="32"/>
-      <c r="BT8" s="33" t="str">
+      <c r="BS8" s="31"/>
+      <c r="BT8" s="32"/>
+      <c r="BU8" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU8" s="31"/>
-      <c r="BV8" s="32"/>
-      <c r="BW8" s="33" t="str">
+      <c r="BV8" s="31"/>
+      <c r="BW8" s="32"/>
+      <c r="BX8" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX8" s="41"/>
-      <c r="BY8" s="57"/>
-      <c r="BZ8" s="33" t="str">
+      <c r="BY8" s="41"/>
+      <c r="BZ8" s="57"/>
+      <c r="CA8" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA8" s="31"/>
-      <c r="CB8" s="32"/>
-      <c r="CC8" s="33" t="str">
+      <c r="CB8" s="31"/>
+      <c r="CC8" s="32"/>
+      <c r="CD8" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD8" s="31"/>
-      <c r="CE8" s="32"/>
-      <c r="CF8" s="33" t="str">
+      <c r="CE8" s="31"/>
+      <c r="CF8" s="32"/>
+      <c r="CG8" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG8" s="31"/>
-      <c r="CH8" s="32"/>
-      <c r="CI8" s="33" t="str">
+      <c r="CH8" s="31"/>
+      <c r="CI8" s="32"/>
+      <c r="CJ8" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ8" s="31"/>
-      <c r="CK8" s="32"/>
-      <c r="CL8" s="33" t="str">
+      <c r="CK8" s="31"/>
+      <c r="CL8" s="32"/>
+      <c r="CM8" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM8" s="31"/>
-      <c r="CN8" s="32"/>
-      <c r="CO8" s="33" t="str">
+      <c r="CN8" s="31"/>
+      <c r="CO8" s="32"/>
+      <c r="CP8" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP8" s="31"/>
-      <c r="CQ8" s="71"/>
-      <c r="CR8" s="33" t="str">
+      <c r="CQ8" s="31"/>
+      <c r="CR8" s="71"/>
+      <c r="CS8" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS8" s="31"/>
-      <c r="CT8" s="71"/>
-      <c r="CU8" s="33" t="str">
+      <c r="CT8" s="31"/>
+      <c r="CU8" s="71"/>
+      <c r="CV8" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV8" s="35"/>
+      <c r="CW8" s="35"/>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="76" t="str">
+      <c r="E9" s="5"/>
+      <c r="F9" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="7" t="e">
-        <f>VLOOKUP(E9,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J9" s="6"/>
       <c r="K9" s="7" t="e">
-        <f>VLOOKUP(E9,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L9" s="5"/>
+        <f>VLOOKUP(F9,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L9" s="7" t="e">
+        <f>VLOOKUP(F9,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="6">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="5"/>
+      <c r="R9" s="6"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="20"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="19"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
-      <c r="AB9" s="20">
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="20"/>
       <c r="AD9" s="20"/>
-      <c r="AE9" s="20">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="21"/>
       <c r="AG9" s="21"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="33" t="str">
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="33" t="str">
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="33" t="str">
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT9" s="31"/>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="33" t="str">
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="32"/>
-      <c r="AY9" s="33" t="str">
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="33" t="str">
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="32"/>
+      <c r="BC9" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="33" t="str">
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF9" s="31"/>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="33" t="str">
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="34"/>
-      <c r="BK9" s="33" t="str">
+      <c r="BJ9" s="31"/>
+      <c r="BK9" s="34"/>
+      <c r="BL9" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL9" s="31"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="33" t="str">
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="32"/>
+      <c r="BO9" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO9" s="31"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="33" t="str">
+      <c r="BP9" s="31"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR9" s="31"/>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="33" t="str">
+      <c r="BS9" s="31"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU9" s="31"/>
-      <c r="BV9" s="32"/>
-      <c r="BW9" s="33" t="str">
+      <c r="BV9" s="31"/>
+      <c r="BW9" s="32"/>
+      <c r="BX9" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX9" s="41"/>
-      <c r="BY9" s="57"/>
-      <c r="BZ9" s="33" t="str">
+      <c r="BY9" s="41"/>
+      <c r="BZ9" s="57"/>
+      <c r="CA9" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="33" t="str">
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD9" s="31"/>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="33" t="str">
+      <c r="CE9" s="31"/>
+      <c r="CF9" s="32"/>
+      <c r="CG9" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG9" s="31"/>
-      <c r="CH9" s="32"/>
-      <c r="CI9" s="33" t="str">
+      <c r="CH9" s="31"/>
+      <c r="CI9" s="32"/>
+      <c r="CJ9" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ9" s="31"/>
-      <c r="CK9" s="32"/>
-      <c r="CL9" s="33" t="str">
+      <c r="CK9" s="31"/>
+      <c r="CL9" s="32"/>
+      <c r="CM9" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM9" s="31"/>
-      <c r="CN9" s="32"/>
-      <c r="CO9" s="33" t="str">
+      <c r="CN9" s="31"/>
+      <c r="CO9" s="32"/>
+      <c r="CP9" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP9" s="31"/>
-      <c r="CQ9" s="57"/>
-      <c r="CR9" s="33" t="str">
+      <c r="CQ9" s="31"/>
+      <c r="CR9" s="57"/>
+      <c r="CS9" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS9" s="31"/>
-      <c r="CT9" s="57"/>
-      <c r="CU9" s="33" t="str">
+      <c r="CT9" s="31"/>
+      <c r="CU9" s="57"/>
+      <c r="CV9" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV9" s="35"/>
+      <c r="CW9" s="35"/>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="76" t="str">
+      <c r="E10" s="5"/>
+      <c r="F10" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="7" t="e">
-        <f>VLOOKUP(E10,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J10" s="6"/>
       <c r="K10" s="7" t="e">
-        <f>VLOOKUP(E10,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" s="5"/>
+        <f>VLOOKUP(F10,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="7" t="e">
+        <f>VLOOKUP(F10,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="6">
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="5"/>
+      <c r="R10" s="6"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="20"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
-      <c r="AB10" s="20">
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="20"/>
       <c r="AD10" s="20"/>
-      <c r="AE10" s="20">
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="21"/>
       <c r="AG10" s="21"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="33" t="str">
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="34"/>
-      <c r="AP10" s="33" t="str">
+      <c r="AO10" s="31"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="32"/>
-      <c r="AS10" s="33" t="str">
+      <c r="AR10" s="31"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT10" s="31"/>
-      <c r="AU10" s="32"/>
-      <c r="AV10" s="33" t="str">
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW10" s="31"/>
-      <c r="AX10" s="32"/>
-      <c r="AY10" s="33" t="str">
+      <c r="AX10" s="31"/>
+      <c r="AY10" s="32"/>
+      <c r="AZ10" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ10" s="31"/>
-      <c r="BA10" s="32"/>
-      <c r="BB10" s="33" t="str">
+      <c r="BA10" s="31"/>
+      <c r="BB10" s="32"/>
+      <c r="BC10" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC10" s="31"/>
-      <c r="BD10" s="32"/>
-      <c r="BE10" s="33" t="str">
+      <c r="BD10" s="31"/>
+      <c r="BE10" s="32"/>
+      <c r="BF10" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF10" s="31"/>
-      <c r="BG10" s="32"/>
-      <c r="BH10" s="33" t="str">
+      <c r="BG10" s="31"/>
+      <c r="BH10" s="32"/>
+      <c r="BI10" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI10" s="31"/>
-      <c r="BJ10" s="32"/>
-      <c r="BK10" s="33" t="str">
+      <c r="BJ10" s="31"/>
+      <c r="BK10" s="32"/>
+      <c r="BL10" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL10" s="31"/>
-      <c r="BM10" s="32"/>
-      <c r="BN10" s="33" t="str">
+      <c r="BM10" s="31"/>
+      <c r="BN10" s="32"/>
+      <c r="BO10" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO10" s="31"/>
-      <c r="BP10" s="32"/>
-      <c r="BQ10" s="33" t="str">
+      <c r="BP10" s="31"/>
+      <c r="BQ10" s="32"/>
+      <c r="BR10" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR10" s="31"/>
-      <c r="BS10" s="32"/>
-      <c r="BT10" s="33" t="str">
+      <c r="BS10" s="31"/>
+      <c r="BT10" s="32"/>
+      <c r="BU10" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU10" s="31"/>
-      <c r="BV10" s="32"/>
-      <c r="BW10" s="33" t="str">
+      <c r="BV10" s="31"/>
+      <c r="BW10" s="32"/>
+      <c r="BX10" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX10" s="41"/>
-      <c r="BY10" s="57"/>
-      <c r="BZ10" s="33" t="str">
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="57"/>
+      <c r="CA10" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA10" s="31"/>
-      <c r="CB10" s="34"/>
-      <c r="CC10" s="33" t="str">
+      <c r="CB10" s="31"/>
+      <c r="CC10" s="34"/>
+      <c r="CD10" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD10" s="31"/>
-      <c r="CE10" s="34"/>
-      <c r="CF10" s="33" t="str">
+      <c r="CE10" s="31"/>
+      <c r="CF10" s="34"/>
+      <c r="CG10" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG10" s="31"/>
-      <c r="CH10" s="34"/>
-      <c r="CI10" s="33" t="str">
+      <c r="CH10" s="31"/>
+      <c r="CI10" s="34"/>
+      <c r="CJ10" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ10" s="31"/>
-      <c r="CK10" s="34"/>
-      <c r="CL10" s="33" t="str">
+      <c r="CK10" s="31"/>
+      <c r="CL10" s="34"/>
+      <c r="CM10" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM10" s="31"/>
-      <c r="CN10" s="34"/>
-      <c r="CO10" s="33" t="str">
+      <c r="CN10" s="31"/>
+      <c r="CO10" s="34"/>
+      <c r="CP10" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP10" s="31"/>
-      <c r="CQ10" s="34"/>
-      <c r="CR10" s="33" t="str">
+      <c r="CQ10" s="31"/>
+      <c r="CR10" s="34"/>
+      <c r="CS10" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS10" s="31"/>
-      <c r="CT10" s="34"/>
-      <c r="CU10" s="33" t="str">
+      <c r="CT10" s="31"/>
+      <c r="CU10" s="34"/>
+      <c r="CV10" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV10" s="35"/>
+      <c r="CW10" s="35"/>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="76" t="str">
+      <c r="E11" s="5"/>
+      <c r="F11" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="7" t="e">
-        <f>VLOOKUP(E11,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J11" s="6"/>
       <c r="K11" s="7" t="e">
-        <f>VLOOKUP(E11,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" s="5"/>
+        <f>VLOOKUP(F11,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="7" t="e">
+        <f>VLOOKUP(F11,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="6">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="5"/>
+      <c r="R11" s="6"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="20"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
-      <c r="AB11" s="20">
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="20"/>
       <c r="AD11" s="20"/>
-      <c r="AE11" s="20">
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="21"/>
       <c r="AG11" s="21"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="33" t="str">
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="34"/>
-      <c r="AP11" s="33" t="str">
+      <c r="AO11" s="31"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="32"/>
-      <c r="AS11" s="33" t="str">
+      <c r="AR11" s="31"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT11" s="31"/>
-      <c r="AU11" s="32"/>
-      <c r="AV11" s="33" t="str">
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW11" s="31"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="33" t="str">
+      <c r="AX11" s="31"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ11" s="31"/>
-      <c r="BA11" s="34"/>
-      <c r="BB11" s="33" t="str">
+      <c r="BA11" s="31"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC11" s="31"/>
-      <c r="BD11" s="32"/>
-      <c r="BE11" s="33" t="str">
+      <c r="BD11" s="31"/>
+      <c r="BE11" s="32"/>
+      <c r="BF11" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF11" s="31"/>
-      <c r="BG11" s="34"/>
-      <c r="BH11" s="33" t="str">
+      <c r="BG11" s="31"/>
+      <c r="BH11" s="34"/>
+      <c r="BI11" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI11" s="31"/>
-      <c r="BJ11" s="32"/>
-      <c r="BK11" s="33" t="str">
+      <c r="BJ11" s="31"/>
+      <c r="BK11" s="32"/>
+      <c r="BL11" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL11" s="31"/>
-      <c r="BM11" s="34"/>
-      <c r="BN11" s="33" t="str">
+      <c r="BM11" s="31"/>
+      <c r="BN11" s="34"/>
+      <c r="BO11" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO11" s="31"/>
-      <c r="BP11" s="32"/>
-      <c r="BQ11" s="33" t="str">
+      <c r="BP11" s="31"/>
+      <c r="BQ11" s="32"/>
+      <c r="BR11" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR11" s="31"/>
-      <c r="BS11" s="32"/>
-      <c r="BT11" s="33" t="str">
+      <c r="BS11" s="31"/>
+      <c r="BT11" s="32"/>
+      <c r="BU11" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU11" s="31"/>
-      <c r="BV11" s="32"/>
-      <c r="BW11" s="33" t="str">
+      <c r="BV11" s="31"/>
+      <c r="BW11" s="32"/>
+      <c r="BX11" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX11" s="41"/>
-      <c r="BY11" s="57"/>
-      <c r="BZ11" s="33" t="str">
+      <c r="BY11" s="41"/>
+      <c r="BZ11" s="57"/>
+      <c r="CA11" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA11" s="31"/>
-      <c r="CB11" s="34"/>
-      <c r="CC11" s="33" t="str">
+      <c r="CB11" s="31"/>
+      <c r="CC11" s="34"/>
+      <c r="CD11" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD11" s="31"/>
-      <c r="CE11" s="34"/>
-      <c r="CF11" s="33" t="str">
+      <c r="CE11" s="31"/>
+      <c r="CF11" s="34"/>
+      <c r="CG11" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG11" s="31"/>
-      <c r="CH11" s="34"/>
-      <c r="CI11" s="33" t="str">
+      <c r="CH11" s="31"/>
+      <c r="CI11" s="34"/>
+      <c r="CJ11" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ11" s="31"/>
-      <c r="CK11" s="34"/>
-      <c r="CL11" s="33" t="str">
+      <c r="CK11" s="31"/>
+      <c r="CL11" s="34"/>
+      <c r="CM11" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM11" s="31"/>
-      <c r="CN11" s="34"/>
-      <c r="CO11" s="33" t="str">
+      <c r="CN11" s="31"/>
+      <c r="CO11" s="34"/>
+      <c r="CP11" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP11" s="31"/>
-      <c r="CQ11" s="34"/>
-      <c r="CR11" s="33" t="str">
+      <c r="CQ11" s="31"/>
+      <c r="CR11" s="34"/>
+      <c r="CS11" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS11" s="31"/>
-      <c r="CT11" s="34"/>
-      <c r="CU11" s="33" t="str">
+      <c r="CT11" s="31"/>
+      <c r="CU11" s="34"/>
+      <c r="CV11" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV11" s="35"/>
+      <c r="CW11" s="35"/>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="76" t="str">
+      <c r="E12" s="5"/>
+      <c r="F12" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="7" t="e">
-        <f>VLOOKUP(E12,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J12" s="6"/>
       <c r="K12" s="7" t="e">
-        <f>VLOOKUP(E12,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="5"/>
+        <f>VLOOKUP(F12,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L12" s="7" t="e">
+        <f>VLOOKUP(F12,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="6">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="5"/>
+      <c r="R12" s="6"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="20"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
-      <c r="AB12" s="20">
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="20"/>
       <c r="AD12" s="20"/>
-      <c r="AE12" s="20">
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="21"/>
       <c r="AG12" s="21"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="33" t="str">
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="33" t="str">
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="32"/>
-      <c r="AS12" s="33" t="str">
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="32"/>
-      <c r="AV12" s="33" t="str">
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW12" s="31"/>
-      <c r="AX12" s="32"/>
-      <c r="AY12" s="33" t="str">
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="32"/>
-      <c r="BB12" s="33" t="str">
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="32"/>
+      <c r="BC12" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC12" s="31"/>
-      <c r="BD12" s="32"/>
-      <c r="BE12" s="33" t="str">
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="32"/>
+      <c r="BF12" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF12" s="31"/>
-      <c r="BG12" s="32"/>
-      <c r="BH12" s="33" t="str">
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="32"/>
+      <c r="BI12" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI12" s="31"/>
-      <c r="BJ12" s="32"/>
-      <c r="BK12" s="33" t="str">
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="32"/>
+      <c r="BL12" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL12" s="31"/>
-      <c r="BM12" s="32"/>
-      <c r="BN12" s="33" t="str">
+      <c r="BM12" s="31"/>
+      <c r="BN12" s="32"/>
+      <c r="BO12" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO12" s="31"/>
-      <c r="BP12" s="32"/>
-      <c r="BQ12" s="33" t="str">
+      <c r="BP12" s="31"/>
+      <c r="BQ12" s="32"/>
+      <c r="BR12" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR12" s="31"/>
-      <c r="BS12" s="32"/>
-      <c r="BT12" s="33" t="str">
+      <c r="BS12" s="31"/>
+      <c r="BT12" s="32"/>
+      <c r="BU12" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU12" s="31"/>
-      <c r="BV12" s="32"/>
-      <c r="BW12" s="33" t="str">
+      <c r="BV12" s="31"/>
+      <c r="BW12" s="32"/>
+      <c r="BX12" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX12" s="41"/>
-      <c r="BY12" s="57"/>
-      <c r="BZ12" s="33" t="str">
+      <c r="BY12" s="41"/>
+      <c r="BZ12" s="57"/>
+      <c r="CA12" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA12" s="31"/>
-      <c r="CB12" s="71"/>
-      <c r="CC12" s="33" t="str">
+      <c r="CB12" s="31"/>
+      <c r="CC12" s="71"/>
+      <c r="CD12" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD12" s="31"/>
-      <c r="CE12" s="71"/>
-      <c r="CF12" s="33" t="str">
+      <c r="CE12" s="31"/>
+      <c r="CF12" s="71"/>
+      <c r="CG12" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG12" s="31"/>
-      <c r="CH12" s="71"/>
-      <c r="CI12" s="33" t="str">
+      <c r="CH12" s="31"/>
+      <c r="CI12" s="71"/>
+      <c r="CJ12" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ12" s="31"/>
-      <c r="CK12" s="71"/>
-      <c r="CL12" s="33" t="str">
+      <c r="CK12" s="31"/>
+      <c r="CL12" s="71"/>
+      <c r="CM12" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM12" s="31"/>
-      <c r="CN12" s="71"/>
-      <c r="CO12" s="33" t="str">
+      <c r="CN12" s="31"/>
+      <c r="CO12" s="71"/>
+      <c r="CP12" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP12" s="31"/>
-      <c r="CQ12" s="71"/>
-      <c r="CR12" s="33" t="str">
+      <c r="CQ12" s="31"/>
+      <c r="CR12" s="71"/>
+      <c r="CS12" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS12" s="31"/>
-      <c r="CT12" s="71"/>
-      <c r="CU12" s="33" t="str">
+      <c r="CT12" s="31"/>
+      <c r="CU12" s="71"/>
+      <c r="CV12" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV12" s="35"/>
+      <c r="CW12" s="35"/>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="76" t="str">
+      <c r="E13" s="5"/>
+      <c r="F13" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="7" t="e">
-        <f>VLOOKUP(E13,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J13" s="6"/>
       <c r="K13" s="7" t="e">
-        <f>VLOOKUP(E13,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" s="5"/>
+        <f>VLOOKUP(F13,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L13" s="7" t="e">
+        <f>VLOOKUP(F13,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="6">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="5"/>
+      <c r="R13" s="6"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="20"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
-      <c r="AB13" s="20">
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="20"/>
       <c r="AD13" s="20"/>
-      <c r="AE13" s="20">
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="21"/>
       <c r="AG13" s="21"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="33" t="str">
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="33" t="str">
         <f t="shared" si="1"/>
         <v>NA</v>
       </c>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="33" t="str">
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="33" t="str">
         <f t="shared" si="2"/>
         <v>NA</v>
       </c>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="32"/>
-      <c r="AS13" s="33" t="str">
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="33" t="str">
         <f t="shared" si="3"/>
         <v>NA</v>
       </c>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="32"/>
-      <c r="AV13" s="33" t="str">
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="33" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="32"/>
-      <c r="AY13" s="33" t="str">
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="32"/>
-      <c r="BB13" s="33" t="str">
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="32"/>
+      <c r="BC13" s="33" t="str">
         <f t="shared" si="6"/>
         <v>NA</v>
       </c>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="32"/>
-      <c r="BE13" s="33" t="str">
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="32"/>
+      <c r="BF13" s="33" t="str">
         <f t="shared" si="7"/>
         <v>NA</v>
       </c>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="34"/>
-      <c r="BH13" s="33" t="str">
+      <c r="BG13" s="31"/>
+      <c r="BH13" s="34"/>
+      <c r="BI13" s="33" t="str">
         <f t="shared" si="8"/>
         <v>NA</v>
       </c>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="32"/>
-      <c r="BK13" s="33" t="str">
+      <c r="BJ13" s="31"/>
+      <c r="BK13" s="32"/>
+      <c r="BL13" s="33" t="str">
         <f t="shared" si="9"/>
         <v>NA</v>
       </c>
-      <c r="BL13" s="31"/>
-      <c r="BM13" s="32"/>
-      <c r="BN13" s="33" t="str">
+      <c r="BM13" s="31"/>
+      <c r="BN13" s="32"/>
+      <c r="BO13" s="33" t="str">
         <f t="shared" si="10"/>
         <v>NA</v>
       </c>
-      <c r="BO13" s="31"/>
-      <c r="BP13" s="32"/>
-      <c r="BQ13" s="33" t="str">
+      <c r="BP13" s="31"/>
+      <c r="BQ13" s="32"/>
+      <c r="BR13" s="33" t="str">
         <f t="shared" si="11"/>
         <v>NA</v>
       </c>
-      <c r="BR13" s="31"/>
-      <c r="BS13" s="34"/>
-      <c r="BT13" s="33" t="str">
+      <c r="BS13" s="31"/>
+      <c r="BT13" s="34"/>
+      <c r="BU13" s="33" t="str">
         <f t="shared" si="12"/>
         <v>NA</v>
       </c>
-      <c r="BU13" s="31"/>
-      <c r="BV13" s="32"/>
-      <c r="BW13" s="33" t="str">
+      <c r="BV13" s="31"/>
+      <c r="BW13" s="32"/>
+      <c r="BX13" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX13" s="41"/>
-      <c r="BY13" s="57"/>
-      <c r="BZ13" s="33" t="str">
+      <c r="BY13" s="41"/>
+      <c r="BZ13" s="57"/>
+      <c r="CA13" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA13" s="31"/>
-      <c r="CB13" s="32"/>
-      <c r="CC13" s="33" t="str">
+      <c r="CB13" s="31"/>
+      <c r="CC13" s="32"/>
+      <c r="CD13" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD13" s="31"/>
-      <c r="CE13" s="32"/>
-      <c r="CF13" s="33" t="str">
+      <c r="CE13" s="31"/>
+      <c r="CF13" s="32"/>
+      <c r="CG13" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG13" s="31"/>
-      <c r="CH13" s="32"/>
-      <c r="CI13" s="33" t="str">
+      <c r="CH13" s="31"/>
+      <c r="CI13" s="32"/>
+      <c r="CJ13" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ13" s="31"/>
-      <c r="CK13" s="34"/>
-      <c r="CL13" s="33" t="str">
+      <c r="CK13" s="31"/>
+      <c r="CL13" s="34"/>
+      <c r="CM13" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM13" s="31"/>
-      <c r="CN13" s="34"/>
-      <c r="CO13" s="33" t="str">
+      <c r="CN13" s="31"/>
+      <c r="CO13" s="34"/>
+      <c r="CP13" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP13" s="31"/>
-      <c r="CQ13" s="32"/>
-      <c r="CR13" s="33" t="str">
+      <c r="CQ13" s="31"/>
+      <c r="CR13" s="32"/>
+      <c r="CS13" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS13" s="31"/>
-      <c r="CT13" s="32"/>
-      <c r="CU13" s="33" t="str">
+      <c r="CT13" s="31"/>
+      <c r="CU13" s="32"/>
+      <c r="CV13" s="33" t="str">
         <f t="shared" si="21"/>
         <v>NA</v>
       </c>
-      <c r="CV13" s="35"/>
+      <c r="CW13" s="35"/>
     </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="76" t="str">
+      <c r="E14" s="5"/>
+      <c r="F14" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="7" t="e">
-        <f>VLOOKUP(E14,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J14" s="6"/>
       <c r="K14" s="7" t="e">
-        <f>VLOOKUP(E14,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" s="5"/>
+        <f>VLOOKUP(F14,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L14" s="7" t="e">
+        <f>VLOOKUP(F14,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="6">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="5"/>
+      <c r="R14" s="6"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="20"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="19"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
-      <c r="AB14" s="20">
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="20"/>
       <c r="AD14" s="20"/>
-      <c r="AE14" s="20">
-        <f t="shared" ref="AE14:AE22" si="25">AB14-AC14-AD14</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="21"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20">
+        <f t="shared" ref="AF14:AF22" si="25">AC14-AD14-AE14</f>
+        <v>0</v>
+      </c>
       <c r="AG14" s="21"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="33" t="str">
-        <f t="shared" ref="AM14:AM22" si="26">IF(AK14=0,"NA",AL14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="33" t="str">
-        <f t="shared" ref="AP14:AP22" si="27">IF(AN14=0,"NA",AO14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="32"/>
-      <c r="AS14" s="33" t="str">
-        <f t="shared" ref="AS14:AS22" si="28">IF(AQ14=0,"NA",AR14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="32"/>
-      <c r="AV14" s="33" t="str">
-        <f t="shared" ref="AV14:AV22" si="29">IF(AT14=0,"NA",AU14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="AW14" s="31"/>
-      <c r="AX14" s="34"/>
-      <c r="AY14" s="33" t="str">
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="33" t="str">
+        <f t="shared" ref="AN14:AN22" si="26">IF(AL14=0,"NA",AM14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AO14" s="31"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="33" t="str">
+        <f t="shared" ref="AQ14:AQ22" si="27">IF(AO14=0,"NA",AP14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AR14" s="31"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="33" t="str">
+        <f t="shared" ref="AT14:AT22" si="28">IF(AR14=0,"NA",AS14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AU14" s="31"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="33" t="str">
+        <f t="shared" ref="AW14:AW22" si="29">IF(AU14=0,"NA",AV14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="AX14" s="31"/>
+      <c r="AY14" s="34"/>
+      <c r="AZ14" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ14" s="31"/>
-      <c r="BA14" s="34"/>
-      <c r="BB14" s="33" t="str">
-        <f t="shared" ref="BB14:BB22" si="30">IF(AZ14=0,"NA",BA14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BC14" s="31"/>
-      <c r="BD14" s="32"/>
-      <c r="BE14" s="33" t="str">
-        <f t="shared" ref="BE14:BE22" si="31">IF(BC14=0,"NA",BD14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="34"/>
-      <c r="BH14" s="33" t="str">
-        <f t="shared" ref="BH14:BH22" si="32">IF(BF14=0,"NA",BG14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BI14" s="31"/>
-      <c r="BJ14" s="34"/>
-      <c r="BK14" s="33" t="str">
-        <f t="shared" ref="BK14:BK22" si="33">IF(BI14=0,"NA",BJ14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BL14" s="31"/>
-      <c r="BM14" s="32"/>
-      <c r="BN14" s="33" t="str">
-        <f t="shared" ref="BN14:BN22" si="34">IF(BL14=0,"NA",BM14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BO14" s="31"/>
-      <c r="BP14" s="32"/>
-      <c r="BQ14" s="33" t="str">
-        <f t="shared" ref="BQ14:BQ22" si="35">IF(BO14=0,"NA",BP14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BR14" s="31"/>
-      <c r="BS14" s="34"/>
-      <c r="BT14" s="33" t="str">
-        <f t="shared" ref="BT14:BT22" si="36">IF(BR14=0,"NA",BS14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="BU14" s="31"/>
-      <c r="BV14" s="34"/>
-      <c r="BW14" s="33" t="str">
+      <c r="BA14" s="31"/>
+      <c r="BB14" s="34"/>
+      <c r="BC14" s="33" t="str">
+        <f t="shared" ref="BC14:BC22" si="30">IF(BA14=0,"NA",BB14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BD14" s="31"/>
+      <c r="BE14" s="32"/>
+      <c r="BF14" s="33" t="str">
+        <f t="shared" ref="BF14:BF22" si="31">IF(BD14=0,"NA",BE14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BG14" s="31"/>
+      <c r="BH14" s="34"/>
+      <c r="BI14" s="33" t="str">
+        <f t="shared" ref="BI14:BI22" si="32">IF(BG14=0,"NA",BH14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BJ14" s="31"/>
+      <c r="BK14" s="34"/>
+      <c r="BL14" s="33" t="str">
+        <f t="shared" ref="BL14:BL22" si="33">IF(BJ14=0,"NA",BK14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BM14" s="31"/>
+      <c r="BN14" s="32"/>
+      <c r="BO14" s="33" t="str">
+        <f t="shared" ref="BO14:BO22" si="34">IF(BM14=0,"NA",BN14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BP14" s="31"/>
+      <c r="BQ14" s="32"/>
+      <c r="BR14" s="33" t="str">
+        <f t="shared" ref="BR14:BR22" si="35">IF(BP14=0,"NA",BQ14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BS14" s="31"/>
+      <c r="BT14" s="34"/>
+      <c r="BU14" s="33" t="str">
+        <f t="shared" ref="BU14:BU22" si="36">IF(BS14=0,"NA",BT14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="BV14" s="31"/>
+      <c r="BW14" s="34"/>
+      <c r="BX14" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX14" s="41"/>
-      <c r="BY14" s="57"/>
-      <c r="BZ14" s="33" t="str">
+      <c r="BY14" s="41"/>
+      <c r="BZ14" s="57"/>
+      <c r="CA14" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA14" s="31"/>
-      <c r="CB14" s="32"/>
-      <c r="CC14" s="33" t="str">
+      <c r="CB14" s="31"/>
+      <c r="CC14" s="32"/>
+      <c r="CD14" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD14" s="31"/>
-      <c r="CE14" s="32"/>
-      <c r="CF14" s="33" t="str">
+      <c r="CE14" s="31"/>
+      <c r="CF14" s="32"/>
+      <c r="CG14" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG14" s="31"/>
-      <c r="CH14" s="32"/>
-      <c r="CI14" s="33" t="str">
+      <c r="CH14" s="31"/>
+      <c r="CI14" s="32"/>
+      <c r="CJ14" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ14" s="31"/>
-      <c r="CK14" s="32"/>
-      <c r="CL14" s="33" t="str">
+      <c r="CK14" s="31"/>
+      <c r="CL14" s="32"/>
+      <c r="CM14" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM14" s="31"/>
-      <c r="CN14" s="32"/>
-      <c r="CO14" s="33" t="str">
+      <c r="CN14" s="31"/>
+      <c r="CO14" s="32"/>
+      <c r="CP14" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP14" s="31"/>
-      <c r="CQ14" s="32"/>
-      <c r="CR14" s="33" t="str">
+      <c r="CQ14" s="31"/>
+      <c r="CR14" s="32"/>
+      <c r="CS14" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS14" s="31"/>
-      <c r="CT14" s="32"/>
-      <c r="CU14" s="33" t="str">
-        <f t="shared" ref="CU14:CU22" si="37">IF(CS14=0,"NA",CT14-$AC14)</f>
-        <v>NA</v>
-      </c>
-      <c r="CV14" s="35"/>
+      <c r="CT14" s="31"/>
+      <c r="CU14" s="32"/>
+      <c r="CV14" s="33" t="str">
+        <f t="shared" ref="CV14:CV22" si="37">IF(CT14=0,"NA",CU14-$AD14)</f>
+        <v>NA</v>
+      </c>
+      <c r="CW14" s="35"/>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="76" t="str">
+      <c r="E15" s="5"/>
+      <c r="F15" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="7" t="e">
-        <f>VLOOKUP(E15,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J15" s="6"/>
       <c r="K15" s="7" t="e">
-        <f>VLOOKUP(E15,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" s="5"/>
+        <f>VLOOKUP(F15,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L15" s="7" t="e">
+        <f>VLOOKUP(F15,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="6">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="5"/>
+      <c r="R15" s="6"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="20"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="19"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
-      <c r="AB15" s="20">
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="20"/>
       <c r="AD15" s="20"/>
-      <c r="AE15" s="20">
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="21"/>
       <c r="AG15" s="21"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="33" t="str">
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="33" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="33" t="str">
+      <c r="AO15" s="31"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="33" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="32"/>
-      <c r="AS15" s="33" t="str">
+      <c r="AR15" s="31"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT15" s="31"/>
-      <c r="AU15" s="32"/>
-      <c r="AV15" s="33" t="str">
+      <c r="AU15" s="31"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW15" s="31"/>
-      <c r="AX15" s="32"/>
-      <c r="AY15" s="33" t="str">
+      <c r="AX15" s="31"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ15" s="31"/>
-      <c r="BA15" s="32"/>
-      <c r="BB15" s="33" t="str">
+      <c r="BA15" s="31"/>
+      <c r="BB15" s="32"/>
+      <c r="BC15" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC15" s="31"/>
-      <c r="BD15" s="32"/>
-      <c r="BE15" s="33" t="str">
+      <c r="BD15" s="31"/>
+      <c r="BE15" s="32"/>
+      <c r="BF15" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF15" s="31"/>
-      <c r="BG15" s="34"/>
-      <c r="BH15" s="33" t="str">
+      <c r="BG15" s="31"/>
+      <c r="BH15" s="34"/>
+      <c r="BI15" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI15" s="31"/>
-      <c r="BJ15" s="32"/>
-      <c r="BK15" s="33" t="str">
+      <c r="BJ15" s="31"/>
+      <c r="BK15" s="32"/>
+      <c r="BL15" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL15" s="31"/>
-      <c r="BM15" s="32"/>
-      <c r="BN15" s="33" t="str">
+      <c r="BM15" s="31"/>
+      <c r="BN15" s="32"/>
+      <c r="BO15" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO15" s="31"/>
-      <c r="BP15" s="32"/>
-      <c r="BQ15" s="33" t="str">
+      <c r="BP15" s="31"/>
+      <c r="BQ15" s="32"/>
+      <c r="BR15" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR15" s="31"/>
-      <c r="BS15" s="34"/>
-      <c r="BT15" s="33" t="str">
+      <c r="BS15" s="31"/>
+      <c r="BT15" s="34"/>
+      <c r="BU15" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU15" s="31"/>
-      <c r="BV15" s="71"/>
-      <c r="BW15" s="33" t="str">
+      <c r="BV15" s="31"/>
+      <c r="BW15" s="71"/>
+      <c r="BX15" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX15" s="41"/>
-      <c r="BY15" s="57"/>
-      <c r="BZ15" s="33" t="str">
+      <c r="BY15" s="41"/>
+      <c r="BZ15" s="57"/>
+      <c r="CA15" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA15" s="31"/>
-      <c r="CB15" s="71"/>
-      <c r="CC15" s="33" t="str">
+      <c r="CB15" s="31"/>
+      <c r="CC15" s="71"/>
+      <c r="CD15" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD15" s="31"/>
-      <c r="CE15" s="71"/>
-      <c r="CF15" s="33" t="str">
+      <c r="CE15" s="31"/>
+      <c r="CF15" s="71"/>
+      <c r="CG15" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG15" s="31"/>
-      <c r="CH15" s="32"/>
-      <c r="CI15" s="33" t="str">
+      <c r="CH15" s="31"/>
+      <c r="CI15" s="32"/>
+      <c r="CJ15" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ15" s="31"/>
-      <c r="CK15" s="32"/>
-      <c r="CL15" s="33" t="str">
+      <c r="CK15" s="31"/>
+      <c r="CL15" s="32"/>
+      <c r="CM15" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM15" s="31"/>
-      <c r="CN15" s="32"/>
-      <c r="CO15" s="33" t="str">
+      <c r="CN15" s="31"/>
+      <c r="CO15" s="32"/>
+      <c r="CP15" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP15" s="31"/>
-      <c r="CQ15" s="32"/>
-      <c r="CR15" s="33" t="str">
+      <c r="CQ15" s="31"/>
+      <c r="CR15" s="32"/>
+      <c r="CS15" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS15" s="31"/>
-      <c r="CT15" s="32"/>
-      <c r="CU15" s="33" t="str">
+      <c r="CT15" s="31"/>
+      <c r="CU15" s="32"/>
+      <c r="CV15" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV15" s="35"/>
+      <c r="CW15" s="35"/>
     </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="76" t="str">
+      <c r="E16" s="5"/>
+      <c r="F16" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="7" t="e">
-        <f>VLOOKUP(E16,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J16" s="6"/>
       <c r="K16" s="7" t="e">
-        <f>VLOOKUP(E16,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L16" s="5"/>
+        <f>VLOOKUP(F16,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L16" s="7" t="e">
+        <f>VLOOKUP(F16,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="6">
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="5"/>
+      <c r="R16" s="6"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="20"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
-      <c r="AB16" s="20">
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="20"/>
       <c r="AD16" s="20"/>
-      <c r="AE16" s="20">
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="21"/>
       <c r="AG16" s="21"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="33" t="str">
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="33" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="33" t="str">
+      <c r="AO16" s="31"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="33" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="33" t="str">
+      <c r="AR16" s="31"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT16" s="31"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="33" t="str">
+      <c r="AU16" s="31"/>
+      <c r="AV16" s="34"/>
+      <c r="AW16" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW16" s="31"/>
-      <c r="AX16" s="34"/>
-      <c r="AY16" s="33" t="str">
+      <c r="AX16" s="31"/>
+      <c r="AY16" s="34"/>
+      <c r="AZ16" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ16" s="31"/>
-      <c r="BA16" s="34"/>
-      <c r="BB16" s="33" t="str">
+      <c r="BA16" s="31"/>
+      <c r="BB16" s="34"/>
+      <c r="BC16" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC16" s="31"/>
-      <c r="BD16" s="34"/>
-      <c r="BE16" s="33" t="str">
+      <c r="BD16" s="31"/>
+      <c r="BE16" s="34"/>
+      <c r="BF16" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF16" s="31"/>
-      <c r="BG16" s="34"/>
-      <c r="BH16" s="57" t="str">
+      <c r="BG16" s="31"/>
+      <c r="BH16" s="34"/>
+      <c r="BI16" s="57" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI16" s="41"/>
-      <c r="BJ16" s="34"/>
-      <c r="BK16" s="33" t="str">
+      <c r="BJ16" s="41"/>
+      <c r="BK16" s="34"/>
+      <c r="BL16" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL16" s="31"/>
-      <c r="BM16" s="32"/>
-      <c r="BN16" s="33" t="str">
+      <c r="BM16" s="31"/>
+      <c r="BN16" s="32"/>
+      <c r="BO16" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO16" s="31"/>
-      <c r="BP16" s="32"/>
-      <c r="BQ16" s="33" t="str">
+      <c r="BP16" s="31"/>
+      <c r="BQ16" s="32"/>
+      <c r="BR16" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR16" s="31"/>
-      <c r="BS16" s="57"/>
-      <c r="BT16" s="33" t="str">
+      <c r="BS16" s="31"/>
+      <c r="BT16" s="57"/>
+      <c r="BU16" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU16" s="31"/>
-      <c r="BV16" s="32"/>
-      <c r="BW16" s="33" t="str">
+      <c r="BV16" s="31"/>
+      <c r="BW16" s="32"/>
+      <c r="BX16" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX16" s="41"/>
-      <c r="BY16" s="57"/>
-      <c r="BZ16" s="33" t="str">
+      <c r="BY16" s="41"/>
+      <c r="BZ16" s="57"/>
+      <c r="CA16" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA16" s="31"/>
-      <c r="CB16" s="34"/>
-      <c r="CC16" s="33" t="str">
+      <c r="CB16" s="31"/>
+      <c r="CC16" s="34"/>
+      <c r="CD16" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD16" s="31"/>
-      <c r="CE16" s="34"/>
-      <c r="CF16" s="33" t="str">
+      <c r="CE16" s="31"/>
+      <c r="CF16" s="34"/>
+      <c r="CG16" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG16" s="31"/>
-      <c r="CH16" s="34"/>
-      <c r="CI16" s="33" t="str">
+      <c r="CH16" s="31"/>
+      <c r="CI16" s="34"/>
+      <c r="CJ16" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ16" s="31"/>
-      <c r="CK16" s="34"/>
-      <c r="CL16" s="33" t="str">
+      <c r="CK16" s="31"/>
+      <c r="CL16" s="34"/>
+      <c r="CM16" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM16" s="31"/>
-      <c r="CN16" s="34"/>
-      <c r="CO16" s="33" t="str">
+      <c r="CN16" s="31"/>
+      <c r="CO16" s="34"/>
+      <c r="CP16" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP16" s="31"/>
-      <c r="CQ16" s="34"/>
-      <c r="CR16" s="33" t="str">
+      <c r="CQ16" s="31"/>
+      <c r="CR16" s="34"/>
+      <c r="CS16" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS16" s="31"/>
-      <c r="CT16" s="34"/>
-      <c r="CU16" s="33" t="str">
+      <c r="CT16" s="31"/>
+      <c r="CU16" s="34"/>
+      <c r="CV16" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV16" s="35"/>
+      <c r="CW16" s="35"/>
     </row>
-    <row r="17" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="76" t="str">
+      <c r="E17" s="5"/>
+      <c r="F17" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="7" t="e">
-        <f>VLOOKUP(E17,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J17" s="6"/>
       <c r="K17" s="7" t="e">
-        <f>VLOOKUP(E17,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" s="5"/>
+        <f>VLOOKUP(F17,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L17" s="7" t="e">
+        <f>VLOOKUP(F17,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="6">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="5"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="20"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
-      <c r="AB17" s="20">
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="20"/>
       <c r="AD17" s="20"/>
-      <c r="AE17" s="20">
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="21"/>
       <c r="AG17" s="21"/>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="33" t="str">
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="33" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="34"/>
-      <c r="AP17" s="33" t="str">
+      <c r="AO17" s="31"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="33" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="34"/>
-      <c r="AS17" s="33" t="str">
+      <c r="AR17" s="31"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="34"/>
-      <c r="AV17" s="33" t="str">
+      <c r="AU17" s="31"/>
+      <c r="AV17" s="34"/>
+      <c r="AW17" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW17" s="31"/>
-      <c r="AX17" s="34"/>
-      <c r="AY17" s="33" t="str">
+      <c r="AX17" s="31"/>
+      <c r="AY17" s="34"/>
+      <c r="AZ17" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ17" s="31"/>
-      <c r="BA17" s="34"/>
-      <c r="BB17" s="33" t="str">
+      <c r="BA17" s="31"/>
+      <c r="BB17" s="34"/>
+      <c r="BC17" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC17" s="31"/>
-      <c r="BD17" s="34"/>
-      <c r="BE17" s="33" t="str">
+      <c r="BD17" s="31"/>
+      <c r="BE17" s="34"/>
+      <c r="BF17" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF17" s="31"/>
-      <c r="BG17" s="34"/>
-      <c r="BH17" s="33" t="str">
+      <c r="BG17" s="31"/>
+      <c r="BH17" s="34"/>
+      <c r="BI17" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI17" s="41"/>
-      <c r="BJ17" s="34"/>
-      <c r="BK17" s="33" t="str">
+      <c r="BJ17" s="41"/>
+      <c r="BK17" s="34"/>
+      <c r="BL17" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL17" s="41"/>
-      <c r="BM17" s="34"/>
-      <c r="BN17" s="33" t="str">
+      <c r="BM17" s="41"/>
+      <c r="BN17" s="34"/>
+      <c r="BO17" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO17" s="41"/>
-      <c r="BP17" s="34"/>
-      <c r="BQ17" s="33" t="str">
+      <c r="BP17" s="41"/>
+      <c r="BQ17" s="34"/>
+      <c r="BR17" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR17" s="31"/>
-      <c r="BS17" s="32"/>
-      <c r="BT17" s="33" t="str">
+      <c r="BS17" s="31"/>
+      <c r="BT17" s="32"/>
+      <c r="BU17" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU17" s="31"/>
-      <c r="BV17" s="32"/>
-      <c r="BW17" s="33" t="str">
+      <c r="BV17" s="31"/>
+      <c r="BW17" s="32"/>
+      <c r="BX17" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX17" s="41"/>
-      <c r="BY17" s="57"/>
-      <c r="BZ17" s="33" t="str">
+      <c r="BY17" s="41"/>
+      <c r="BZ17" s="57"/>
+      <c r="CA17" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA17" s="31"/>
-      <c r="CB17" s="34"/>
-      <c r="CC17" s="33" t="str">
+      <c r="CB17" s="31"/>
+      <c r="CC17" s="34"/>
+      <c r="CD17" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD17" s="31"/>
-      <c r="CE17" s="34"/>
-      <c r="CF17" s="33" t="str">
+      <c r="CE17" s="31"/>
+      <c r="CF17" s="34"/>
+      <c r="CG17" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG17" s="31"/>
-      <c r="CH17" s="34"/>
-      <c r="CI17" s="33" t="str">
+      <c r="CH17" s="31"/>
+      <c r="CI17" s="34"/>
+      <c r="CJ17" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ17" s="31"/>
-      <c r="CK17" s="34"/>
-      <c r="CL17" s="33" t="str">
+      <c r="CK17" s="31"/>
+      <c r="CL17" s="34"/>
+      <c r="CM17" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM17" s="31"/>
-      <c r="CN17" s="34"/>
-      <c r="CO17" s="33" t="str">
+      <c r="CN17" s="31"/>
+      <c r="CO17" s="34"/>
+      <c r="CP17" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP17" s="31"/>
-      <c r="CQ17" s="34"/>
-      <c r="CR17" s="33" t="str">
+      <c r="CQ17" s="31"/>
+      <c r="CR17" s="34"/>
+      <c r="CS17" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS17" s="31"/>
-      <c r="CT17" s="34"/>
-      <c r="CU17" s="33" t="str">
+      <c r="CT17" s="31"/>
+      <c r="CU17" s="34"/>
+      <c r="CV17" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV17" s="35"/>
+      <c r="CW17" s="35"/>
     </row>
-    <row r="18" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="76" t="str">
+      <c r="E18" s="5"/>
+      <c r="F18" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="7" t="e">
-        <f>VLOOKUP(E18,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J18" s="6"/>
       <c r="K18" s="7" t="e">
-        <f>VLOOKUP(E18,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" s="5"/>
+        <f>VLOOKUP(F18,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L18" s="7" t="e">
+        <f>VLOOKUP(F18,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="6">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="5"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="20"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="19"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
-      <c r="AB18" s="20">
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="20"/>
       <c r="AD18" s="20"/>
-      <c r="AE18" s="20">
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="21"/>
       <c r="AG18" s="21"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="33" t="str">
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="33" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="34"/>
-      <c r="AP18" s="33" t="str">
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="33" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="34"/>
-      <c r="AS18" s="33" t="str">
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="33" t="str">
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="34"/>
+      <c r="AW18" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="34"/>
-      <c r="AY18" s="33" t="str">
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="34"/>
+      <c r="AZ18" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="34"/>
-      <c r="BB18" s="33" t="str">
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="34"/>
+      <c r="BC18" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC18" s="31"/>
-      <c r="BD18" s="34"/>
-      <c r="BE18" s="33" t="str">
+      <c r="BD18" s="31"/>
+      <c r="BE18" s="34"/>
+      <c r="BF18" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF18" s="31"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="33" t="str">
+      <c r="BG18" s="31"/>
+      <c r="BH18" s="34"/>
+      <c r="BI18" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="34"/>
-      <c r="BK18" s="33" t="str">
+      <c r="BJ18" s="31"/>
+      <c r="BK18" s="34"/>
+      <c r="BL18" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL18" s="31"/>
-      <c r="BM18" s="34"/>
-      <c r="BN18" s="33" t="str">
+      <c r="BM18" s="31"/>
+      <c r="BN18" s="34"/>
+      <c r="BO18" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO18" s="31"/>
-      <c r="BP18" s="34"/>
-      <c r="BQ18" s="33" t="str">
+      <c r="BP18" s="31"/>
+      <c r="BQ18" s="34"/>
+      <c r="BR18" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR18" s="31"/>
-      <c r="BS18" s="32"/>
-      <c r="BT18" s="33" t="str">
+      <c r="BS18" s="31"/>
+      <c r="BT18" s="32"/>
+      <c r="BU18" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU18" s="31"/>
-      <c r="BV18" s="32"/>
-      <c r="BW18" s="33" t="str">
+      <c r="BV18" s="31"/>
+      <c r="BW18" s="32"/>
+      <c r="BX18" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX18" s="41"/>
-      <c r="BY18" s="57"/>
-      <c r="BZ18" s="33" t="str">
+      <c r="BY18" s="41"/>
+      <c r="BZ18" s="57"/>
+      <c r="CA18" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA18" s="31"/>
-      <c r="CB18" s="34"/>
-      <c r="CC18" s="33" t="str">
+      <c r="CB18" s="31"/>
+      <c r="CC18" s="34"/>
+      <c r="CD18" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD18" s="31"/>
-      <c r="CE18" s="34"/>
-      <c r="CF18" s="33" t="str">
+      <c r="CE18" s="31"/>
+      <c r="CF18" s="34"/>
+      <c r="CG18" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG18" s="31"/>
-      <c r="CH18" s="34"/>
-      <c r="CI18" s="33" t="str">
+      <c r="CH18" s="31"/>
+      <c r="CI18" s="34"/>
+      <c r="CJ18" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ18" s="31"/>
-      <c r="CK18" s="34"/>
-      <c r="CL18" s="33" t="str">
+      <c r="CK18" s="31"/>
+      <c r="CL18" s="34"/>
+      <c r="CM18" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM18" s="31"/>
-      <c r="CN18" s="34"/>
-      <c r="CO18" s="33" t="str">
+      <c r="CN18" s="31"/>
+      <c r="CO18" s="34"/>
+      <c r="CP18" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP18" s="31"/>
-      <c r="CQ18" s="34"/>
-      <c r="CR18" s="33" t="str">
+      <c r="CQ18" s="31"/>
+      <c r="CR18" s="34"/>
+      <c r="CS18" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS18" s="31"/>
-      <c r="CT18" s="34"/>
-      <c r="CU18" s="33" t="str">
+      <c r="CT18" s="31"/>
+      <c r="CU18" s="34"/>
+      <c r="CV18" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV18" s="35"/>
+      <c r="CW18" s="35"/>
     </row>
-    <row r="19" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="76" t="str">
+      <c r="E19" s="5"/>
+      <c r="F19" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="7" t="e">
-        <f>VLOOKUP(E19,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J19" s="6"/>
       <c r="K19" s="7" t="e">
-        <f>VLOOKUP(E19,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" s="5"/>
+        <f>VLOOKUP(F19,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L19" s="7" t="e">
+        <f>VLOOKUP(F19,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="6">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="5"/>
+      <c r="R19" s="6"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="20"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="19"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
-      <c r="AB19" s="20">
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="20"/>
       <c r="AD19" s="20"/>
-      <c r="AE19" s="20">
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="21"/>
       <c r="AG19" s="21"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="33" t="str">
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="33" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="33" t="str">
+      <c r="AO19" s="31"/>
+      <c r="AP19" s="34"/>
+      <c r="AQ19" s="33" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="33" t="str">
+      <c r="AR19" s="31"/>
+      <c r="AS19" s="34"/>
+      <c r="AT19" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT19" s="31"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="33" t="str">
+      <c r="AU19" s="31"/>
+      <c r="AV19" s="34"/>
+      <c r="AW19" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW19" s="31"/>
-      <c r="AX19" s="34"/>
-      <c r="AY19" s="33" t="str">
+      <c r="AX19" s="31"/>
+      <c r="AY19" s="34"/>
+      <c r="AZ19" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ19" s="31"/>
-      <c r="BA19" s="34"/>
-      <c r="BB19" s="33" t="str">
+      <c r="BA19" s="31"/>
+      <c r="BB19" s="34"/>
+      <c r="BC19" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC19" s="31"/>
-      <c r="BD19" s="34"/>
-      <c r="BE19" s="33" t="str">
+      <c r="BD19" s="31"/>
+      <c r="BE19" s="34"/>
+      <c r="BF19" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF19" s="31"/>
-      <c r="BG19" s="34"/>
-      <c r="BH19" s="33" t="str">
+      <c r="BG19" s="31"/>
+      <c r="BH19" s="34"/>
+      <c r="BI19" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI19" s="31"/>
-      <c r="BJ19" s="34"/>
-      <c r="BK19" s="33" t="str">
+      <c r="BJ19" s="31"/>
+      <c r="BK19" s="34"/>
+      <c r="BL19" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL19" s="31"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="33" t="str">
+      <c r="BM19" s="31"/>
+      <c r="BN19" s="34"/>
+      <c r="BO19" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO19" s="31"/>
-      <c r="BP19" s="34"/>
-      <c r="BQ19" s="33" t="str">
+      <c r="BP19" s="31"/>
+      <c r="BQ19" s="34"/>
+      <c r="BR19" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR19" s="31"/>
-      <c r="BS19" s="32"/>
-      <c r="BT19" s="33" t="str">
+      <c r="BS19" s="31"/>
+      <c r="BT19" s="32"/>
+      <c r="BU19" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU19" s="31"/>
-      <c r="BV19" s="32"/>
-      <c r="BW19" s="33" t="str">
+      <c r="BV19" s="31"/>
+      <c r="BW19" s="32"/>
+      <c r="BX19" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX19" s="41"/>
-      <c r="BY19" s="57"/>
-      <c r="BZ19" s="33" t="str">
+      <c r="BY19" s="41"/>
+      <c r="BZ19" s="57"/>
+      <c r="CA19" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA19" s="31"/>
-      <c r="CB19" s="34"/>
-      <c r="CC19" s="33" t="str">
+      <c r="CB19" s="31"/>
+      <c r="CC19" s="34"/>
+      <c r="CD19" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD19" s="31"/>
-      <c r="CE19" s="34"/>
-      <c r="CF19" s="33" t="str">
+      <c r="CE19" s="31"/>
+      <c r="CF19" s="34"/>
+      <c r="CG19" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG19" s="31"/>
-      <c r="CH19" s="34"/>
-      <c r="CI19" s="33" t="str">
+      <c r="CH19" s="31"/>
+      <c r="CI19" s="34"/>
+      <c r="CJ19" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ19" s="31"/>
-      <c r="CK19" s="34"/>
-      <c r="CL19" s="33" t="str">
+      <c r="CK19" s="31"/>
+      <c r="CL19" s="34"/>
+      <c r="CM19" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM19" s="31"/>
-      <c r="CN19" s="34"/>
-      <c r="CO19" s="33" t="str">
+      <c r="CN19" s="31"/>
+      <c r="CO19" s="34"/>
+      <c r="CP19" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP19" s="31"/>
-      <c r="CQ19" s="34"/>
-      <c r="CR19" s="33" t="str">
+      <c r="CQ19" s="31"/>
+      <c r="CR19" s="34"/>
+      <c r="CS19" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS19" s="31"/>
-      <c r="CT19" s="34"/>
-      <c r="CU19" s="33" t="str">
+      <c r="CT19" s="31"/>
+      <c r="CU19" s="34"/>
+      <c r="CV19" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV19" s="35"/>
+      <c r="CW19" s="35"/>
     </row>
-    <row r="20" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="76" t="str">
+      <c r="E20" s="5"/>
+      <c r="F20" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="7" t="e">
-        <f>VLOOKUP(E20,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J20" s="6"/>
       <c r="K20" s="7" t="e">
-        <f>VLOOKUP(E20,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" s="5"/>
+        <f>VLOOKUP(F20,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L20" s="7" t="e">
+        <f>VLOOKUP(F20,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="6">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="5"/>
+      <c r="R20" s="6"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="20"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="19"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
-      <c r="AB20" s="20">
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="20"/>
       <c r="AD20" s="20"/>
-      <c r="AE20" s="20">
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="21"/>
       <c r="AG20" s="21"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="33" t="str">
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="33" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="34"/>
-      <c r="AP20" s="33" t="str">
+      <c r="AO20" s="31"/>
+      <c r="AP20" s="34"/>
+      <c r="AQ20" s="33" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="34"/>
-      <c r="AS20" s="33" t="str">
+      <c r="AR20" s="31"/>
+      <c r="AS20" s="34"/>
+      <c r="AT20" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="33" t="str">
+      <c r="AU20" s="31"/>
+      <c r="AV20" s="34"/>
+      <c r="AW20" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="34"/>
-      <c r="AY20" s="33" t="str">
+      <c r="AX20" s="31"/>
+      <c r="AY20" s="34"/>
+      <c r="AZ20" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ20" s="31"/>
-      <c r="BA20" s="34"/>
-      <c r="BB20" s="33" t="str">
+      <c r="BA20" s="31"/>
+      <c r="BB20" s="34"/>
+      <c r="BC20" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC20" s="31"/>
-      <c r="BD20" s="34"/>
-      <c r="BE20" s="33" t="str">
+      <c r="BD20" s="31"/>
+      <c r="BE20" s="34"/>
+      <c r="BF20" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF20" s="31"/>
-      <c r="BG20" s="34"/>
-      <c r="BH20" s="33" t="str">
+      <c r="BG20" s="31"/>
+      <c r="BH20" s="34"/>
+      <c r="BI20" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI20" s="31"/>
-      <c r="BJ20" s="34"/>
-      <c r="BK20" s="33" t="str">
+      <c r="BJ20" s="31"/>
+      <c r="BK20" s="34"/>
+      <c r="BL20" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL20" s="31"/>
-      <c r="BM20" s="34"/>
-      <c r="BN20" s="33" t="str">
+      <c r="BM20" s="31"/>
+      <c r="BN20" s="34"/>
+      <c r="BO20" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO20" s="31"/>
-      <c r="BP20" s="34"/>
-      <c r="BQ20" s="33" t="str">
+      <c r="BP20" s="31"/>
+      <c r="BQ20" s="34"/>
+      <c r="BR20" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR20" s="31"/>
-      <c r="BS20" s="34"/>
-      <c r="BT20" s="33" t="str">
+      <c r="BS20" s="31"/>
+      <c r="BT20" s="34"/>
+      <c r="BU20" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU20" s="31"/>
-      <c r="BV20" s="34"/>
-      <c r="BW20" s="33" t="str">
+      <c r="BV20" s="31"/>
+      <c r="BW20" s="34"/>
+      <c r="BX20" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX20" s="41"/>
-      <c r="BY20" s="57"/>
-      <c r="BZ20" s="33" t="str">
+      <c r="BY20" s="41"/>
+      <c r="BZ20" s="57"/>
+      <c r="CA20" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA20" s="31"/>
-      <c r="CB20" s="34"/>
-      <c r="CC20" s="33" t="str">
+      <c r="CB20" s="31"/>
+      <c r="CC20" s="34"/>
+      <c r="CD20" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD20" s="31"/>
-      <c r="CE20" s="34"/>
-      <c r="CF20" s="33" t="str">
+      <c r="CE20" s="31"/>
+      <c r="CF20" s="34"/>
+      <c r="CG20" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG20" s="31"/>
-      <c r="CH20" s="34"/>
-      <c r="CI20" s="33" t="str">
+      <c r="CH20" s="31"/>
+      <c r="CI20" s="34"/>
+      <c r="CJ20" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ20" s="31"/>
-      <c r="CK20" s="34"/>
-      <c r="CL20" s="33" t="str">
+      <c r="CK20" s="31"/>
+      <c r="CL20" s="34"/>
+      <c r="CM20" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM20" s="31"/>
-      <c r="CN20" s="34"/>
-      <c r="CO20" s="33" t="str">
+      <c r="CN20" s="31"/>
+      <c r="CO20" s="34"/>
+      <c r="CP20" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP20" s="31"/>
-      <c r="CQ20" s="34"/>
-      <c r="CR20" s="33" t="str">
+      <c r="CQ20" s="31"/>
+      <c r="CR20" s="34"/>
+      <c r="CS20" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS20" s="31"/>
-      <c r="CT20" s="34"/>
-      <c r="CU20" s="33" t="str">
+      <c r="CT20" s="31"/>
+      <c r="CU20" s="34"/>
+      <c r="CV20" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV20" s="35"/>
+      <c r="CW20" s="35"/>
     </row>
-    <row r="21" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="76" t="str">
+      <c r="E21" s="5"/>
+      <c r="F21" s="76" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="7" t="e">
-        <f>VLOOKUP(E21,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J21" s="6"/>
       <c r="K21" s="7" t="e">
-        <f>VLOOKUP(E21,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L21" s="5"/>
+        <f>VLOOKUP(F21,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L21" s="7" t="e">
+        <f>VLOOKUP(F21,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="6">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="79"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="78"/>
       <c r="X21" s="79"/>
       <c r="Y21" s="79"/>
       <c r="Z21" s="79"/>
       <c r="AA21" s="79"/>
-      <c r="AB21" s="20">
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="20">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="80"/>
       <c r="AD21" s="80"/>
-      <c r="AE21" s="20">
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="20">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="21"/>
       <c r="AG21" s="21"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="33" t="str">
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="33" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="33" t="str">
+      <c r="AO21" s="31"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="33" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="32"/>
-      <c r="AS21" s="33" t="str">
+      <c r="AR21" s="31"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="33" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT21" s="31"/>
-      <c r="AU21" s="32"/>
-      <c r="AV21" s="33" t="str">
+      <c r="AU21" s="31"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="33" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW21" s="31"/>
-      <c r="AX21" s="32"/>
-      <c r="AY21" s="33" t="str">
+      <c r="AX21" s="31"/>
+      <c r="AY21" s="32"/>
+      <c r="AZ21" s="33" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ21" s="31"/>
-      <c r="BA21" s="34"/>
-      <c r="BB21" s="33" t="str">
+      <c r="BA21" s="31"/>
+      <c r="BB21" s="34"/>
+      <c r="BC21" s="33" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC21" s="31"/>
-      <c r="BD21" s="32"/>
-      <c r="BE21" s="33" t="str">
+      <c r="BD21" s="31"/>
+      <c r="BE21" s="32"/>
+      <c r="BF21" s="33" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF21" s="31"/>
-      <c r="BG21" s="32"/>
-      <c r="BH21" s="33" t="str">
+      <c r="BG21" s="31"/>
+      <c r="BH21" s="32"/>
+      <c r="BI21" s="33" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI21" s="31"/>
-      <c r="BJ21" s="57"/>
-      <c r="BK21" s="33" t="str">
+      <c r="BJ21" s="31"/>
+      <c r="BK21" s="57"/>
+      <c r="BL21" s="33" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL21" s="31"/>
-      <c r="BM21" s="32"/>
-      <c r="BN21" s="33" t="str">
+      <c r="BM21" s="31"/>
+      <c r="BN21" s="32"/>
+      <c r="BO21" s="33" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO21" s="31"/>
-      <c r="BP21" s="32"/>
-      <c r="BQ21" s="33" t="str">
+      <c r="BP21" s="31"/>
+      <c r="BQ21" s="32"/>
+      <c r="BR21" s="33" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR21" s="31"/>
-      <c r="BS21" s="32"/>
-      <c r="BT21" s="33" t="str">
+      <c r="BS21" s="31"/>
+      <c r="BT21" s="32"/>
+      <c r="BU21" s="33" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU21" s="31"/>
-      <c r="BV21" s="32"/>
-      <c r="BW21" s="33" t="str">
+      <c r="BV21" s="31"/>
+      <c r="BW21" s="32"/>
+      <c r="BX21" s="33" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX21" s="41"/>
-      <c r="BY21" s="34"/>
-      <c r="BZ21" s="33" t="str">
+      <c r="BY21" s="41"/>
+      <c r="BZ21" s="34"/>
+      <c r="CA21" s="33" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA21" s="31"/>
-      <c r="CB21" s="32"/>
-      <c r="CC21" s="33" t="str">
+      <c r="CB21" s="31"/>
+      <c r="CC21" s="32"/>
+      <c r="CD21" s="33" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD21" s="31"/>
-      <c r="CE21" s="32"/>
-      <c r="CF21" s="33" t="str">
+      <c r="CE21" s="31"/>
+      <c r="CF21" s="32"/>
+      <c r="CG21" s="33" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG21" s="31"/>
-      <c r="CH21" s="32"/>
-      <c r="CI21" s="33" t="str">
+      <c r="CH21" s="31"/>
+      <c r="CI21" s="32"/>
+      <c r="CJ21" s="33" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ21" s="31"/>
-      <c r="CK21" s="32"/>
-      <c r="CL21" s="33" t="str">
+      <c r="CK21" s="31"/>
+      <c r="CL21" s="32"/>
+      <c r="CM21" s="33" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM21" s="31"/>
-      <c r="CN21" s="32"/>
-      <c r="CO21" s="33" t="str">
+      <c r="CN21" s="31"/>
+      <c r="CO21" s="32"/>
+      <c r="CP21" s="33" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP21" s="31"/>
-      <c r="CQ21" s="32"/>
-      <c r="CR21" s="33" t="str">
+      <c r="CQ21" s="31"/>
+      <c r="CR21" s="32"/>
+      <c r="CS21" s="33" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS21" s="31"/>
-      <c r="CT21" s="57"/>
-      <c r="CU21" s="33" t="str">
+      <c r="CT21" s="31"/>
+      <c r="CU21" s="57"/>
+      <c r="CV21" s="33" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV21" s="35"/>
+      <c r="CW21" s="35"/>
     </row>
-    <row r="22" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:101" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="77" t="str">
+      <c r="E22" s="11"/>
+      <c r="F22" s="77" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="13" t="e">
-        <f>VLOOKUP(E22,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J22" s="12"/>
       <c r="K22" s="13" t="e">
-        <f>VLOOKUP(E22,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L22" s="11"/>
+        <f>VLOOKUP(F22,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L22" s="13" t="e">
+        <f>VLOOKUP(F22,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="12">
+      <c r="P22" s="11"/>
+      <c r="Q22" s="12">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="70"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="81"/>
       <c r="X22" s="70"/>
       <c r="Y22" s="70"/>
       <c r="Z22" s="70"/>
       <c r="AA22" s="70"/>
-      <c r="AB22" s="23">
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="23">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="82"/>
       <c r="AD22" s="82"/>
-      <c r="AE22" s="23">
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="23">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="24"/>
       <c r="AG22" s="24"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="42" t="str">
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="42" t="str">
         <f t="shared" si="26"/>
         <v>NA</v>
       </c>
-      <c r="AN22" s="38"/>
-      <c r="AO22" s="40"/>
-      <c r="AP22" s="42" t="str">
+      <c r="AO22" s="38"/>
+      <c r="AP22" s="40"/>
+      <c r="AQ22" s="42" t="str">
         <f t="shared" si="27"/>
         <v>NA</v>
       </c>
-      <c r="AQ22" s="38"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="42" t="str">
+      <c r="AR22" s="38"/>
+      <c r="AS22" s="85"/>
+      <c r="AT22" s="42" t="str">
         <f t="shared" si="28"/>
         <v>NA</v>
       </c>
-      <c r="AT22" s="38"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="42" t="str">
+      <c r="AU22" s="38"/>
+      <c r="AV22" s="85"/>
+      <c r="AW22" s="42" t="str">
         <f t="shared" si="29"/>
         <v>NA</v>
       </c>
-      <c r="AW22" s="38"/>
-      <c r="AX22" s="85"/>
-      <c r="AY22" s="42" t="str">
+      <c r="AX22" s="38"/>
+      <c r="AY22" s="85"/>
+      <c r="AZ22" s="42" t="str">
         <f t="shared" si="5"/>
         <v>NA</v>
       </c>
-      <c r="AZ22" s="38"/>
-      <c r="BA22" s="40"/>
-      <c r="BB22" s="42" t="str">
+      <c r="BA22" s="38"/>
+      <c r="BB22" s="40"/>
+      <c r="BC22" s="42" t="str">
         <f t="shared" si="30"/>
         <v>NA</v>
       </c>
-      <c r="BC22" s="38"/>
-      <c r="BD22" s="85"/>
-      <c r="BE22" s="42" t="str">
+      <c r="BD22" s="38"/>
+      <c r="BE22" s="85"/>
+      <c r="BF22" s="42" t="str">
         <f t="shared" si="31"/>
         <v>NA</v>
       </c>
-      <c r="BF22" s="38"/>
-      <c r="BG22" s="85"/>
-      <c r="BH22" s="42" t="str">
+      <c r="BG22" s="38"/>
+      <c r="BH22" s="85"/>
+      <c r="BI22" s="42" t="str">
         <f t="shared" si="32"/>
         <v>NA</v>
       </c>
-      <c r="BI22" s="38"/>
-      <c r="BJ22" s="40"/>
-      <c r="BK22" s="42" t="str">
+      <c r="BJ22" s="38"/>
+      <c r="BK22" s="40"/>
+      <c r="BL22" s="42" t="str">
         <f t="shared" si="33"/>
         <v>NA</v>
       </c>
-      <c r="BL22" s="38"/>
-      <c r="BM22" s="85"/>
-      <c r="BN22" s="42" t="str">
+      <c r="BM22" s="38"/>
+      <c r="BN22" s="85"/>
+      <c r="BO22" s="42" t="str">
         <f t="shared" si="34"/>
         <v>NA</v>
       </c>
-      <c r="BO22" s="38"/>
-      <c r="BP22" s="85"/>
-      <c r="BQ22" s="42" t="str">
+      <c r="BP22" s="38"/>
+      <c r="BQ22" s="85"/>
+      <c r="BR22" s="42" t="str">
         <f t="shared" si="35"/>
         <v>NA</v>
       </c>
-      <c r="BR22" s="38"/>
-      <c r="BS22" s="85"/>
-      <c r="BT22" s="42" t="str">
+      <c r="BS22" s="38"/>
+      <c r="BT22" s="85"/>
+      <c r="BU22" s="42" t="str">
         <f t="shared" si="36"/>
         <v>NA</v>
       </c>
-      <c r="BU22" s="38"/>
-      <c r="BV22" s="85"/>
-      <c r="BW22" s="42" t="str">
+      <c r="BV22" s="38"/>
+      <c r="BW22" s="85"/>
+      <c r="BX22" s="42" t="str">
         <f t="shared" si="13"/>
         <v>NA</v>
       </c>
-      <c r="BX22" s="86"/>
-      <c r="BY22" s="85"/>
-      <c r="BZ22" s="42" t="str">
+      <c r="BY22" s="86"/>
+      <c r="BZ22" s="85"/>
+      <c r="CA22" s="42" t="str">
         <f t="shared" si="14"/>
         <v>NA</v>
       </c>
-      <c r="CA22" s="38"/>
-      <c r="CB22" s="85"/>
-      <c r="CC22" s="42" t="str">
+      <c r="CB22" s="38"/>
+      <c r="CC22" s="85"/>
+      <c r="CD22" s="42" t="str">
         <f t="shared" si="15"/>
         <v>NA</v>
       </c>
-      <c r="CD22" s="38"/>
-      <c r="CE22" s="85"/>
-      <c r="CF22" s="42" t="str">
+      <c r="CE22" s="38"/>
+      <c r="CF22" s="85"/>
+      <c r="CG22" s="42" t="str">
         <f t="shared" si="16"/>
         <v>NA</v>
       </c>
-      <c r="CG22" s="38"/>
-      <c r="CH22" s="85"/>
-      <c r="CI22" s="42" t="str">
+      <c r="CH22" s="38"/>
+      <c r="CI22" s="85"/>
+      <c r="CJ22" s="42" t="str">
         <f t="shared" si="17"/>
         <v>NA</v>
       </c>
-      <c r="CJ22" s="38"/>
-      <c r="CK22" s="85"/>
-      <c r="CL22" s="42" t="str">
+      <c r="CK22" s="38"/>
+      <c r="CL22" s="85"/>
+      <c r="CM22" s="42" t="str">
         <f t="shared" si="18"/>
         <v>NA</v>
       </c>
-      <c r="CM22" s="38"/>
-      <c r="CN22" s="85"/>
-      <c r="CO22" s="42" t="str">
+      <c r="CN22" s="38"/>
+      <c r="CO22" s="85"/>
+      <c r="CP22" s="42" t="str">
         <f t="shared" si="19"/>
         <v>NA</v>
       </c>
-      <c r="CP22" s="38"/>
-      <c r="CQ22" s="40"/>
-      <c r="CR22" s="42" t="str">
+      <c r="CQ22" s="38"/>
+      <c r="CR22" s="40"/>
+      <c r="CS22" s="42" t="str">
         <f t="shared" si="20"/>
         <v>NA</v>
       </c>
-      <c r="CS22" s="38"/>
-      <c r="CT22" s="40"/>
-      <c r="CU22" s="42" t="str">
+      <c r="CT22" s="38"/>
+      <c r="CU22" s="40"/>
+      <c r="CV22" s="42" t="str">
         <f t="shared" si="37"/>
         <v>NA</v>
       </c>
-      <c r="CV22" s="39"/>
+      <c r="CW22" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5301,7 +5332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E619138-F039-4841-928C-9D919C758651}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -5349,227 +5380,230 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F89D226-4FD3-43E7-AD2C-117D056F41E4}">
-  <dimension ref="A1:CW22"/>
+  <dimension ref="A1:CX22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="8.7265625" style="1"/>
-    <col min="36" max="36" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="8.7265625" style="88"/>
-    <col min="42" max="42" width="14.453125" style="88" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="8.7265625" style="88"/>
-    <col min="45" max="45" width="10.7265625" style="88" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="8.7265625" style="88"/>
-    <col min="48" max="48" width="10.6328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="8.7265625" style="88"/>
-    <col min="51" max="51" width="10.6328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="8.7265625" style="88"/>
-    <col min="54" max="54" width="12.81640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="8.7265625" style="88"/>
-    <col min="57" max="57" width="8.90625" style="88" bestFit="1" customWidth="1"/>
-    <col min="58" max="75" width="8.7265625" style="88"/>
-    <col min="76" max="76" width="8.7265625" style="89"/>
-    <col min="77" max="77" width="8.7265625" style="88"/>
-    <col min="78" max="78" width="9.36328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="79" max="83" width="8.7265625" style="88"/>
-    <col min="84" max="84" width="18.36328125" style="88" bestFit="1" customWidth="1"/>
-    <col min="85" max="95" width="8.7265625" style="88"/>
-    <col min="96" max="96" width="11.1796875" style="88" bestFit="1" customWidth="1"/>
-    <col min="97" max="98" width="8.7265625" style="88"/>
-    <col min="99" max="99" width="11.1796875" style="88" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="13.90625" style="88" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="8.7265625" style="88"/>
+    <col min="1" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="29" width="8.7265625" style="1"/>
+    <col min="37" max="37" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="8.7265625" style="88"/>
+    <col min="43" max="43" width="14.453125" style="88" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="8.7265625" style="88"/>
+    <col min="46" max="46" width="10.7265625" style="88" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="8.7265625" style="88"/>
+    <col min="49" max="49" width="10.6328125" style="88" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="8.7265625" style="88"/>
+    <col min="52" max="52" width="10.6328125" style="88" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="8.7265625" style="88"/>
+    <col min="55" max="55" width="12.81640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="8.7265625" style="88"/>
+    <col min="58" max="58" width="8.90625" style="88" bestFit="1" customWidth="1"/>
+    <col min="59" max="76" width="8.7265625" style="88"/>
+    <col min="77" max="77" width="8.7265625" style="89"/>
+    <col min="78" max="78" width="8.7265625" style="88"/>
+    <col min="79" max="79" width="9.36328125" style="88" bestFit="1" customWidth="1"/>
+    <col min="80" max="84" width="8.7265625" style="88"/>
+    <col min="85" max="85" width="18.36328125" style="88" bestFit="1" customWidth="1"/>
+    <col min="86" max="96" width="8.7265625" style="88"/>
+    <col min="97" max="97" width="11.1796875" style="88" bestFit="1" customWidth="1"/>
+    <col min="98" max="99" width="8.7265625" style="88"/>
+    <col min="100" max="100" width="11.1796875" style="88" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.90625" style="88" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="8.7265625" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="F1" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AF1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AH1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AI1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="26" t="s">
+      <c r="AJ1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="AJ1" s="60" t="s">
+      <c r="AK1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="AK1" s="26" t="s">
+      <c r="AL1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AM1" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AM1" s="27" t="s">
+      <c r="AN1" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:99" ht="145" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:100" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="C2" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="D2" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="E2" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="F2" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="G2" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="J2" s="45" t="s">
         <v>74</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L2" s="45" t="s">
-        <v>89</v>
+      <c r="L2" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="M2" s="45" t="s">
         <v>89</v>
       </c>
       <c r="N2" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="P2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="Q2" s="47" t="s">
+      <c r="R2" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="S2" s="45" t="s">
         <v>90</v>
-      </c>
-      <c r="S2" s="45" t="s">
-        <v>77</v>
       </c>
       <c r="T2" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="W2" s="50" t="s">
+      <c r="U2" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" s="48"/>
+      <c r="W2" s="49" t="s">
         <v>78</v>
       </c>
       <c r="X2" s="50" t="s">
@@ -5584,1885 +5618,1908 @@
       <c r="AA2" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="AB2" s="20" t="s">
+      <c r="AB2" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AC2" s="50" t="s">
+      <c r="AD2" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="AD2" s="50" t="s">
+      <c r="AE2" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" s="20" t="e">
-        <f t="shared" ref="AE2:AE22" si="0">AB2-AC2-AD2</f>
+      <c r="AF2" s="20" t="e">
+        <f t="shared" ref="AF2:AF22" si="0">AC2-AD2-AE2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AF2" s="51" t="s">
+      <c r="AG2" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="AG2" s="51" t="s">
+      <c r="AH2" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="52" t="s">
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="AJ2" s="53" t="s">
+      <c r="AK2" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="AK2" s="54" t="s">
+      <c r="AL2" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="AL2" s="55" t="s">
+      <c r="AM2" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="AM2" s="57" t="s">
+      <c r="AN2" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="AO2" s="90"/>
       <c r="AP2" s="90"/>
-      <c r="AS2" s="90"/>
-      <c r="AV2" s="90"/>
-      <c r="AY2" s="90"/>
-      <c r="BB2" s="90"/>
-      <c r="BE2" s="90"/>
-      <c r="BH2" s="90"/>
-      <c r="BK2" s="90"/>
-      <c r="BN2" s="90"/>
-      <c r="BQ2" s="90"/>
-      <c r="BS2" s="91"/>
-      <c r="BT2" s="90"/>
-      <c r="BW2" s="90"/>
-      <c r="BY2" s="90"/>
+      <c r="AQ2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AW2" s="90"/>
+      <c r="AZ2" s="90"/>
+      <c r="BC2" s="90"/>
+      <c r="BF2" s="90"/>
+      <c r="BI2" s="90"/>
+      <c r="BL2" s="90"/>
+      <c r="BO2" s="90"/>
+      <c r="BR2" s="90"/>
+      <c r="BT2" s="91"/>
+      <c r="BU2" s="90"/>
+      <c r="BX2" s="90"/>
       <c r="BZ2" s="90"/>
-      <c r="CB2" s="92"/>
-      <c r="CC2" s="90"/>
-      <c r="CE2" s="92"/>
-      <c r="CF2" s="90"/>
-      <c r="CH2" s="92"/>
-      <c r="CI2" s="90"/>
-      <c r="CK2" s="92"/>
-      <c r="CL2" s="90"/>
-      <c r="CN2" s="92"/>
-      <c r="CO2" s="90"/>
-      <c r="CQ2" s="92"/>
-      <c r="CR2" s="90"/>
-      <c r="CT2" s="92"/>
-      <c r="CU2" s="90"/>
+      <c r="CA2" s="90"/>
+      <c r="CC2" s="92"/>
+      <c r="CD2" s="90"/>
+      <c r="CF2" s="92"/>
+      <c r="CG2" s="90"/>
+      <c r="CI2" s="92"/>
+      <c r="CJ2" s="90"/>
+      <c r="CL2" s="92"/>
+      <c r="CM2" s="90"/>
+      <c r="CO2" s="92"/>
+      <c r="CP2" s="90"/>
+      <c r="CR2" s="92"/>
+      <c r="CS2" s="90"/>
+      <c r="CU2" s="92"/>
+      <c r="CV2" s="90"/>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="76" t="str">
-        <f t="shared" ref="E3:E22" si="1">C3&amp;""&amp;D3</f>
+      <c r="E3" s="5"/>
+      <c r="F3" s="76" t="str">
+        <f t="shared" ref="F3:F22" si="1">D3&amp;""&amp;E3</f>
         <v/>
       </c>
-      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="7" t="e">
-        <f>VLOOKUP(E3,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J3" s="6"/>
       <c r="K3" s="7" t="e">
-        <f>VLOOKUP(E3,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L3" s="5"/>
+        <f>VLOOKUP(F3,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L3" s="7" t="e">
+        <f>VLOOKUP(F3,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="6">
-        <f t="shared" ref="P3:P22" si="2">I3-H3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:Q22" si="2">J3-I3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="6"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="19"/>
       <c r="X3" s="20"/>
       <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
       <c r="AA3" s="20"/>
-      <c r="AB3" s="20">
-        <f t="shared" ref="AB3:AB22" si="3">SUM(V3:AA3)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20">
+        <f t="shared" ref="AC3:AC22" si="3">SUM(W3:AB3)</f>
+        <v>0</v>
+      </c>
       <c r="AD3" s="20"/>
-      <c r="AE3" s="20">
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF3" s="21"/>
       <c r="AG3" s="21"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="57" t="str">
-        <f t="shared" ref="AM3:AM22" si="4">IF(AK3=0,"NA",AL3-$AC3)</f>
-        <v>NA</v>
-      </c>
-      <c r="AP3" s="90"/>
-      <c r="AS3" s="90"/>
-      <c r="AV3" s="90"/>
-      <c r="AY3" s="90"/>
-      <c r="BB3" s="90"/>
-      <c r="BE3" s="90"/>
-      <c r="BH3" s="90"/>
-      <c r="BK3" s="90"/>
-      <c r="BN3" s="90"/>
-      <c r="BQ3" s="90"/>
-      <c r="BT3" s="90"/>
-      <c r="BW3" s="90"/>
-      <c r="BY3" s="90"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="57" t="str">
+        <f t="shared" ref="AN3:AN22" si="4">IF(AL3=0,"NA",AM3-$AD3)</f>
+        <v>NA</v>
+      </c>
+      <c r="AQ3" s="90"/>
+      <c r="AT3" s="90"/>
+      <c r="AW3" s="90"/>
+      <c r="AZ3" s="90"/>
+      <c r="BC3" s="90"/>
+      <c r="BF3" s="90"/>
+      <c r="BI3" s="90"/>
+      <c r="BL3" s="90"/>
+      <c r="BO3" s="90"/>
+      <c r="BR3" s="90"/>
+      <c r="BU3" s="90"/>
+      <c r="BX3" s="90"/>
       <c r="BZ3" s="90"/>
-      <c r="CC3" s="90"/>
-      <c r="CF3" s="90"/>
-      <c r="CI3" s="90"/>
-      <c r="CL3" s="90"/>
-      <c r="CO3" s="90"/>
-      <c r="CR3" s="90"/>
-      <c r="CU3" s="90"/>
+      <c r="CA3" s="90"/>
+      <c r="CD3" s="90"/>
+      <c r="CG3" s="90"/>
+      <c r="CJ3" s="90"/>
+      <c r="CM3" s="90"/>
+      <c r="CP3" s="90"/>
+      <c r="CS3" s="90"/>
+      <c r="CV3" s="90"/>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="76" t="str">
+      <c r="E4" s="5"/>
+      <c r="F4" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="7" t="e">
-        <f>VLOOKUP(E4,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J4" s="6"/>
       <c r="K4" s="7" t="e">
-        <f>VLOOKUP(E4,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L4" s="5"/>
+        <f>VLOOKUP(F4,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L4" s="7" t="e">
+        <f>VLOOKUP(F4,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="6">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="5"/>
+      <c r="R4" s="6"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="19"/>
       <c r="X4" s="20"/>
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
       <c r="AA4" s="20"/>
-      <c r="AB4" s="20">
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="20"/>
       <c r="AD4" s="20"/>
-      <c r="AE4" s="20">
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="21"/>
       <c r="AG4" s="21"/>
-      <c r="AH4" s="22"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="57" t="str">
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AY4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BE4" s="90"/>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="90"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="90"/>
-      <c r="BN4" s="90"/>
-      <c r="BQ4" s="90"/>
-      <c r="BT4" s="90"/>
-      <c r="BW4" s="90"/>
-      <c r="BY4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AZ4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BF4" s="90"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="90"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="90"/>
+      <c r="BO4" s="90"/>
+      <c r="BR4" s="90"/>
+      <c r="BU4" s="90"/>
+      <c r="BX4" s="90"/>
       <c r="BZ4" s="90"/>
-      <c r="CB4" s="92"/>
-      <c r="CC4" s="90"/>
-      <c r="CE4" s="92"/>
-      <c r="CF4" s="90"/>
-      <c r="CH4" s="92"/>
-      <c r="CI4" s="90"/>
-      <c r="CK4" s="92"/>
-      <c r="CL4" s="90"/>
-      <c r="CN4" s="92"/>
-      <c r="CO4" s="90"/>
-      <c r="CQ4" s="92"/>
-      <c r="CR4" s="90"/>
-      <c r="CT4" s="92"/>
-      <c r="CU4" s="90"/>
+      <c r="CA4" s="90"/>
+      <c r="CC4" s="92"/>
+      <c r="CD4" s="90"/>
+      <c r="CF4" s="92"/>
+      <c r="CG4" s="90"/>
+      <c r="CI4" s="92"/>
+      <c r="CJ4" s="90"/>
+      <c r="CL4" s="92"/>
+      <c r="CM4" s="90"/>
+      <c r="CO4" s="92"/>
+      <c r="CP4" s="90"/>
+      <c r="CR4" s="92"/>
+      <c r="CS4" s="90"/>
+      <c r="CU4" s="92"/>
+      <c r="CV4" s="90"/>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="76" t="str">
+      <c r="E5" s="5"/>
+      <c r="F5" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="7" t="e">
-        <f>VLOOKUP(E5,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J5" s="6"/>
       <c r="K5" s="7" t="e">
-        <f>VLOOKUP(E5,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L5" s="5"/>
+        <f>VLOOKUP(F5,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L5" s="7" t="e">
+        <f>VLOOKUP(F5,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="6">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="5"/>
+      <c r="R5" s="6"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="20"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="19"/>
       <c r="X5" s="20"/>
       <c r="Y5" s="20"/>
       <c r="Z5" s="20"/>
       <c r="AA5" s="20"/>
-      <c r="AB5" s="20">
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="20"/>
       <c r="AD5" s="20"/>
-      <c r="AE5" s="20">
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="21"/>
       <c r="AG5" s="21"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="57" t="str">
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="31"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP5" s="90"/>
-      <c r="AS5" s="90"/>
-      <c r="AV5" s="90"/>
-      <c r="AY5" s="90"/>
-      <c r="BB5" s="90"/>
-      <c r="BE5" s="90"/>
-      <c r="BH5" s="90"/>
-      <c r="BK5" s="90"/>
-      <c r="BN5" s="90"/>
-      <c r="BQ5" s="90"/>
-      <c r="BT5" s="90"/>
-      <c r="BW5" s="90"/>
-      <c r="BY5" s="90"/>
+      <c r="AQ5" s="90"/>
+      <c r="AT5" s="90"/>
+      <c r="AW5" s="90"/>
+      <c r="AZ5" s="90"/>
+      <c r="BC5" s="90"/>
+      <c r="BF5" s="90"/>
+      <c r="BI5" s="90"/>
+      <c r="BL5" s="90"/>
+      <c r="BO5" s="90"/>
+      <c r="BR5" s="90"/>
+      <c r="BU5" s="90"/>
+      <c r="BX5" s="90"/>
       <c r="BZ5" s="90"/>
-      <c r="CC5" s="90"/>
-      <c r="CF5" s="90"/>
-      <c r="CI5" s="90"/>
-      <c r="CL5" s="90"/>
-      <c r="CO5" s="90"/>
-      <c r="CR5" s="90"/>
-      <c r="CU5" s="90"/>
+      <c r="CA5" s="90"/>
+      <c r="CD5" s="90"/>
+      <c r="CG5" s="90"/>
+      <c r="CJ5" s="90"/>
+      <c r="CM5" s="90"/>
+      <c r="CP5" s="90"/>
+      <c r="CS5" s="90"/>
+      <c r="CV5" s="90"/>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="76" t="str">
+      <c r="E6" s="5"/>
+      <c r="F6" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="7" t="e">
-        <f>VLOOKUP(E6,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J6" s="6"/>
       <c r="K6" s="7" t="e">
-        <f>VLOOKUP(E6,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L6" s="5"/>
+        <f>VLOOKUP(F6,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L6" s="7" t="e">
+        <f>VLOOKUP(F6,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="6">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="5"/>
+      <c r="R6" s="6"/>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="20"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="19"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
-      <c r="AB6" s="20">
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="20"/>
       <c r="AD6" s="20"/>
-      <c r="AE6" s="20">
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="21"/>
       <c r="AG6" s="21"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="29"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="57" t="str">
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="31"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP6" s="90"/>
-      <c r="AS6" s="90"/>
-      <c r="AV6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="BB6" s="90"/>
-      <c r="BE6" s="90"/>
-      <c r="BH6" s="90"/>
-      <c r="BK6" s="90"/>
-      <c r="BN6" s="90"/>
-      <c r="BQ6" s="90"/>
-      <c r="BT6" s="90"/>
-      <c r="BW6" s="90"/>
-      <c r="BY6" s="90"/>
+      <c r="AQ6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AW6" s="90"/>
+      <c r="AZ6" s="90"/>
+      <c r="BC6" s="90"/>
+      <c r="BF6" s="90"/>
+      <c r="BI6" s="90"/>
+      <c r="BL6" s="90"/>
+      <c r="BO6" s="90"/>
+      <c r="BR6" s="90"/>
+      <c r="BU6" s="90"/>
+      <c r="BX6" s="90"/>
       <c r="BZ6" s="90"/>
-      <c r="CC6" s="90"/>
-      <c r="CF6" s="90"/>
-      <c r="CI6" s="90"/>
-      <c r="CL6" s="90"/>
-      <c r="CO6" s="90"/>
-      <c r="CR6" s="90"/>
-      <c r="CU6" s="90"/>
+      <c r="CA6" s="90"/>
+      <c r="CD6" s="90"/>
+      <c r="CG6" s="90"/>
+      <c r="CJ6" s="90"/>
+      <c r="CM6" s="90"/>
+      <c r="CP6" s="90"/>
+      <c r="CS6" s="90"/>
+      <c r="CV6" s="90"/>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="76" t="str">
+      <c r="E7" s="5"/>
+      <c r="F7" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="7" t="e">
-        <f>VLOOKUP(E7,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J7" s="6"/>
       <c r="K7" s="7" t="e">
-        <f>VLOOKUP(E7,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L7" s="5"/>
+        <f>VLOOKUP(F7,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L7" s="7" t="e">
+        <f>VLOOKUP(F7,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="6">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="5"/>
+      <c r="R7" s="6"/>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="20"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="19"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
-      <c r="AB7" s="20">
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="20"/>
       <c r="AD7" s="20"/>
-      <c r="AE7" s="20">
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="21"/>
       <c r="AG7" s="21"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="29"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="57" t="str">
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP7" s="90"/>
-      <c r="AS7" s="90"/>
-      <c r="AV7" s="90"/>
-      <c r="AY7" s="90"/>
-      <c r="BB7" s="90"/>
-      <c r="BE7" s="90"/>
-      <c r="BH7" s="90"/>
-      <c r="BK7" s="90"/>
-      <c r="BN7" s="90"/>
-      <c r="BQ7" s="90"/>
-      <c r="BT7" s="90"/>
-      <c r="BW7" s="90"/>
-      <c r="BY7" s="90"/>
+      <c r="AQ7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AW7" s="90"/>
+      <c r="AZ7" s="90"/>
+      <c r="BC7" s="90"/>
+      <c r="BF7" s="90"/>
+      <c r="BI7" s="90"/>
+      <c r="BL7" s="90"/>
+      <c r="BO7" s="90"/>
+      <c r="BR7" s="90"/>
+      <c r="BU7" s="90"/>
+      <c r="BX7" s="90"/>
       <c r="BZ7" s="90"/>
-      <c r="CC7" s="90"/>
-      <c r="CF7" s="90"/>
-      <c r="CI7" s="90"/>
-      <c r="CL7" s="90"/>
-      <c r="CO7" s="90"/>
-      <c r="CR7" s="90"/>
-      <c r="CU7" s="90"/>
+      <c r="CA7" s="90"/>
+      <c r="CD7" s="90"/>
+      <c r="CG7" s="90"/>
+      <c r="CJ7" s="90"/>
+      <c r="CM7" s="90"/>
+      <c r="CP7" s="90"/>
+      <c r="CS7" s="90"/>
+      <c r="CV7" s="90"/>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="76" t="str">
+      <c r="E8" s="5"/>
+      <c r="F8" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="7" t="e">
-        <f>VLOOKUP(E8,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J8" s="6"/>
       <c r="K8" s="7" t="e">
-        <f>VLOOKUP(E8,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L8" s="5"/>
+        <f>VLOOKUP(F8,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L8" s="7" t="e">
+        <f>VLOOKUP(F8,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="6">
+      <c r="P8" s="5"/>
+      <c r="Q8" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="5"/>
+      <c r="R8" s="6"/>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="20"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="19"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
-      <c r="AB8" s="20">
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="20"/>
       <c r="AD8" s="20"/>
-      <c r="AE8" s="20">
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="21"/>
       <c r="AG8" s="21"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="57" t="str">
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="31"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO8" s="91"/>
-      <c r="AP8" s="90"/>
-      <c r="AS8" s="90"/>
-      <c r="AV8" s="90"/>
-      <c r="AY8" s="90"/>
-      <c r="BB8" s="90"/>
-      <c r="BE8" s="90"/>
-      <c r="BH8" s="90"/>
-      <c r="BK8" s="90"/>
-      <c r="BN8" s="90"/>
-      <c r="BQ8" s="90"/>
-      <c r="BT8" s="90"/>
-      <c r="BW8" s="90"/>
-      <c r="BY8" s="90"/>
+      <c r="AP8" s="91"/>
+      <c r="AQ8" s="90"/>
+      <c r="AT8" s="90"/>
+      <c r="AW8" s="90"/>
+      <c r="AZ8" s="90"/>
+      <c r="BC8" s="90"/>
+      <c r="BF8" s="90"/>
+      <c r="BI8" s="90"/>
+      <c r="BL8" s="90"/>
+      <c r="BO8" s="90"/>
+      <c r="BR8" s="90"/>
+      <c r="BU8" s="90"/>
+      <c r="BX8" s="90"/>
       <c r="BZ8" s="90"/>
-      <c r="CC8" s="90"/>
-      <c r="CF8" s="90"/>
-      <c r="CI8" s="90"/>
-      <c r="CL8" s="90"/>
-      <c r="CO8" s="90"/>
-      <c r="CQ8" s="91"/>
-      <c r="CR8" s="90"/>
-      <c r="CT8" s="91"/>
-      <c r="CU8" s="90"/>
+      <c r="CA8" s="90"/>
+      <c r="CD8" s="90"/>
+      <c r="CG8" s="90"/>
+      <c r="CJ8" s="90"/>
+      <c r="CM8" s="90"/>
+      <c r="CP8" s="90"/>
+      <c r="CR8" s="91"/>
+      <c r="CS8" s="90"/>
+      <c r="CU8" s="91"/>
+      <c r="CV8" s="90"/>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="76" t="str">
+      <c r="E9" s="5"/>
+      <c r="F9" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="7" t="e">
-        <f>VLOOKUP(E9,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J9" s="6"/>
       <c r="K9" s="7" t="e">
-        <f>VLOOKUP(E9,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L9" s="5"/>
+        <f>VLOOKUP(F9,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L9" s="7" t="e">
+        <f>VLOOKUP(F9,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="6">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="5"/>
+      <c r="R9" s="6"/>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="20"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="19"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
-      <c r="AB9" s="20">
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="20"/>
       <c r="AD9" s="20"/>
-      <c r="AE9" s="20">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="21"/>
       <c r="AG9" s="21"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="57" t="str">
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP9" s="90"/>
-      <c r="AS9" s="90"/>
-      <c r="AV9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="BB9" s="90"/>
-      <c r="BE9" s="90"/>
-      <c r="BH9" s="90"/>
-      <c r="BJ9" s="92"/>
-      <c r="BK9" s="90"/>
-      <c r="BN9" s="90"/>
-      <c r="BQ9" s="90"/>
-      <c r="BT9" s="90"/>
-      <c r="BW9" s="90"/>
-      <c r="BY9" s="90"/>
+      <c r="AQ9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AW9" s="90"/>
+      <c r="AZ9" s="90"/>
+      <c r="BC9" s="90"/>
+      <c r="BF9" s="90"/>
+      <c r="BI9" s="90"/>
+      <c r="BK9" s="92"/>
+      <c r="BL9" s="90"/>
+      <c r="BO9" s="90"/>
+      <c r="BR9" s="90"/>
+      <c r="BU9" s="90"/>
+      <c r="BX9" s="90"/>
       <c r="BZ9" s="90"/>
-      <c r="CC9" s="90"/>
-      <c r="CF9" s="90"/>
-      <c r="CI9" s="90"/>
-      <c r="CL9" s="90"/>
-      <c r="CO9" s="90"/>
-      <c r="CQ9" s="90"/>
+      <c r="CA9" s="90"/>
+      <c r="CD9" s="90"/>
+      <c r="CG9" s="90"/>
+      <c r="CJ9" s="90"/>
+      <c r="CM9" s="90"/>
+      <c r="CP9" s="90"/>
       <c r="CR9" s="90"/>
-      <c r="CT9" s="90"/>
+      <c r="CS9" s="90"/>
       <c r="CU9" s="90"/>
+      <c r="CV9" s="90"/>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="76" t="str">
+      <c r="E10" s="5"/>
+      <c r="F10" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="7" t="e">
-        <f>VLOOKUP(E10,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J10" s="6"/>
       <c r="K10" s="7" t="e">
-        <f>VLOOKUP(E10,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" s="5"/>
+        <f>VLOOKUP(F10,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="7" t="e">
+        <f>VLOOKUP(F10,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="6">
+      <c r="P10" s="5"/>
+      <c r="Q10" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="5"/>
+      <c r="R10" s="6"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="20"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="19"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
-      <c r="AB10" s="20">
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="20"/>
       <c r="AD10" s="20"/>
-      <c r="AE10" s="20">
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="21"/>
       <c r="AG10" s="21"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="29"/>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="34"/>
-      <c r="AM10" s="57" t="str">
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="30"/>
+      <c r="AL10" s="31"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="90"/>
-      <c r="AS10" s="90"/>
-      <c r="AV10" s="90"/>
-      <c r="AY10" s="90"/>
-      <c r="BB10" s="90"/>
-      <c r="BE10" s="90"/>
-      <c r="BH10" s="90"/>
-      <c r="BK10" s="90"/>
-      <c r="BN10" s="90"/>
-      <c r="BQ10" s="90"/>
-      <c r="BT10" s="90"/>
-      <c r="BW10" s="90"/>
-      <c r="BY10" s="90"/>
+      <c r="AP10" s="92"/>
+      <c r="AQ10" s="90"/>
+      <c r="AT10" s="90"/>
+      <c r="AW10" s="90"/>
+      <c r="AZ10" s="90"/>
+      <c r="BC10" s="90"/>
+      <c r="BF10" s="90"/>
+      <c r="BI10" s="90"/>
+      <c r="BL10" s="90"/>
+      <c r="BO10" s="90"/>
+      <c r="BR10" s="90"/>
+      <c r="BU10" s="90"/>
+      <c r="BX10" s="90"/>
       <c r="BZ10" s="90"/>
-      <c r="CB10" s="92"/>
-      <c r="CC10" s="90"/>
-      <c r="CE10" s="92"/>
-      <c r="CF10" s="90"/>
-      <c r="CH10" s="92"/>
-      <c r="CI10" s="90"/>
-      <c r="CK10" s="92"/>
-      <c r="CL10" s="90"/>
-      <c r="CN10" s="92"/>
-      <c r="CO10" s="90"/>
-      <c r="CQ10" s="92"/>
-      <c r="CR10" s="90"/>
-      <c r="CT10" s="92"/>
-      <c r="CU10" s="90"/>
+      <c r="CA10" s="90"/>
+      <c r="CC10" s="92"/>
+      <c r="CD10" s="90"/>
+      <c r="CF10" s="92"/>
+      <c r="CG10" s="90"/>
+      <c r="CI10" s="92"/>
+      <c r="CJ10" s="90"/>
+      <c r="CL10" s="92"/>
+      <c r="CM10" s="90"/>
+      <c r="CO10" s="92"/>
+      <c r="CP10" s="90"/>
+      <c r="CR10" s="92"/>
+      <c r="CS10" s="90"/>
+      <c r="CU10" s="92"/>
+      <c r="CV10" s="90"/>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="76" t="str">
+      <c r="E11" s="5"/>
+      <c r="F11" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="7" t="e">
-        <f>VLOOKUP(E11,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J11" s="6"/>
       <c r="K11" s="7" t="e">
-        <f>VLOOKUP(E11,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" s="5"/>
+        <f>VLOOKUP(F11,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="7" t="e">
+        <f>VLOOKUP(F11,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="6">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="5"/>
+      <c r="R11" s="6"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="20"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="19"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
-      <c r="AB11" s="20">
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="20"/>
       <c r="AD11" s="20"/>
-      <c r="AE11" s="20">
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="21"/>
       <c r="AG11" s="21"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="57" t="str">
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="31"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="90"/>
-      <c r="AS11" s="90"/>
-      <c r="AV11" s="90"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="90"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="90"/>
-      <c r="BE11" s="90"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="90"/>
-      <c r="BK11" s="90"/>
-      <c r="BM11" s="92"/>
-      <c r="BN11" s="90"/>
-      <c r="BQ11" s="90"/>
-      <c r="BT11" s="90"/>
-      <c r="BW11" s="90"/>
-      <c r="BY11" s="90"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="90"/>
+      <c r="AT11" s="90"/>
+      <c r="AW11" s="90"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="90"/>
+      <c r="BB11" s="92"/>
+      <c r="BC11" s="90"/>
+      <c r="BF11" s="90"/>
+      <c r="BH11" s="92"/>
+      <c r="BI11" s="90"/>
+      <c r="BL11" s="90"/>
+      <c r="BN11" s="92"/>
+      <c r="BO11" s="90"/>
+      <c r="BR11" s="90"/>
+      <c r="BU11" s="90"/>
+      <c r="BX11" s="90"/>
       <c r="BZ11" s="90"/>
-      <c r="CB11" s="92"/>
-      <c r="CC11" s="90"/>
-      <c r="CE11" s="92"/>
-      <c r="CF11" s="90"/>
-      <c r="CH11" s="92"/>
-      <c r="CI11" s="90"/>
-      <c r="CK11" s="92"/>
-      <c r="CL11" s="90"/>
-      <c r="CN11" s="92"/>
-      <c r="CO11" s="90"/>
-      <c r="CQ11" s="92"/>
-      <c r="CR11" s="90"/>
-      <c r="CT11" s="92"/>
-      <c r="CU11" s="90"/>
+      <c r="CA11" s="90"/>
+      <c r="CC11" s="92"/>
+      <c r="CD11" s="90"/>
+      <c r="CF11" s="92"/>
+      <c r="CG11" s="90"/>
+      <c r="CI11" s="92"/>
+      <c r="CJ11" s="90"/>
+      <c r="CL11" s="92"/>
+      <c r="CM11" s="90"/>
+      <c r="CO11" s="92"/>
+      <c r="CP11" s="90"/>
+      <c r="CR11" s="92"/>
+      <c r="CS11" s="90"/>
+      <c r="CU11" s="92"/>
+      <c r="CV11" s="90"/>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="76" t="str">
+      <c r="E12" s="5"/>
+      <c r="F12" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="7" t="e">
-        <f>VLOOKUP(E12,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J12" s="6"/>
       <c r="K12" s="7" t="e">
-        <f>VLOOKUP(E12,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="5"/>
+        <f>VLOOKUP(F12,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L12" s="7" t="e">
+        <f>VLOOKUP(F12,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="6">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="5"/>
+      <c r="R12" s="6"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="20"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="19"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
-      <c r="AB12" s="20">
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="20"/>
       <c r="AD12" s="20"/>
-      <c r="AE12" s="20">
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="21"/>
       <c r="AG12" s="21"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="57" t="str">
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP12" s="90"/>
-      <c r="AS12" s="90"/>
-      <c r="AV12" s="90"/>
-      <c r="AY12" s="90"/>
-      <c r="BB12" s="90"/>
-      <c r="BE12" s="90"/>
-      <c r="BH12" s="90"/>
-      <c r="BK12" s="90"/>
-      <c r="BN12" s="90"/>
-      <c r="BQ12" s="90"/>
-      <c r="BT12" s="90"/>
-      <c r="BW12" s="90"/>
-      <c r="BY12" s="90"/>
+      <c r="AQ12" s="90"/>
+      <c r="AT12" s="90"/>
+      <c r="AW12" s="90"/>
+      <c r="AZ12" s="90"/>
+      <c r="BC12" s="90"/>
+      <c r="BF12" s="90"/>
+      <c r="BI12" s="90"/>
+      <c r="BL12" s="90"/>
+      <c r="BO12" s="90"/>
+      <c r="BR12" s="90"/>
+      <c r="BU12" s="90"/>
+      <c r="BX12" s="90"/>
       <c r="BZ12" s="90"/>
-      <c r="CB12" s="91"/>
-      <c r="CC12" s="90"/>
-      <c r="CE12" s="91"/>
-      <c r="CF12" s="90"/>
-      <c r="CH12" s="91"/>
-      <c r="CI12" s="90"/>
-      <c r="CK12" s="91"/>
-      <c r="CL12" s="90"/>
-      <c r="CN12" s="91"/>
-      <c r="CO12" s="90"/>
-      <c r="CQ12" s="91"/>
-      <c r="CR12" s="90"/>
-      <c r="CT12" s="91"/>
-      <c r="CU12" s="90"/>
+      <c r="CA12" s="90"/>
+      <c r="CC12" s="91"/>
+      <c r="CD12" s="90"/>
+      <c r="CF12" s="91"/>
+      <c r="CG12" s="90"/>
+      <c r="CI12" s="91"/>
+      <c r="CJ12" s="90"/>
+      <c r="CL12" s="91"/>
+      <c r="CM12" s="90"/>
+      <c r="CO12" s="91"/>
+      <c r="CP12" s="90"/>
+      <c r="CR12" s="91"/>
+      <c r="CS12" s="90"/>
+      <c r="CU12" s="91"/>
+      <c r="CV12" s="90"/>
     </row>
-    <row r="13" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="76" t="str">
+      <c r="E13" s="5"/>
+      <c r="F13" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="7" t="e">
-        <f>VLOOKUP(E13,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J13" s="6"/>
       <c r="K13" s="7" t="e">
-        <f>VLOOKUP(E13,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" s="5"/>
+        <f>VLOOKUP(F13,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L13" s="7" t="e">
+        <f>VLOOKUP(F13,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="6">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="5"/>
+      <c r="R13" s="6"/>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="20"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="19"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
-      <c r="AB13" s="20">
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="20"/>
       <c r="AD13" s="20"/>
-      <c r="AE13" s="20">
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="21"/>
       <c r="AG13" s="21"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="57" t="str">
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP13" s="90"/>
-      <c r="AS13" s="90"/>
-      <c r="AV13" s="90"/>
-      <c r="AY13" s="90"/>
-      <c r="BB13" s="90"/>
-      <c r="BE13" s="90"/>
-      <c r="BG13" s="92"/>
-      <c r="BH13" s="90"/>
-      <c r="BK13" s="90"/>
-      <c r="BN13" s="90"/>
-      <c r="BQ13" s="90"/>
-      <c r="BS13" s="92"/>
-      <c r="BT13" s="90"/>
-      <c r="BW13" s="90"/>
-      <c r="BY13" s="90"/>
+      <c r="AQ13" s="90"/>
+      <c r="AT13" s="90"/>
+      <c r="AW13" s="90"/>
+      <c r="AZ13" s="90"/>
+      <c r="BC13" s="90"/>
+      <c r="BF13" s="90"/>
+      <c r="BH13" s="92"/>
+      <c r="BI13" s="90"/>
+      <c r="BL13" s="90"/>
+      <c r="BO13" s="90"/>
+      <c r="BR13" s="90"/>
+      <c r="BT13" s="92"/>
+      <c r="BU13" s="90"/>
+      <c r="BX13" s="90"/>
       <c r="BZ13" s="90"/>
-      <c r="CC13" s="90"/>
-      <c r="CF13" s="90"/>
-      <c r="CI13" s="90"/>
-      <c r="CK13" s="92"/>
-      <c r="CL13" s="90"/>
-      <c r="CN13" s="92"/>
-      <c r="CO13" s="90"/>
-      <c r="CR13" s="90"/>
-      <c r="CU13" s="90"/>
+      <c r="CA13" s="90"/>
+      <c r="CD13" s="90"/>
+      <c r="CG13" s="90"/>
+      <c r="CJ13" s="90"/>
+      <c r="CL13" s="92"/>
+      <c r="CM13" s="90"/>
+      <c r="CO13" s="92"/>
+      <c r="CP13" s="90"/>
+      <c r="CS13" s="90"/>
+      <c r="CV13" s="90"/>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="76" t="str">
+      <c r="E14" s="5"/>
+      <c r="F14" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="7" t="e">
-        <f>VLOOKUP(E14,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J14" s="6"/>
       <c r="K14" s="7" t="e">
-        <f>VLOOKUP(E14,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" s="5"/>
+        <f>VLOOKUP(F14,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L14" s="7" t="e">
+        <f>VLOOKUP(F14,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
-      <c r="P14" s="6">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="5"/>
+      <c r="R14" s="6"/>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="20"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="19"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
-      <c r="AB14" s="20">
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="20"/>
       <c r="AD14" s="20"/>
-      <c r="AE14" s="20">
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="21"/>
       <c r="AG14" s="21"/>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="29"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="57" t="str">
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="31"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP14" s="90"/>
-      <c r="AS14" s="90"/>
-      <c r="AV14" s="90"/>
-      <c r="AX14" s="92"/>
-      <c r="AY14" s="90"/>
-      <c r="BA14" s="92"/>
-      <c r="BB14" s="90"/>
-      <c r="BE14" s="90"/>
-      <c r="BG14" s="92"/>
-      <c r="BH14" s="90"/>
-      <c r="BJ14" s="92"/>
-      <c r="BK14" s="90"/>
-      <c r="BN14" s="90"/>
-      <c r="BQ14" s="90"/>
-      <c r="BS14" s="92"/>
-      <c r="BT14" s="90"/>
-      <c r="BV14" s="92"/>
-      <c r="BW14" s="90"/>
-      <c r="BY14" s="90"/>
+      <c r="AQ14" s="90"/>
+      <c r="AT14" s="90"/>
+      <c r="AW14" s="90"/>
+      <c r="AY14" s="92"/>
+      <c r="AZ14" s="90"/>
+      <c r="BB14" s="92"/>
+      <c r="BC14" s="90"/>
+      <c r="BF14" s="90"/>
+      <c r="BH14" s="92"/>
+      <c r="BI14" s="90"/>
+      <c r="BK14" s="92"/>
+      <c r="BL14" s="90"/>
+      <c r="BO14" s="90"/>
+      <c r="BR14" s="90"/>
+      <c r="BT14" s="92"/>
+      <c r="BU14" s="90"/>
+      <c r="BW14" s="92"/>
+      <c r="BX14" s="90"/>
       <c r="BZ14" s="90"/>
-      <c r="CC14" s="90"/>
-      <c r="CF14" s="90"/>
-      <c r="CI14" s="90"/>
-      <c r="CL14" s="90"/>
-      <c r="CO14" s="90"/>
-      <c r="CR14" s="90"/>
-      <c r="CU14" s="90"/>
+      <c r="CA14" s="90"/>
+      <c r="CD14" s="90"/>
+      <c r="CG14" s="90"/>
+      <c r="CJ14" s="90"/>
+      <c r="CM14" s="90"/>
+      <c r="CP14" s="90"/>
+      <c r="CS14" s="90"/>
+      <c r="CV14" s="90"/>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="76" t="str">
+      <c r="E15" s="5"/>
+      <c r="F15" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="7" t="e">
-        <f>VLOOKUP(E15,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J15" s="6"/>
       <c r="K15" s="7" t="e">
-        <f>VLOOKUP(E15,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" s="5"/>
+        <f>VLOOKUP(F15,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L15" s="7" t="e">
+        <f>VLOOKUP(F15,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="6">
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="5"/>
+      <c r="R15" s="6"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="20"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="19"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
-      <c r="AB15" s="20">
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="20"/>
       <c r="AD15" s="20"/>
-      <c r="AE15" s="20">
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="21"/>
       <c r="AG15" s="21"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="29"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="34"/>
-      <c r="AM15" s="57" t="str">
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="30"/>
+      <c r="AL15" s="31"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP15" s="90"/>
-      <c r="AS15" s="90"/>
-      <c r="AV15" s="90"/>
-      <c r="AY15" s="90"/>
-      <c r="BB15" s="90"/>
-      <c r="BE15" s="90"/>
-      <c r="BG15" s="92"/>
-      <c r="BH15" s="90"/>
-      <c r="BK15" s="90"/>
-      <c r="BN15" s="90"/>
-      <c r="BQ15" s="90"/>
-      <c r="BS15" s="92"/>
-      <c r="BT15" s="90"/>
-      <c r="BV15" s="91"/>
-      <c r="BW15" s="90"/>
-      <c r="BY15" s="90"/>
+      <c r="AQ15" s="90"/>
+      <c r="AT15" s="90"/>
+      <c r="AW15" s="90"/>
+      <c r="AZ15" s="90"/>
+      <c r="BC15" s="90"/>
+      <c r="BF15" s="90"/>
+      <c r="BH15" s="92"/>
+      <c r="BI15" s="90"/>
+      <c r="BL15" s="90"/>
+      <c r="BO15" s="90"/>
+      <c r="BR15" s="90"/>
+      <c r="BT15" s="92"/>
+      <c r="BU15" s="90"/>
+      <c r="BW15" s="91"/>
+      <c r="BX15" s="90"/>
       <c r="BZ15" s="90"/>
-      <c r="CB15" s="91"/>
-      <c r="CC15" s="90"/>
-      <c r="CE15" s="91"/>
-      <c r="CF15" s="90"/>
-      <c r="CI15" s="90"/>
-      <c r="CL15" s="90"/>
-      <c r="CO15" s="90"/>
-      <c r="CR15" s="90"/>
-      <c r="CU15" s="90"/>
+      <c r="CA15" s="90"/>
+      <c r="CC15" s="91"/>
+      <c r="CD15" s="90"/>
+      <c r="CF15" s="91"/>
+      <c r="CG15" s="90"/>
+      <c r="CJ15" s="90"/>
+      <c r="CM15" s="90"/>
+      <c r="CP15" s="90"/>
+      <c r="CS15" s="90"/>
+      <c r="CV15" s="90"/>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="76" t="str">
+      <c r="E16" s="5"/>
+      <c r="F16" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="7" t="e">
-        <f>VLOOKUP(E16,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J16" s="6"/>
       <c r="K16" s="7" t="e">
-        <f>VLOOKUP(E16,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L16" s="5"/>
+        <f>VLOOKUP(F16,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L16" s="7" t="e">
+        <f>VLOOKUP(F16,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
-      <c r="P16" s="6">
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="5"/>
+      <c r="R16" s="6"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="20"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="19"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
-      <c r="AB16" s="20">
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="20"/>
       <c r="AD16" s="20"/>
-      <c r="AE16" s="20">
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="21"/>
       <c r="AG16" s="21"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="29"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="34"/>
-      <c r="AM16" s="57" t="str">
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="22"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO16" s="92"/>
-      <c r="AP16" s="90"/>
-      <c r="AR16" s="92"/>
-      <c r="AS16" s="90"/>
-      <c r="AU16" s="92"/>
-      <c r="AV16" s="90"/>
-      <c r="AX16" s="92"/>
-      <c r="AY16" s="90"/>
-      <c r="BA16" s="92"/>
-      <c r="BB16" s="90"/>
-      <c r="BD16" s="92"/>
-      <c r="BE16" s="90"/>
-      <c r="BG16" s="92"/>
-      <c r="BH16" s="90"/>
-      <c r="BI16" s="89"/>
-      <c r="BJ16" s="92"/>
-      <c r="BK16" s="90"/>
-      <c r="BN16" s="90"/>
-      <c r="BQ16" s="90"/>
-      <c r="BS16" s="90"/>
+      <c r="AP16" s="92"/>
+      <c r="AQ16" s="90"/>
+      <c r="AS16" s="92"/>
+      <c r="AT16" s="90"/>
+      <c r="AV16" s="92"/>
+      <c r="AW16" s="90"/>
+      <c r="AY16" s="92"/>
+      <c r="AZ16" s="90"/>
+      <c r="BB16" s="92"/>
+      <c r="BC16" s="90"/>
+      <c r="BE16" s="92"/>
+      <c r="BF16" s="90"/>
+      <c r="BH16" s="92"/>
+      <c r="BI16" s="90"/>
+      <c r="BJ16" s="89"/>
+      <c r="BK16" s="92"/>
+      <c r="BL16" s="90"/>
+      <c r="BO16" s="90"/>
+      <c r="BR16" s="90"/>
       <c r="BT16" s="90"/>
-      <c r="BW16" s="90"/>
-      <c r="BY16" s="90"/>
+      <c r="BU16" s="90"/>
+      <c r="BX16" s="90"/>
       <c r="BZ16" s="90"/>
-      <c r="CB16" s="92"/>
-      <c r="CC16" s="90"/>
-      <c r="CE16" s="92"/>
-      <c r="CF16" s="90"/>
-      <c r="CH16" s="92"/>
-      <c r="CI16" s="90"/>
-      <c r="CK16" s="92"/>
-      <c r="CL16" s="90"/>
-      <c r="CN16" s="92"/>
-      <c r="CO16" s="90"/>
-      <c r="CQ16" s="92"/>
-      <c r="CR16" s="90"/>
-      <c r="CT16" s="92"/>
-      <c r="CU16" s="90"/>
+      <c r="CA16" s="90"/>
+      <c r="CC16" s="92"/>
+      <c r="CD16" s="90"/>
+      <c r="CF16" s="92"/>
+      <c r="CG16" s="90"/>
+      <c r="CI16" s="92"/>
+      <c r="CJ16" s="90"/>
+      <c r="CL16" s="92"/>
+      <c r="CM16" s="90"/>
+      <c r="CO16" s="92"/>
+      <c r="CP16" s="90"/>
+      <c r="CR16" s="92"/>
+      <c r="CS16" s="90"/>
+      <c r="CU16" s="92"/>
+      <c r="CV16" s="90"/>
     </row>
-    <row r="17" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="76" t="str">
+      <c r="E17" s="5"/>
+      <c r="F17" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="7" t="e">
-        <f>VLOOKUP(E17,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J17" s="6"/>
       <c r="K17" s="7" t="e">
-        <f>VLOOKUP(E17,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" s="5"/>
+        <f>VLOOKUP(F17,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L17" s="7" t="e">
+        <f>VLOOKUP(F17,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="6">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="5"/>
+      <c r="R17" s="6"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="20"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="19"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
-      <c r="AB17" s="20">
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="20"/>
       <c r="AD17" s="20"/>
-      <c r="AE17" s="20">
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="21"/>
       <c r="AG17" s="21"/>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="30"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="34"/>
-      <c r="AM17" s="57" t="str">
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="22"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="30"/>
+      <c r="AL17" s="31"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO17" s="92"/>
-      <c r="AP17" s="90"/>
-      <c r="AR17" s="92"/>
-      <c r="AS17" s="90"/>
-      <c r="AU17" s="92"/>
-      <c r="AV17" s="90"/>
-      <c r="AX17" s="92"/>
-      <c r="AY17" s="90"/>
-      <c r="BA17" s="92"/>
-      <c r="BB17" s="90"/>
-      <c r="BD17" s="92"/>
-      <c r="BE17" s="90"/>
-      <c r="BG17" s="92"/>
-      <c r="BH17" s="90"/>
-      <c r="BI17" s="89"/>
-      <c r="BJ17" s="92"/>
-      <c r="BK17" s="90"/>
-      <c r="BL17" s="89"/>
-      <c r="BM17" s="92"/>
-      <c r="BN17" s="90"/>
-      <c r="BO17" s="89"/>
-      <c r="BP17" s="92"/>
-      <c r="BQ17" s="90"/>
-      <c r="BT17" s="90"/>
-      <c r="BW17" s="90"/>
-      <c r="BY17" s="90"/>
+      <c r="AP17" s="92"/>
+      <c r="AQ17" s="90"/>
+      <c r="AS17" s="92"/>
+      <c r="AT17" s="90"/>
+      <c r="AV17" s="92"/>
+      <c r="AW17" s="90"/>
+      <c r="AY17" s="92"/>
+      <c r="AZ17" s="90"/>
+      <c r="BB17" s="92"/>
+      <c r="BC17" s="90"/>
+      <c r="BE17" s="92"/>
+      <c r="BF17" s="90"/>
+      <c r="BH17" s="92"/>
+      <c r="BI17" s="90"/>
+      <c r="BJ17" s="89"/>
+      <c r="BK17" s="92"/>
+      <c r="BL17" s="90"/>
+      <c r="BM17" s="89"/>
+      <c r="BN17" s="92"/>
+      <c r="BO17" s="90"/>
+      <c r="BP17" s="89"/>
+      <c r="BQ17" s="92"/>
+      <c r="BR17" s="90"/>
+      <c r="BU17" s="90"/>
+      <c r="BX17" s="90"/>
       <c r="BZ17" s="90"/>
-      <c r="CB17" s="92"/>
-      <c r="CC17" s="90"/>
-      <c r="CE17" s="92"/>
-      <c r="CF17" s="90"/>
-      <c r="CH17" s="92"/>
-      <c r="CI17" s="90"/>
-      <c r="CK17" s="92"/>
-      <c r="CL17" s="90"/>
-      <c r="CN17" s="92"/>
-      <c r="CO17" s="90"/>
-      <c r="CQ17" s="92"/>
-      <c r="CR17" s="90"/>
-      <c r="CT17" s="92"/>
-      <c r="CU17" s="90"/>
+      <c r="CA17" s="90"/>
+      <c r="CC17" s="92"/>
+      <c r="CD17" s="90"/>
+      <c r="CF17" s="92"/>
+      <c r="CG17" s="90"/>
+      <c r="CI17" s="92"/>
+      <c r="CJ17" s="90"/>
+      <c r="CL17" s="92"/>
+      <c r="CM17" s="90"/>
+      <c r="CO17" s="92"/>
+      <c r="CP17" s="90"/>
+      <c r="CR17" s="92"/>
+      <c r="CS17" s="90"/>
+      <c r="CU17" s="92"/>
+      <c r="CV17" s="90"/>
     </row>
-    <row r="18" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="76" t="str">
+      <c r="E18" s="5"/>
+      <c r="F18" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="7" t="e">
-        <f>VLOOKUP(E18,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J18" s="6"/>
       <c r="K18" s="7" t="e">
-        <f>VLOOKUP(E18,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" s="5"/>
+        <f>VLOOKUP(F18,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L18" s="7" t="e">
+        <f>VLOOKUP(F18,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="6">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="5"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="20"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="19"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
-      <c r="AB18" s="20">
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="20"/>
       <c r="AD18" s="20"/>
-      <c r="AE18" s="20">
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="21"/>
       <c r="AG18" s="21"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="29"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="34"/>
-      <c r="AM18" s="57" t="str">
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO18" s="92"/>
-      <c r="AP18" s="90"/>
-      <c r="AR18" s="92"/>
-      <c r="AS18" s="90"/>
-      <c r="AU18" s="92"/>
-      <c r="AV18" s="90"/>
-      <c r="AX18" s="92"/>
-      <c r="AY18" s="90"/>
-      <c r="BA18" s="92"/>
-      <c r="BB18" s="90"/>
-      <c r="BD18" s="92"/>
-      <c r="BE18" s="90"/>
-      <c r="BG18" s="92"/>
-      <c r="BH18" s="90"/>
-      <c r="BJ18" s="92"/>
-      <c r="BK18" s="90"/>
-      <c r="BM18" s="92"/>
-      <c r="BN18" s="90"/>
-      <c r="BP18" s="92"/>
-      <c r="BQ18" s="90"/>
-      <c r="BT18" s="90"/>
-      <c r="BW18" s="90"/>
-      <c r="BY18" s="90"/>
+      <c r="AP18" s="92"/>
+      <c r="AQ18" s="90"/>
+      <c r="AS18" s="92"/>
+      <c r="AT18" s="90"/>
+      <c r="AV18" s="92"/>
+      <c r="AW18" s="90"/>
+      <c r="AY18" s="92"/>
+      <c r="AZ18" s="90"/>
+      <c r="BB18" s="92"/>
+      <c r="BC18" s="90"/>
+      <c r="BE18" s="92"/>
+      <c r="BF18" s="90"/>
+      <c r="BH18" s="92"/>
+      <c r="BI18" s="90"/>
+      <c r="BK18" s="92"/>
+      <c r="BL18" s="90"/>
+      <c r="BN18" s="92"/>
+      <c r="BO18" s="90"/>
+      <c r="BQ18" s="92"/>
+      <c r="BR18" s="90"/>
+      <c r="BU18" s="90"/>
+      <c r="BX18" s="90"/>
       <c r="BZ18" s="90"/>
-      <c r="CB18" s="92"/>
-      <c r="CC18" s="90"/>
-      <c r="CE18" s="92"/>
-      <c r="CF18" s="90"/>
-      <c r="CH18" s="92"/>
-      <c r="CI18" s="90"/>
-      <c r="CK18" s="92"/>
-      <c r="CL18" s="90"/>
-      <c r="CN18" s="92"/>
-      <c r="CO18" s="90"/>
-      <c r="CQ18" s="92"/>
-      <c r="CR18" s="90"/>
-      <c r="CT18" s="92"/>
-      <c r="CU18" s="90"/>
+      <c r="CA18" s="90"/>
+      <c r="CC18" s="92"/>
+      <c r="CD18" s="90"/>
+      <c r="CF18" s="92"/>
+      <c r="CG18" s="90"/>
+      <c r="CI18" s="92"/>
+      <c r="CJ18" s="90"/>
+      <c r="CL18" s="92"/>
+      <c r="CM18" s="90"/>
+      <c r="CO18" s="92"/>
+      <c r="CP18" s="90"/>
+      <c r="CR18" s="92"/>
+      <c r="CS18" s="90"/>
+      <c r="CU18" s="92"/>
+      <c r="CV18" s="90"/>
     </row>
-    <row r="19" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="76" t="str">
+      <c r="E19" s="5"/>
+      <c r="F19" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="7" t="e">
-        <f>VLOOKUP(E19,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J19" s="6"/>
       <c r="K19" s="7" t="e">
-        <f>VLOOKUP(E19,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L19" s="5"/>
+        <f>VLOOKUP(F19,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L19" s="7" t="e">
+        <f>VLOOKUP(F19,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
-      <c r="P19" s="6">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="5"/>
+      <c r="R19" s="6"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="20"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="19"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
-      <c r="AB19" s="20">
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="20"/>
       <c r="AD19" s="20"/>
-      <c r="AE19" s="20">
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="21"/>
       <c r="AG19" s="21"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="29"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="34"/>
-      <c r="AM19" s="57" t="str">
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="22"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="30"/>
+      <c r="AL19" s="31"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO19" s="92"/>
-      <c r="AP19" s="90"/>
-      <c r="AR19" s="92"/>
-      <c r="AS19" s="90"/>
-      <c r="AU19" s="92"/>
-      <c r="AV19" s="90"/>
-      <c r="AX19" s="92"/>
-      <c r="AY19" s="90"/>
-      <c r="BA19" s="92"/>
-      <c r="BB19" s="90"/>
-      <c r="BD19" s="92"/>
-      <c r="BE19" s="90"/>
-      <c r="BG19" s="92"/>
-      <c r="BH19" s="90"/>
-      <c r="BJ19" s="92"/>
-      <c r="BK19" s="90"/>
-      <c r="BM19" s="92"/>
-      <c r="BN19" s="90"/>
-      <c r="BP19" s="92"/>
-      <c r="BQ19" s="90"/>
-      <c r="BT19" s="90"/>
-      <c r="BW19" s="90"/>
-      <c r="BY19" s="90"/>
+      <c r="AP19" s="92"/>
+      <c r="AQ19" s="90"/>
+      <c r="AS19" s="92"/>
+      <c r="AT19" s="90"/>
+      <c r="AV19" s="92"/>
+      <c r="AW19" s="90"/>
+      <c r="AY19" s="92"/>
+      <c r="AZ19" s="90"/>
+      <c r="BB19" s="92"/>
+      <c r="BC19" s="90"/>
+      <c r="BE19" s="92"/>
+      <c r="BF19" s="90"/>
+      <c r="BH19" s="92"/>
+      <c r="BI19" s="90"/>
+      <c r="BK19" s="92"/>
+      <c r="BL19" s="90"/>
+      <c r="BN19" s="92"/>
+      <c r="BO19" s="90"/>
+      <c r="BQ19" s="92"/>
+      <c r="BR19" s="90"/>
+      <c r="BU19" s="90"/>
+      <c r="BX19" s="90"/>
       <c r="BZ19" s="90"/>
-      <c r="CB19" s="92"/>
-      <c r="CC19" s="90"/>
-      <c r="CE19" s="92"/>
-      <c r="CF19" s="90"/>
-      <c r="CH19" s="92"/>
-      <c r="CI19" s="90"/>
-      <c r="CK19" s="92"/>
-      <c r="CL19" s="90"/>
-      <c r="CN19" s="92"/>
-      <c r="CO19" s="90"/>
-      <c r="CQ19" s="92"/>
-      <c r="CR19" s="90"/>
-      <c r="CT19" s="92"/>
-      <c r="CU19" s="90"/>
+      <c r="CA19" s="90"/>
+      <c r="CC19" s="92"/>
+      <c r="CD19" s="90"/>
+      <c r="CF19" s="92"/>
+      <c r="CG19" s="90"/>
+      <c r="CI19" s="92"/>
+      <c r="CJ19" s="90"/>
+      <c r="CL19" s="92"/>
+      <c r="CM19" s="90"/>
+      <c r="CO19" s="92"/>
+      <c r="CP19" s="90"/>
+      <c r="CR19" s="92"/>
+      <c r="CS19" s="90"/>
+      <c r="CU19" s="92"/>
+      <c r="CV19" s="90"/>
     </row>
-    <row r="20" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="76" t="str">
+      <c r="E20" s="5"/>
+      <c r="F20" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="7" t="e">
-        <f>VLOOKUP(E20,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J20" s="6"/>
       <c r="K20" s="7" t="e">
-        <f>VLOOKUP(E20,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L20" s="5"/>
+        <f>VLOOKUP(F20,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L20" s="7" t="e">
+        <f>VLOOKUP(F20,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
-      <c r="P20" s="6">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="5"/>
+      <c r="R20" s="6"/>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="20"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="19"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
-      <c r="AB20" s="20">
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="20"/>
       <c r="AD20" s="20"/>
-      <c r="AE20" s="20">
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="21"/>
       <c r="AG20" s="21"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="29"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="34"/>
-      <c r="AM20" s="57" t="str">
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="30"/>
+      <c r="AL20" s="31"/>
+      <c r="AM20" s="34"/>
+      <c r="AN20" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO20" s="92"/>
-      <c r="AP20" s="90"/>
-      <c r="AR20" s="92"/>
-      <c r="AS20" s="90"/>
-      <c r="AU20" s="92"/>
-      <c r="AV20" s="90"/>
-      <c r="AX20" s="92"/>
-      <c r="AY20" s="90"/>
-      <c r="BA20" s="92"/>
-      <c r="BB20" s="90"/>
-      <c r="BD20" s="92"/>
-      <c r="BE20" s="90"/>
-      <c r="BG20" s="92"/>
-      <c r="BH20" s="90"/>
-      <c r="BJ20" s="92"/>
-      <c r="BK20" s="90"/>
-      <c r="BM20" s="92"/>
-      <c r="BN20" s="90"/>
-      <c r="BP20" s="92"/>
-      <c r="BQ20" s="90"/>
-      <c r="BS20" s="92"/>
-      <c r="BT20" s="90"/>
-      <c r="BV20" s="92"/>
-      <c r="BW20" s="90"/>
-      <c r="BY20" s="90"/>
+      <c r="AP20" s="92"/>
+      <c r="AQ20" s="90"/>
+      <c r="AS20" s="92"/>
+      <c r="AT20" s="90"/>
+      <c r="AV20" s="92"/>
+      <c r="AW20" s="90"/>
+      <c r="AY20" s="92"/>
+      <c r="AZ20" s="90"/>
+      <c r="BB20" s="92"/>
+      <c r="BC20" s="90"/>
+      <c r="BE20" s="92"/>
+      <c r="BF20" s="90"/>
+      <c r="BH20" s="92"/>
+      <c r="BI20" s="90"/>
+      <c r="BK20" s="92"/>
+      <c r="BL20" s="90"/>
+      <c r="BN20" s="92"/>
+      <c r="BO20" s="90"/>
+      <c r="BQ20" s="92"/>
+      <c r="BR20" s="90"/>
+      <c r="BT20" s="92"/>
+      <c r="BU20" s="90"/>
+      <c r="BW20" s="92"/>
+      <c r="BX20" s="90"/>
       <c r="BZ20" s="90"/>
-      <c r="CB20" s="92"/>
-      <c r="CC20" s="90"/>
-      <c r="CE20" s="92"/>
-      <c r="CF20" s="90"/>
-      <c r="CH20" s="92"/>
-      <c r="CI20" s="90"/>
-      <c r="CK20" s="92"/>
-      <c r="CL20" s="90"/>
-      <c r="CN20" s="92"/>
-      <c r="CO20" s="90"/>
-      <c r="CQ20" s="92"/>
-      <c r="CR20" s="90"/>
-      <c r="CT20" s="92"/>
-      <c r="CU20" s="90"/>
+      <c r="CA20" s="90"/>
+      <c r="CC20" s="92"/>
+      <c r="CD20" s="90"/>
+      <c r="CF20" s="92"/>
+      <c r="CG20" s="90"/>
+      <c r="CI20" s="92"/>
+      <c r="CJ20" s="90"/>
+      <c r="CL20" s="92"/>
+      <c r="CM20" s="90"/>
+      <c r="CO20" s="92"/>
+      <c r="CP20" s="90"/>
+      <c r="CR20" s="92"/>
+      <c r="CS20" s="90"/>
+      <c r="CU20" s="92"/>
+      <c r="CV20" s="90"/>
     </row>
-    <row r="21" spans="1:99" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="76" t="str">
+      <c r="E21" s="5"/>
+      <c r="F21" s="76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="7" t="e">
-        <f>VLOOKUP(E21,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J21" s="6"/>
       <c r="K21" s="7" t="e">
-        <f>VLOOKUP(E21,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L21" s="5"/>
+        <f>VLOOKUP(F21,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L21" s="7" t="e">
+        <f>VLOOKUP(F21,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
-      <c r="P21" s="6">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="78"/>
-      <c r="W21" s="79"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="78"/>
       <c r="X21" s="79"/>
       <c r="Y21" s="79"/>
       <c r="Z21" s="79"/>
       <c r="AA21" s="79"/>
-      <c r="AB21" s="20">
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="80"/>
       <c r="AD21" s="80"/>
-      <c r="AE21" s="20">
+      <c r="AE21" s="80"/>
+      <c r="AF21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="21"/>
       <c r="AG21" s="21"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="29"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="57" t="str">
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="30"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="57" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AP21" s="90"/>
-      <c r="AS21" s="90"/>
-      <c r="AV21" s="90"/>
-      <c r="AY21" s="90"/>
-      <c r="BA21" s="92"/>
-      <c r="BB21" s="90"/>
-      <c r="BE21" s="90"/>
-      <c r="BH21" s="90"/>
-      <c r="BJ21" s="90"/>
+      <c r="AQ21" s="90"/>
+      <c r="AT21" s="90"/>
+      <c r="AW21" s="90"/>
+      <c r="AZ21" s="90"/>
+      <c r="BB21" s="92"/>
+      <c r="BC21" s="90"/>
+      <c r="BF21" s="90"/>
+      <c r="BI21" s="90"/>
       <c r="BK21" s="90"/>
-      <c r="BN21" s="90"/>
-      <c r="BQ21" s="90"/>
-      <c r="BT21" s="90"/>
-      <c r="BW21" s="90"/>
-      <c r="BY21" s="92"/>
-      <c r="BZ21" s="90"/>
-      <c r="CC21" s="90"/>
-      <c r="CF21" s="90"/>
-      <c r="CI21" s="90"/>
-      <c r="CL21" s="90"/>
-      <c r="CO21" s="90"/>
-      <c r="CR21" s="90"/>
-      <c r="CT21" s="90"/>
+      <c r="BL21" s="90"/>
+      <c r="BO21" s="90"/>
+      <c r="BR21" s="90"/>
+      <c r="BU21" s="90"/>
+      <c r="BX21" s="90"/>
+      <c r="BZ21" s="92"/>
+      <c r="CA21" s="90"/>
+      <c r="CD21" s="90"/>
+      <c r="CG21" s="90"/>
+      <c r="CJ21" s="90"/>
+      <c r="CM21" s="90"/>
+      <c r="CP21" s="90"/>
+      <c r="CS21" s="90"/>
       <c r="CU21" s="90"/>
+      <c r="CV21" s="90"/>
     </row>
-    <row r="22" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:100" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="77" t="str">
+      <c r="E22" s="11"/>
+      <c r="F22" s="77" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="13" t="e">
-        <f>VLOOKUP(E22,LATLON!$A$2:$C$19,2)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="J22" s="12"/>
       <c r="K22" s="13" t="e">
-        <f>VLOOKUP(E22,LATLON!$A$2:$C$19,3)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L22" s="11"/>
+        <f>VLOOKUP(F22,LATLON!$A$2:$C$19,2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L22" s="13" t="e">
+        <f>VLOOKUP(F22,LATLON!$A$2:$C$19,3)</f>
+        <v>#N/A</v>
+      </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="12">
+      <c r="P22" s="11"/>
+      <c r="Q22" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="70"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="81"/>
       <c r="X22" s="70"/>
       <c r="Y22" s="70"/>
       <c r="Z22" s="70"/>
       <c r="AA22" s="70"/>
-      <c r="AB22" s="23">
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="82"/>
       <c r="AD22" s="82"/>
-      <c r="AE22" s="23">
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="24"/>
       <c r="AG22" s="24"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="87" t="str">
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="38"/>
+      <c r="AM22" s="40"/>
+      <c r="AN22" s="87" t="str">
         <f t="shared" si="4"/>
         <v>NA</v>
       </c>
-      <c r="AO22" s="92"/>
-      <c r="AP22" s="90"/>
-      <c r="AS22" s="90"/>
-      <c r="AV22" s="90"/>
-      <c r="AY22" s="90"/>
-      <c r="BA22" s="92"/>
-      <c r="BB22" s="90"/>
-      <c r="BE22" s="90"/>
-      <c r="BH22" s="90"/>
-      <c r="BJ22" s="92"/>
-      <c r="BK22" s="90"/>
-      <c r="BN22" s="90"/>
-      <c r="BQ22" s="90"/>
-      <c r="BT22" s="90"/>
-      <c r="BW22" s="90"/>
-      <c r="BZ22" s="90"/>
-      <c r="CC22" s="90"/>
-      <c r="CF22" s="90"/>
-      <c r="CI22" s="90"/>
-      <c r="CL22" s="90"/>
-      <c r="CO22" s="90"/>
-      <c r="CQ22" s="92"/>
-      <c r="CR22" s="90"/>
-      <c r="CT22" s="92"/>
-      <c r="CU22" s="90"/>
+      <c r="AP22" s="92"/>
+      <c r="AQ22" s="90"/>
+      <c r="AT22" s="90"/>
+      <c r="AW22" s="90"/>
+      <c r="AZ22" s="90"/>
+      <c r="BB22" s="92"/>
+      <c r="BC22" s="90"/>
+      <c r="BF22" s="90"/>
+      <c r="BI22" s="90"/>
+      <c r="BK22" s="92"/>
+      <c r="BL22" s="90"/>
+      <c r="BO22" s="90"/>
+      <c r="BR22" s="90"/>
+      <c r="BU22" s="90"/>
+      <c r="BX22" s="90"/>
+      <c r="CA22" s="90"/>
+      <c r="CD22" s="90"/>
+      <c r="CG22" s="90"/>
+      <c r="CJ22" s="90"/>
+      <c r="CM22" s="90"/>
+      <c r="CP22" s="90"/>
+      <c r="CR22" s="92"/>
+      <c r="CS22" s="90"/>
+      <c r="CU22" s="92"/>
+      <c r="CV22" s="90"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
